--- a/data/param2.xlsx
+++ b/data/param2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiongyi/Documents/pytest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12C28C68-96C9-6047-8BAF-2B9908F50647}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BCAAC5D-CCFE-BB46-9E16-8EDEB42055E6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="中插" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1105" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1115" uniqueCount="237">
   <si>
     <t>at</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -927,6 +927,29 @@
   </si>
   <si>
     <t>名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>变量名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>变量值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>global_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adspaces/middle/[0]/materials/[0]/name</t>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{global_name}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1320,10 +1343,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G146"/>
+  <dimension ref="A1:I146"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A142" sqref="A142"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -1336,7 +1359,7 @@
     <col min="7" max="7" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1">
+    <row r="1" spans="1:9" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>230</v>
       </c>
@@ -1358,8 +1381,14 @@
       <c r="G1" s="1" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" s="1" customFormat="1">
+      <c r="H1" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="1" customFormat="1">
       <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
@@ -1379,7 +1408,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="1" customFormat="1">
+    <row r="3" spans="1:9" s="1" customFormat="1">
       <c r="D3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1387,11 +1416,11 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:9">
       <c r="C4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>68</v>
       </c>
@@ -1414,7 +1443,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:9">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
@@ -1430,10 +1459,10 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:9">
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
         <v>69</v>
       </c>
@@ -1456,7 +1485,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:9">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="6" t="s">
@@ -1468,7 +1497,7 @@
       <c r="F9" s="1"/>
       <c r="G9" s="4"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:9">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="6" t="s">
@@ -1480,7 +1509,7 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:9">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="6" t="s">
@@ -1492,11 +1521,11 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:9">
       <c r="D12" s="7"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
         <v>70</v>
       </c>
@@ -1519,7 +1548,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:9">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="6" t="s">
@@ -1531,7 +1560,7 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:9">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="6" t="s">
@@ -1543,7 +1572,7 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:9">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="6" t="s">
@@ -3098,10 +3127,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G152"/>
+  <dimension ref="A1:I152"/>
   <sheetViews>
-    <sheetView topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="A148" sqref="A148"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -3114,7 +3143,7 @@
     <col min="7" max="7" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1">
+    <row r="1" spans="1:9" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>230</v>
       </c>
@@ -3136,8 +3165,14 @@
       <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" s="1" customFormat="1">
+      <c r="H1" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="1" customFormat="1">
       <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
@@ -3157,7 +3192,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="1" customFormat="1">
+    <row r="3" spans="1:9" s="1" customFormat="1">
       <c r="D3" s="1" t="s">
         <v>0</v>
       </c>
@@ -3165,8 +3200,8 @@
         <v>128</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="1" customFormat="1"/>
-    <row r="5" spans="1:7" s="1" customFormat="1">
+    <row r="4" spans="1:9" s="1" customFormat="1"/>
+    <row r="5" spans="1:9" s="1" customFormat="1">
       <c r="A5" s="1" t="s">
         <v>177</v>
       </c>
@@ -3189,7 +3224,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="1" customFormat="1">
+    <row r="6" spans="1:9" s="1" customFormat="1">
       <c r="D6" s="1" t="s">
         <v>0</v>
       </c>
@@ -3197,8 +3232,8 @@
         <v>128</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="1" customFormat="1"/>
-    <row r="8" spans="1:7" s="1" customFormat="1">
+    <row r="7" spans="1:9" s="1" customFormat="1"/>
+    <row r="8" spans="1:9" s="1" customFormat="1">
       <c r="A8" s="1" t="s">
         <v>179</v>
       </c>
@@ -3221,7 +3256,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="1" customFormat="1">
+    <row r="9" spans="1:9" s="1" customFormat="1">
       <c r="D9" s="1" t="s">
         <v>0</v>
       </c>
@@ -3235,11 +3270,11 @@
         <v>172</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:9">
       <c r="C10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>167</v>
       </c>
@@ -3262,7 +3297,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:9">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
@@ -3278,10 +3313,10 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:9">
       <c r="C13" s="1"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
         <v>145</v>
       </c>
@@ -3304,7 +3339,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:9">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="6" t="s">
@@ -3316,7 +3351,7 @@
       <c r="F15" s="1"/>
       <c r="G15" s="4"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:9">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="6" t="s">
@@ -4949,10 +4984,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G152"/>
+  <dimension ref="A1:I153"/>
   <sheetViews>
-    <sheetView topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="A148" sqref="A148"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -4965,7 +5000,7 @@
     <col min="7" max="7" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1">
+    <row r="1" spans="1:9" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>230</v>
       </c>
@@ -4987,8 +5022,14 @@
       <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" s="1" customFormat="1">
+      <c r="H1" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="1" customFormat="1">
       <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
@@ -5007,8 +5048,14 @@
       <c r="G2" s="3" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" s="1" customFormat="1">
+      <c r="H2" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="1" customFormat="1">
       <c r="D3" s="1" t="s">
         <v>0</v>
       </c>
@@ -5016,8 +5063,8 @@
         <v>210</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="1" customFormat="1"/>
-    <row r="5" spans="1:7" s="1" customFormat="1">
+    <row r="4" spans="1:9" s="1" customFormat="1"/>
+    <row r="5" spans="1:9" s="1" customFormat="1">
       <c r="A5" s="1" t="s">
         <v>182</v>
       </c>
@@ -5040,7 +5087,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="1" customFormat="1">
+    <row r="6" spans="1:9" s="1" customFormat="1">
       <c r="D6" s="1" t="s">
         <v>0</v>
       </c>
@@ -5048,196 +5095,192 @@
         <v>210</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="1" customFormat="1"/>
-    <row r="8" spans="1:7" s="1" customFormat="1">
-      <c r="A8" s="1" t="s">
+    <row r="7" spans="1:9" s="1" customFormat="1">
+      <c r="D7" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="1" customFormat="1"/>
+    <row r="9" spans="1:9" s="1" customFormat="1">
+      <c r="A9" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G9" s="3" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="1" customFormat="1">
-      <c r="D9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E9" s="1" t="s">
+    <row r="10" spans="1:9" s="1" customFormat="1">
+      <c r="D10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
-      <c r="C10" s="1"/>
-      <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" t="s">
+    <row r="11" spans="1:9">
+      <c r="C11" s="1"/>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" t="s">
         <v>184</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E12" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G12" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E12" s="1" t="s">
+    <row r="13" spans="1:9">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F13" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G13" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
-      <c r="C13" s="1"/>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:9">
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D15" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E15" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F15" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="G15" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E15" s="2">
-        <v>600001</v>
-      </c>
-      <c r="F15" s="1"/>
-      <c r="G15" s="4"/>
-    </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:9">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>210</v>
+        <v>17</v>
+      </c>
+      <c r="E16" s="2">
+        <v>600001</v>
       </c>
       <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
+      <c r="G16" s="4"/>
     </row>
     <row r="17" spans="1:7">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="6" t="s">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>19</v>
+        <v>210</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="D18" s="7"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="10" t="s">
+      <c r="D19" s="7"/>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D20" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E20" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F20" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="G20" s="1" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E20" s="2">
-        <v>600001</v>
-      </c>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>210</v>
+        <v>17</v>
+      </c>
+      <c r="E21" s="2">
+        <v>600001</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
@@ -5246,61 +5289,61 @@
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="6" t="s">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>19</v>
+        <v>210</v>
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="D23" s="7"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F23" s="1"/>
       <c r="G23" s="1"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="10" t="s">
+      <c r="D24" s="7"/>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B25" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C25" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="D25" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E25" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="F25" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="G25" s="1" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E25" s="2">
-        <v>600001</v>
-      </c>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:7">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>210</v>
+        <v>17</v>
+      </c>
+      <c r="E26" s="2">
+        <v>600001</v>
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
@@ -5309,61 +5352,61 @@
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>27</v>
+        <v>0</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>210</v>
       </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="D28" s="7"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F28" s="1"/>
       <c r="G28" s="1"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="10" t="s">
+      <c r="D29" s="7"/>
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B30" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C30" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="D30" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="E30" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="F30" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="G29" s="1" t="s">
+      <c r="G30" s="1" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
     </row>
     <row r="31" spans="1:7">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>210</v>
+        <v>17</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
@@ -5372,72 +5415,72 @@
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="6" t="s">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>19</v>
+        <v>210</v>
       </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="D33" s="7"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="10" t="s">
+      <c r="D34" s="7"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B35" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D35" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E34" s="2" t="s">
+      <c r="E35" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="F34" s="1" t="s">
+      <c r="F35" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="G34" s="1" t="s">
+      <c r="G35" s="1" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F35" s="1"/>
-      <c r="G35" s="4"/>
     </row>
     <row r="36" spans="1:7">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
-      <c r="D36" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>210</v>
+      <c r="D36" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
+      <c r="G36" s="4"/>
     </row>
     <row r="37" spans="1:7">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
-      <c r="D37" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>33</v>
+      <c r="D37" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>210</v>
       </c>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
@@ -5445,77 +5488,77 @@
     <row r="38" spans="1:7">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
-      <c r="D38" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>35</v>
+      <c r="D38" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
     </row>
     <row r="39" spans="1:7">
+      <c r="B39" s="1"/>
       <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
+      <c r="D39" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>35</v>
+      </c>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="10" t="s">
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B41" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C41" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="D41" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E40" s="2" t="s">
+      <c r="E41" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="F40" s="1" t="s">
+      <c r="F41" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="G40" s="1" t="s">
+      <c r="G41" s="1" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F41" s="1"/>
-      <c r="G41" s="4"/>
     </row>
     <row r="42" spans="1:7">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
-      <c r="D42" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>210</v>
+      <c r="D42" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
+      <c r="G42" s="4"/>
     </row>
     <row r="43" spans="1:7">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
-      <c r="D43" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>19</v>
+      <c r="D43" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>210</v>
       </c>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
@@ -5523,1157 +5566,1157 @@
     <row r="44" spans="1:7">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
-      <c r="D44" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E44" s="5" t="s">
-        <v>42</v>
+      <c r="D44" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
     </row>
-    <row r="46" spans="1:7">
-      <c r="A46" s="12" t="s">
+    <row r="45" spans="1:7">
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B47" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C47" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="D47" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E46" s="2" t="s">
+      <c r="E47" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="F46" s="1" t="s">
+      <c r="F47" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="G46" s="11" t="s">
+      <c r="G47" s="11" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="47" spans="1:7">
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E47" s="2">
-        <v>600001</v>
-      </c>
-      <c r="F47" s="1"/>
     </row>
     <row r="48" spans="1:7">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
-      <c r="D48" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E48" s="5" t="s">
-        <v>210</v>
+      <c r="D48" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E48" s="2">
+        <v>600001</v>
       </c>
       <c r="F48" s="1"/>
     </row>
     <row r="49" spans="1:7">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
-      <c r="D49" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>51</v>
+      <c r="D49" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>210</v>
       </c>
       <c r="F49" s="1"/>
     </row>
     <row r="50" spans="1:7">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
-      <c r="D50" s="3" t="s">
+      <c r="D50" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F50" s="1"/>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E50" s="5" t="s">
+      <c r="E51" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="F50" s="1"/>
-    </row>
-    <row r="51" spans="1:7">
-      <c r="C51" s="1"/>
+      <c r="F51" s="1"/>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="12" t="s">
+      <c r="C52" s="1"/>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B53" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C53" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="D53" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E52" s="2" t="s">
+      <c r="E53" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="F52" s="1" t="s">
+      <c r="F53" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="G52" s="11" t="s">
+      <c r="G53" s="11" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E53" s="2">
-        <v>600001</v>
-      </c>
-      <c r="F53" s="1"/>
     </row>
     <row r="54" spans="1:7">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
-      <c r="D54" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E54" s="5" t="s">
-        <v>210</v>
+      <c r="D54" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E54" s="2">
+        <v>600001</v>
       </c>
       <c r="F54" s="1"/>
     </row>
     <row r="55" spans="1:7">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
-      <c r="D55" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>51</v>
+      <c r="D55" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>210</v>
       </c>
       <c r="F55" s="1"/>
     </row>
     <row r="56" spans="1:7">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
-      <c r="D56" s="3" t="s">
+      <c r="D56" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F56" s="1"/>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E56" s="5" t="s">
+      <c r="E57" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="F56" s="1"/>
-    </row>
-    <row r="58" spans="1:7">
-      <c r="A58" s="12" t="s">
+      <c r="F57" s="1"/>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B59" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C59" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D58" s="1" t="s">
+      <c r="D59" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E58" s="2" t="s">
+      <c r="E59" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="F58" s="1" t="s">
+      <c r="F59" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="G58" s="11" t="s">
+      <c r="G59" s="11" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="59" spans="1:7">
-      <c r="B59" s="1"/>
-      <c r="C59" s="1"/>
-      <c r="D59" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E59" s="2">
-        <v>600001</v>
-      </c>
-      <c r="F59" s="1"/>
     </row>
     <row r="60" spans="1:7">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
-      <c r="D60" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E60" s="5" t="s">
-        <v>210</v>
+      <c r="D60" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E60" s="2">
+        <v>600001</v>
       </c>
       <c r="F60" s="1"/>
     </row>
     <row r="61" spans="1:7">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
-      <c r="D61" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>19</v>
+      <c r="D61" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>210</v>
       </c>
       <c r="F61" s="1"/>
     </row>
     <row r="62" spans="1:7">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
-      <c r="D62" s="3" t="s">
+      <c r="D62" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F62" s="1"/>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E62" s="5" t="s">
+      <c r="E63" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="F62" s="1"/>
-    </row>
-    <row r="64" spans="1:7">
-      <c r="A64" s="12" t="s">
+      <c r="F63" s="1"/>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" s="12" t="s">
         <v>194</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="B65" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D64" s="1" t="s">
+      <c r="D65" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E64" s="2" t="s">
+      <c r="E65" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="F64" s="1" t="s">
+      <c r="F65" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="G64" s="11" t="s">
+      <c r="G65" s="11" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="65" spans="1:7">
-      <c r="B65" s="1"/>
-      <c r="C65" s="1"/>
-      <c r="D65" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E65" s="2">
-        <v>600001</v>
-      </c>
-      <c r="F65" s="1"/>
     </row>
     <row r="66" spans="1:7">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
-      <c r="D66" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E66" s="5" t="s">
-        <v>210</v>
+      <c r="D66" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E66" s="2">
+        <v>600001</v>
       </c>
       <c r="F66" s="1"/>
     </row>
     <row r="67" spans="1:7">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
-      <c r="D67" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>19</v>
+      <c r="D67" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>210</v>
       </c>
       <c r="F67" s="1"/>
     </row>
     <row r="68" spans="1:7">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
-      <c r="D68" s="3" t="s">
+      <c r="D68" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F68" s="1"/>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E68" s="5" t="s">
+      <c r="E69" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="F68" s="1"/>
-    </row>
-    <row r="69" spans="1:7">
-      <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
-      <c r="E69" s="1"/>
       <c r="F69" s="1"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="10" t="s">
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="B71" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="C71" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D70" s="1" t="s">
+      <c r="D71" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E70" s="2" t="s">
+      <c r="E71" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="F70" s="1" t="s">
+      <c r="F71" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="G70" s="11" t="s">
+      <c r="G71" s="11" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
-      <c r="B71" s="1"/>
-      <c r="C71" s="1"/>
-      <c r="D71" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E71" s="2">
-        <v>600001</v>
-      </c>
-      <c r="F71" s="1"/>
     </row>
     <row r="72" spans="1:7">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
-      <c r="D72" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E72" s="5" t="s">
-        <v>210</v>
+      <c r="D72" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E72" s="2">
+        <v>600001</v>
       </c>
       <c r="F72" s="1"/>
     </row>
     <row r="73" spans="1:7">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
-      <c r="D73" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>64</v>
+      <c r="D73" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E73" s="5" t="s">
+        <v>210</v>
       </c>
       <c r="F73" s="1"/>
     </row>
     <row r="74" spans="1:7">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
-      <c r="D74" s="3" t="s">
+      <c r="D74" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F74" s="1"/>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="B75" s="1"/>
+      <c r="C75" s="1"/>
+      <c r="D75" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E74" s="5" t="s">
+      <c r="E75" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="F74" s="1"/>
-    </row>
-    <row r="75" spans="1:7">
-      <c r="C75" s="1"/>
-      <c r="D75" s="1"/>
-      <c r="E75" s="1"/>
       <c r="F75" s="1"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="10" t="s">
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1"/>
+      <c r="F76" s="1"/>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="B77" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="C77" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D76" s="1" t="s">
+      <c r="D77" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E76" s="2" t="s">
+      <c r="E77" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="F76" s="1" t="s">
+      <c r="F77" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="G76" s="11" t="s">
+      <c r="G77" s="11" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="77" spans="1:7">
-      <c r="B77" s="1"/>
-      <c r="C77" s="1"/>
-      <c r="D77" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E77" s="2">
-        <v>600001</v>
-      </c>
-      <c r="F77" s="1"/>
     </row>
     <row r="78" spans="1:7">
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
-      <c r="D78" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E78" s="5" t="s">
-        <v>210</v>
+      <c r="D78" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E78" s="2">
+        <v>600001</v>
       </c>
       <c r="F78" s="1"/>
     </row>
     <row r="79" spans="1:7">
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
-      <c r="D79" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>64</v>
+      <c r="D79" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E79" s="5" t="s">
+        <v>210</v>
       </c>
       <c r="F79" s="1"/>
     </row>
     <row r="80" spans="1:7">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
-      <c r="D80" s="3" t="s">
+      <c r="D80" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F80" s="1"/>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="B81" s="1"/>
+      <c r="C81" s="1"/>
+      <c r="D81" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E80" s="5" t="s">
+      <c r="E81" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="F80" s="1"/>
-    </row>
-    <row r="82" spans="1:7">
-      <c r="A82" s="12" t="s">
+      <c r="F81" s="1"/>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83" s="12" t="s">
         <v>197</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="B83" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C82" s="1" t="s">
+      <c r="C83" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D82" s="1" t="s">
+      <c r="D83" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E82" s="2" t="s">
+      <c r="E83" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="F82" s="1" t="s">
+      <c r="F83" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="G82" s="11" t="s">
+      <c r="G83" s="11" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
-      <c r="B83" s="1"/>
-      <c r="C83" s="1"/>
-      <c r="D83" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E83" s="2">
-        <v>600001</v>
-      </c>
-      <c r="F83" s="1"/>
     </row>
     <row r="84" spans="1:7">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
-      <c r="D84" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E84" s="5" t="s">
-        <v>210</v>
+      <c r="D84" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E84" s="2">
+        <v>600001</v>
       </c>
       <c r="F84" s="1"/>
     </row>
     <row r="85" spans="1:7">
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
-      <c r="D85" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>19</v>
+      <c r="D85" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E85" s="5" t="s">
+        <v>210</v>
       </c>
       <c r="F85" s="1"/>
     </row>
     <row r="86" spans="1:7">
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
-      <c r="D86" s="3" t="s">
+      <c r="D86" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F86" s="1"/>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="B87" s="1"/>
+      <c r="C87" s="1"/>
+      <c r="D87" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="E86" s="5" t="s">
+      <c r="E87" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="F86" s="1"/>
-    </row>
-    <row r="88" spans="1:7">
-      <c r="A88" s="12" t="s">
+      <c r="F87" s="1"/>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89" s="12" t="s">
         <v>198</v>
       </c>
-      <c r="B88" s="1" t="s">
+      <c r="B89" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C88" s="1" t="s">
+      <c r="C89" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D88" s="1" t="s">
+      <c r="D89" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E88" s="2" t="s">
+      <c r="E89" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="F88" s="1" t="s">
+      <c r="F89" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="G88" s="11" t="s">
+      <c r="G89" s="11" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="89" spans="1:7">
-      <c r="B89" s="1"/>
-      <c r="C89" s="1"/>
-      <c r="D89" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E89" s="2">
-        <v>600001</v>
-      </c>
-      <c r="F89" s="1"/>
     </row>
     <row r="90" spans="1:7">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
-      <c r="D90" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E90" s="5" t="s">
-        <v>210</v>
+      <c r="D90" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E90" s="2">
+        <v>600001</v>
       </c>
       <c r="F90" s="1"/>
     </row>
     <row r="91" spans="1:7">
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
-      <c r="D91" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>19</v>
+      <c r="D91" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E91" s="5" t="s">
+        <v>210</v>
       </c>
       <c r="F91" s="1"/>
     </row>
     <row r="92" spans="1:7">
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
-      <c r="D92" s="3" t="s">
+      <c r="D92" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F92" s="1"/>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="B93" s="1"/>
+      <c r="C93" s="1"/>
+      <c r="D93" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="E92" s="5" t="s">
+      <c r="E93" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="F92" s="1"/>
-    </row>
-    <row r="94" spans="1:7">
-      <c r="A94" s="12" t="s">
+      <c r="F93" s="1"/>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="A95" s="12" t="s">
         <v>199</v>
       </c>
-      <c r="B94" s="1" t="s">
+      <c r="B95" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C94" s="1" t="s">
+      <c r="C95" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D94" s="1" t="s">
+      <c r="D95" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E94" s="2" t="s">
+      <c r="E95" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="F94" s="1" t="s">
+      <c r="F95" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="G94" s="11" t="s">
+      <c r="G95" s="11" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="95" spans="1:7">
-      <c r="B95" s="1"/>
-      <c r="C95" s="1"/>
-      <c r="D95" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E95" s="2">
-        <v>600001</v>
-      </c>
-      <c r="F95" s="1"/>
     </row>
     <row r="96" spans="1:7">
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
-      <c r="D96" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E96" s="5" t="s">
-        <v>210</v>
+      <c r="D96" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E96" s="2">
+        <v>600001</v>
       </c>
       <c r="F96" s="1"/>
     </row>
     <row r="97" spans="1:7">
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
-      <c r="D97" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>19</v>
+      <c r="D97" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E97" s="5" t="s">
+        <v>210</v>
       </c>
       <c r="F97" s="1"/>
     </row>
     <row r="98" spans="1:7">
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
-      <c r="D98" s="3" t="s">
+      <c r="D98" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F98" s="1"/>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="B99" s="1"/>
+      <c r="C99" s="1"/>
+      <c r="D99" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="E98" s="5" t="s">
+      <c r="E99" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="F98" s="1"/>
-    </row>
-    <row r="100" spans="1:7">
-      <c r="A100" s="12" t="s">
+      <c r="F99" s="1"/>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="A101" s="12" t="s">
         <v>200</v>
       </c>
-      <c r="B100" s="1" t="s">
+      <c r="B101" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C100" s="1" t="s">
+      <c r="C101" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D100" s="1" t="s">
+      <c r="D101" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E100" s="2" t="s">
+      <c r="E101" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="F100" s="1" t="s">
+      <c r="F101" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="G100" s="11" t="s">
+      <c r="G101" s="11" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
-      <c r="B101" s="1"/>
-      <c r="C101" s="1"/>
-      <c r="D101" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E101" s="2">
-        <v>600001</v>
-      </c>
-      <c r="F101" s="1"/>
     </row>
     <row r="102" spans="1:7">
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
-      <c r="D102" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E102" s="5" t="s">
-        <v>210</v>
+      <c r="D102" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E102" s="2">
+        <v>600001</v>
       </c>
       <c r="F102" s="1"/>
     </row>
     <row r="103" spans="1:7">
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
-      <c r="D103" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>19</v>
+      <c r="D103" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E103" s="5" t="s">
+        <v>210</v>
       </c>
       <c r="F103" s="1"/>
     </row>
     <row r="104" spans="1:7">
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
-      <c r="D104" s="3" t="s">
+      <c r="D104" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F104" s="1"/>
+    </row>
+    <row r="105" spans="1:7">
+      <c r="B105" s="1"/>
+      <c r="C105" s="1"/>
+      <c r="D105" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="E104" s="5" t="s">
+      <c r="E105" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="F104" s="1"/>
-    </row>
-    <row r="106" spans="1:7">
-      <c r="A106" s="12" t="s">
+      <c r="F105" s="1"/>
+    </row>
+    <row r="107" spans="1:7">
+      <c r="A107" s="12" t="s">
         <v>201</v>
       </c>
-      <c r="B106" s="1" t="s">
+      <c r="B107" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C106" s="1" t="s">
+      <c r="C107" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D106" s="1" t="s">
+      <c r="D107" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E106" s="2" t="s">
+      <c r="E107" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="F106" s="1" t="s">
+      <c r="F107" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="G106" s="11" t="s">
+      <c r="G107" s="11" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="107" spans="1:7">
-      <c r="B107" s="1"/>
-      <c r="C107" s="1"/>
-      <c r="D107" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E107" s="2">
-        <v>600001</v>
-      </c>
-      <c r="F107" s="1"/>
     </row>
     <row r="108" spans="1:7">
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
-      <c r="D108" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E108" s="5" t="s">
-        <v>210</v>
+      <c r="D108" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E108" s="2">
+        <v>600001</v>
       </c>
       <c r="F108" s="1"/>
     </row>
     <row r="109" spans="1:7">
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
-      <c r="D109" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>19</v>
+      <c r="D109" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E109" s="5" t="s">
+        <v>210</v>
       </c>
       <c r="F109" s="1"/>
     </row>
     <row r="110" spans="1:7">
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
-      <c r="D110" s="3" t="s">
+      <c r="D110" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F110" s="1"/>
+    </row>
+    <row r="111" spans="1:7">
+      <c r="B111" s="1"/>
+      <c r="C111" s="1"/>
+      <c r="D111" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="E110" s="5" t="s">
+      <c r="E111" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="F110" s="1"/>
-    </row>
-    <row r="112" spans="1:7">
-      <c r="A112" s="12" t="s">
+      <c r="F111" s="1"/>
+    </row>
+    <row r="113" spans="1:7">
+      <c r="A113" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="B112" s="1" t="s">
+      <c r="B113" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C112" s="1" t="s">
+      <c r="C113" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D112" s="1" t="s">
+      <c r="D113" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E112" s="2" t="s">
+      <c r="E113" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="F112" s="1" t="s">
+      <c r="F113" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="G112" s="11" t="s">
+      <c r="G113" s="11" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="113" spans="1:7">
-      <c r="B113" s="1"/>
-      <c r="C113" s="1"/>
-      <c r="D113" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E113" s="2">
-        <v>600001</v>
-      </c>
-      <c r="F113" s="1"/>
     </row>
     <row r="114" spans="1:7">
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
-      <c r="D114" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E114" s="5" t="s">
-        <v>210</v>
+      <c r="D114" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E114" s="2">
+        <v>600001</v>
       </c>
       <c r="F114" s="1"/>
     </row>
     <row r="115" spans="1:7">
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
-      <c r="D115" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>19</v>
+      <c r="D115" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E115" s="5" t="s">
+        <v>210</v>
       </c>
       <c r="F115" s="1"/>
     </row>
     <row r="116" spans="1:7">
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
-      <c r="D116" s="3" t="s">
+      <c r="D116" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F116" s="1"/>
+    </row>
+    <row r="117" spans="1:7">
+      <c r="B117" s="1"/>
+      <c r="C117" s="1"/>
+      <c r="D117" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="E116" s="5" t="s">
+      <c r="E117" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="F116" s="1"/>
-    </row>
-    <row r="118" spans="1:7">
-      <c r="A118" s="12" t="s">
+      <c r="F117" s="1"/>
+    </row>
+    <row r="119" spans="1:7">
+      <c r="A119" s="12" t="s">
         <v>203</v>
       </c>
-      <c r="B118" s="1" t="s">
+      <c r="B119" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C118" s="1" t="s">
+      <c r="C119" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D118" s="1" t="s">
+      <c r="D119" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="E118" s="2" t="s">
+      <c r="E119" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="F118" s="1" t="s">
+      <c r="F119" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="G118" s="11" t="s">
+      <c r="G119" s="11" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="119" spans="1:7">
-      <c r="B119" s="1"/>
-      <c r="C119" s="1"/>
-      <c r="D119" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E119" s="2">
-        <v>600001</v>
-      </c>
-      <c r="F119" s="1"/>
     </row>
     <row r="120" spans="1:7">
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
-      <c r="D120" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E120" s="5" t="s">
-        <v>210</v>
+      <c r="D120" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E120" s="2">
+        <v>600001</v>
       </c>
       <c r="F120" s="1"/>
     </row>
     <row r="121" spans="1:7">
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
-      <c r="D121" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E121" s="2" t="s">
-        <v>19</v>
+      <c r="D121" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E121" s="5" t="s">
+        <v>210</v>
       </c>
       <c r="F121" s="1"/>
     </row>
     <row r="122" spans="1:7">
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
-      <c r="D122" s="3" t="s">
+      <c r="D122" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F122" s="1"/>
+    </row>
+    <row r="123" spans="1:7">
+      <c r="B123" s="1"/>
+      <c r="C123" s="1"/>
+      <c r="D123" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="E122" s="5" t="s">
+      <c r="E123" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="F122" s="1"/>
-    </row>
-    <row r="124" spans="1:7">
-      <c r="A124" s="12" t="s">
+      <c r="F123" s="1"/>
+    </row>
+    <row r="125" spans="1:7">
+      <c r="A125" s="12" t="s">
         <v>204</v>
       </c>
-      <c r="B124" s="1" t="s">
+      <c r="B125" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C124" s="1" t="s">
+      <c r="C125" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D124" s="1" t="s">
+      <c r="D125" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="E124" s="2" t="s">
+      <c r="E125" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="F124" s="1" t="s">
+      <c r="F125" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="G124" s="11" t="s">
+      <c r="G125" s="11" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="125" spans="1:7">
-      <c r="B125" s="1"/>
-      <c r="C125" s="1"/>
-      <c r="D125" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E125" s="2">
-        <v>600001</v>
-      </c>
-      <c r="F125" s="1"/>
     </row>
     <row r="126" spans="1:7">
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
-      <c r="D126" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E126" s="5" t="s">
-        <v>210</v>
+      <c r="D126" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E126" s="2">
+        <v>600001</v>
       </c>
       <c r="F126" s="1"/>
     </row>
     <row r="127" spans="1:7">
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
-      <c r="D127" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E127" s="2" t="s">
-        <v>19</v>
+      <c r="D127" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E127" s="5" t="s">
+        <v>210</v>
       </c>
       <c r="F127" s="1"/>
     </row>
     <row r="128" spans="1:7">
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
-      <c r="D128" s="3" t="s">
+      <c r="D128" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F128" s="1"/>
+    </row>
+    <row r="129" spans="1:7">
+      <c r="B129" s="1"/>
+      <c r="C129" s="1"/>
+      <c r="D129" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="E128">
+      <c r="E129">
         <v>123</v>
       </c>
-      <c r="F128" s="1"/>
-    </row>
-    <row r="130" spans="1:7">
-      <c r="A130" s="12" t="s">
+      <c r="F129" s="1"/>
+    </row>
+    <row r="131" spans="1:7">
+      <c r="A131" s="12" t="s">
         <v>205</v>
       </c>
-      <c r="B130" s="1" t="s">
+      <c r="B131" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C130" s="1" t="s">
+      <c r="C131" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D130" s="1" t="s">
+      <c r="D131" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="E130" s="2" t="s">
+      <c r="E131" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="F130" s="1" t="s">
+      <c r="F131" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="G130" s="11" t="s">
+      <c r="G131" s="11" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="131" spans="1:7">
-      <c r="B131" s="1"/>
-      <c r="C131" s="1"/>
-      <c r="D131" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E131" s="2">
-        <v>600001</v>
-      </c>
-      <c r="F131" s="1"/>
     </row>
     <row r="132" spans="1:7">
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
-      <c r="D132" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E132" s="5" t="s">
-        <v>210</v>
+      <c r="D132" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E132" s="2">
+        <v>600001</v>
       </c>
       <c r="F132" s="1"/>
     </row>
     <row r="133" spans="1:7">
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
-      <c r="D133" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E133" s="2" t="s">
-        <v>19</v>
+      <c r="D133" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E133" s="5" t="s">
+        <v>210</v>
       </c>
       <c r="F133" s="1"/>
     </row>
     <row r="134" spans="1:7">
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
-      <c r="D134" t="s">
+      <c r="D134" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F134" s="1"/>
+    </row>
+    <row r="135" spans="1:7">
+      <c r="B135" s="1"/>
+      <c r="C135" s="1"/>
+      <c r="D135" t="s">
         <v>118</v>
       </c>
-      <c r="E134" s="9" t="s">
+      <c r="E135" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="F134" s="1"/>
-    </row>
-    <row r="136" spans="1:7">
-      <c r="A136" s="12" t="s">
+      <c r="F135" s="1"/>
+    </row>
+    <row r="137" spans="1:7">
+      <c r="A137" s="12" t="s">
         <v>206</v>
       </c>
-      <c r="B136" s="1" t="s">
+      <c r="B137" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C136" s="1" t="s">
+      <c r="C137" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D136" s="1" t="s">
+      <c r="D137" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="E136" s="2" t="s">
+      <c r="E137" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="F136" s="1" t="s">
+      <c r="F137" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="G136" s="11" t="s">
+      <c r="G137" s="11" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="137" spans="1:7">
-      <c r="B137" s="1"/>
-      <c r="C137" s="1"/>
-      <c r="D137" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E137" s="2">
-        <v>600001</v>
-      </c>
-      <c r="F137" s="1"/>
     </row>
     <row r="138" spans="1:7">
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
-      <c r="D138" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E138" s="5" t="s">
-        <v>210</v>
+      <c r="D138" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E138" s="2">
+        <v>600001</v>
       </c>
       <c r="F138" s="1"/>
     </row>
     <row r="139" spans="1:7">
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
-      <c r="D139" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E139" s="2" t="s">
-        <v>19</v>
+      <c r="D139" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E139" s="5" t="s">
+        <v>210</v>
       </c>
       <c r="F139" s="1"/>
     </row>
     <row r="140" spans="1:7">
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
-      <c r="D140" t="s">
+      <c r="D140" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F140" s="1"/>
+    </row>
+    <row r="141" spans="1:7">
+      <c r="B141" s="1"/>
+      <c r="C141" s="1"/>
+      <c r="D141" t="s">
         <v>118</v>
       </c>
-      <c r="E140" s="9">
+      <c r="E141" s="9">
         <v>123</v>
       </c>
-      <c r="F140" s="1"/>
-    </row>
-    <row r="142" spans="1:7">
-      <c r="A142" s="12" t="s">
+      <c r="F141" s="1"/>
+    </row>
+    <row r="143" spans="1:7">
+      <c r="A143" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="B142" s="1" t="s">
+      <c r="B143" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C142" s="1" t="s">
+      <c r="C143" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D142" s="1" t="s">
+      <c r="D143" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E142" s="2" t="s">
+      <c r="E143" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="F142" s="1" t="s">
+      <c r="F143" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="G142" s="11" t="s">
+      <c r="G143" s="11" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="143" spans="1:7">
-      <c r="B143" s="1"/>
-      <c r="C143" s="1"/>
-      <c r="D143" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E143" s="2">
-        <v>600001</v>
-      </c>
-      <c r="F143" s="1"/>
-      <c r="G143" s="4"/>
     </row>
     <row r="144" spans="1:7">
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
-      <c r="D144" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E144" s="5" t="s">
-        <v>210</v>
+      <c r="D144" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E144" s="2">
+        <v>600001</v>
       </c>
       <c r="F144" s="1"/>
-      <c r="G144" s="1"/>
+      <c r="G144" s="4"/>
     </row>
     <row r="145" spans="1:7">
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
-      <c r="D145" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E145" s="2" t="s">
-        <v>19</v>
+      <c r="D145" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E145" s="5" t="s">
+        <v>210</v>
       </c>
       <c r="F145" s="1"/>
       <c r="G145" s="1"/>
@@ -6681,70 +6724,70 @@
     <row r="146" spans="1:7">
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
-      <c r="D146" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="E146" s="5" t="s">
-        <v>122</v>
+      <c r="D146" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="F146" s="1"/>
       <c r="G146" s="1"/>
     </row>
-    <row r="148" spans="1:7">
-      <c r="A148" s="12" t="s">
+    <row r="147" spans="1:7">
+      <c r="B147" s="1"/>
+      <c r="C147" s="1"/>
+      <c r="D147" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E147" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F147" s="1"/>
+      <c r="G147" s="1"/>
+    </row>
+    <row r="149" spans="1:7">
+      <c r="A149" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="B148" s="1" t="s">
+      <c r="B149" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C148" s="1" t="s">
+      <c r="C149" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D148" s="1" t="s">
+      <c r="D149" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E148" s="2" t="s">
+      <c r="E149" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="F148" s="1" t="s">
+      <c r="F149" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="G148" s="11" t="s">
+      <c r="G149" s="11" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="149" spans="1:7">
-      <c r="B149" s="1"/>
-      <c r="C149" s="1"/>
-      <c r="D149" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E149" s="2">
-        <v>600001</v>
-      </c>
-      <c r="F149" s="1"/>
-      <c r="G149" s="4"/>
     </row>
     <row r="150" spans="1:7">
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
-      <c r="D150" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E150" s="5" t="s">
-        <v>210</v>
+      <c r="D150" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E150" s="2">
+        <v>600001</v>
       </c>
       <c r="F150" s="1"/>
-      <c r="G150" s="1"/>
+      <c r="G150" s="4"/>
     </row>
     <row r="151" spans="1:7">
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
-      <c r="D151" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E151" s="2" t="s">
-        <v>19</v>
+      <c r="D151" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E151" s="5" t="s">
+        <v>210</v>
       </c>
       <c r="F151" s="1"/>
       <c r="G151" s="1"/>
@@ -6752,46 +6795,58 @@
     <row r="152" spans="1:7">
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
-      <c r="D152" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="E152" s="5" t="s">
-        <v>60</v>
+      <c r="D152" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="F152" s="1"/>
       <c r="G152" s="1"/>
+    </row>
+    <row r="153" spans="1:7">
+      <c r="B153" s="1"/>
+      <c r="C153" s="1"/>
+      <c r="D153" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E153" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F153" s="1"/>
+      <c r="G153" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="C11" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
-    <hyperlink ref="C14" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
-    <hyperlink ref="C19" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
-    <hyperlink ref="C24" r:id="rId5" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
-    <hyperlink ref="C29" r:id="rId6" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
-    <hyperlink ref="C34" r:id="rId7" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
-    <hyperlink ref="C40" r:id="rId8" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
-    <hyperlink ref="C46" r:id="rId9" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
-    <hyperlink ref="C52" r:id="rId10" xr:uid="{00000000-0004-0000-0200-000009000000}"/>
-    <hyperlink ref="C58" r:id="rId11" xr:uid="{00000000-0004-0000-0200-00000A000000}"/>
-    <hyperlink ref="C64" r:id="rId12" xr:uid="{00000000-0004-0000-0200-00000B000000}"/>
-    <hyperlink ref="C70" r:id="rId13" xr:uid="{00000000-0004-0000-0200-00000C000000}"/>
-    <hyperlink ref="C76" r:id="rId14" xr:uid="{00000000-0004-0000-0200-00000D000000}"/>
-    <hyperlink ref="C82" r:id="rId15" xr:uid="{00000000-0004-0000-0200-00000E000000}"/>
-    <hyperlink ref="C88" r:id="rId16" xr:uid="{00000000-0004-0000-0200-00000F000000}"/>
-    <hyperlink ref="C94" r:id="rId17" xr:uid="{00000000-0004-0000-0200-000010000000}"/>
-    <hyperlink ref="C100" r:id="rId18" xr:uid="{00000000-0004-0000-0200-000011000000}"/>
-    <hyperlink ref="C106" r:id="rId19" xr:uid="{00000000-0004-0000-0200-000012000000}"/>
-    <hyperlink ref="C112" r:id="rId20" xr:uid="{00000000-0004-0000-0200-000013000000}"/>
-    <hyperlink ref="C118" r:id="rId21" xr:uid="{00000000-0004-0000-0200-000014000000}"/>
-    <hyperlink ref="C124" r:id="rId22" xr:uid="{00000000-0004-0000-0200-000015000000}"/>
-    <hyperlink ref="C130" r:id="rId23" xr:uid="{00000000-0004-0000-0200-000016000000}"/>
-    <hyperlink ref="C136" r:id="rId24" xr:uid="{00000000-0004-0000-0200-000017000000}"/>
-    <hyperlink ref="C142" r:id="rId25" xr:uid="{00000000-0004-0000-0200-000018000000}"/>
-    <hyperlink ref="C148" r:id="rId26" xr:uid="{00000000-0004-0000-0200-000019000000}"/>
+    <hyperlink ref="C12" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="C15" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="C20" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink ref="C25" r:id="rId5" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
+    <hyperlink ref="C30" r:id="rId6" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
+    <hyperlink ref="C35" r:id="rId7" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
+    <hyperlink ref="C41" r:id="rId8" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
+    <hyperlink ref="C47" r:id="rId9" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
+    <hyperlink ref="C53" r:id="rId10" xr:uid="{00000000-0004-0000-0200-000009000000}"/>
+    <hyperlink ref="C59" r:id="rId11" xr:uid="{00000000-0004-0000-0200-00000A000000}"/>
+    <hyperlink ref="C65" r:id="rId12" xr:uid="{00000000-0004-0000-0200-00000B000000}"/>
+    <hyperlink ref="C71" r:id="rId13" xr:uid="{00000000-0004-0000-0200-00000C000000}"/>
+    <hyperlink ref="C77" r:id="rId14" xr:uid="{00000000-0004-0000-0200-00000D000000}"/>
+    <hyperlink ref="C83" r:id="rId15" xr:uid="{00000000-0004-0000-0200-00000E000000}"/>
+    <hyperlink ref="C89" r:id="rId16" xr:uid="{00000000-0004-0000-0200-00000F000000}"/>
+    <hyperlink ref="C95" r:id="rId17" xr:uid="{00000000-0004-0000-0200-000010000000}"/>
+    <hyperlink ref="C101" r:id="rId18" xr:uid="{00000000-0004-0000-0200-000011000000}"/>
+    <hyperlink ref="C107" r:id="rId19" xr:uid="{00000000-0004-0000-0200-000012000000}"/>
+    <hyperlink ref="C113" r:id="rId20" xr:uid="{00000000-0004-0000-0200-000013000000}"/>
+    <hyperlink ref="C119" r:id="rId21" xr:uid="{00000000-0004-0000-0200-000014000000}"/>
+    <hyperlink ref="C125" r:id="rId22" xr:uid="{00000000-0004-0000-0200-000015000000}"/>
+    <hyperlink ref="C131" r:id="rId23" xr:uid="{00000000-0004-0000-0200-000016000000}"/>
+    <hyperlink ref="C137" r:id="rId24" xr:uid="{00000000-0004-0000-0200-000017000000}"/>
+    <hyperlink ref="C143" r:id="rId25" xr:uid="{00000000-0004-0000-0200-000018000000}"/>
+    <hyperlink ref="C149" r:id="rId26" xr:uid="{00000000-0004-0000-0200-000019000000}"/>
     <hyperlink ref="C5" r:id="rId27" xr:uid="{00000000-0004-0000-0200-00001A000000}"/>
-    <hyperlink ref="C8" r:id="rId28" xr:uid="{00000000-0004-0000-0200-00001B000000}"/>
+    <hyperlink ref="C9" r:id="rId28" xr:uid="{00000000-0004-0000-0200-00001B000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId29"/>

--- a/data/param2.xlsx
+++ b/data/param2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10309"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10908"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiongyi/Documents/pytest/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiongyi/Documents/pytest/ADInterface/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BCAAC5D-CCFE-BB46-9E16-8EDEB42055E6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{283A225E-7A32-8F4C-BE30-05AF3DCA2F09}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-40" yWindow="460" windowWidth="33600" windowHeight="19040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="中插" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1115" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1119" uniqueCount="236">
   <si>
     <t>at</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -85,10 +85,6 @@
   </si>
   <si>
     <t>get</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://api.adott.ottcn.org/ad</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -198,10 +194,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://api.adott.ottcn.org/ad</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>channelcode</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -273,10 +265,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://api.adott.ottcn.org/ad</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>deviceid</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -305,10 +293,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://api.adott.ottcn.org/ad</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>secondcolumn</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -325,10 +309,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://api.adott.ottcn.org/ad</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>deviceid</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -406,10 +386,6 @@
   </si>
   <si>
     <t>get</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://api.adott.ottcn.org/ad</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -952,12 +928,31 @@
     <t>{global_name}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>define</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定义服务器地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>global_host</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://188.131.149.42:8012/ad</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{$global_host}</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1000,6 +995,15 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1030,12 +1034,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1063,9 +1070,11 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1343,10 +1352,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I146"/>
+  <dimension ref="A1:I148"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:I1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -1357,11 +1366,13 @@
     <col min="5" max="5" width="30.83203125" customWidth="1"/>
     <col min="6" max="6" width="39.6640625" customWidth="1"/>
     <col min="7" max="7" width="22" customWidth="1"/>
+    <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="33.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>5</v>
@@ -1376,545 +1387,538 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="1" customFormat="1">
+      <c r="A2" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" s="1" customFormat="1">
-      <c r="B2" s="1" t="s">
+      <c r="H2" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="1" customFormat="1"/>
+    <row r="4" spans="1:9" s="1" customFormat="1">
+      <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C4" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="2" t="s">
+    </row>
+    <row r="5" spans="1:9" s="1" customFormat="1">
+      <c r="D5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="C6" s="1"/>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" s="1" customFormat="1">
-      <c r="D3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="C4" s="1"/>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" t="s">
-        <v>68</v>
-      </c>
-      <c r="B5" s="1" t="s">
+    </row>
+    <row r="9" spans="1:9">
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C10" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="1" t="s">
+      <c r="E10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="2">
-        <v>600001</v>
-      </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="4"/>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
+      <c r="G10" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="11" spans="1:9">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="2">
+        <v>600001</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="D14" s="7"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="D12" s="7"/>
-      <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" s="2">
-        <v>600001</v>
-      </c>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:9">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
+      </c>
+      <c r="E16" s="2">
+        <v>600001</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="D17" s="7"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="D19" s="7"/>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C20" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D20" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D18" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="B19" s="1"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E19" s="2">
-        <v>600001</v>
-      </c>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
+      <c r="E20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="21" spans="1:7">
       <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
+      <c r="C21" s="10"/>
       <c r="D21" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>27</v>
+        <v>16</v>
+      </c>
+      <c r="E21" s="2">
+        <v>600001</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="D22" s="7"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="D24" s="7"/>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C25" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D25" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D23" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
+      <c r="E25" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="26" spans="1:7">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="D27" s="7"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="D29" s="7"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E28" s="2" t="s">
+      <c r="C30" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F30" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="G30" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G28" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F29" s="1"/>
-      <c r="G29" s="4"/>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
     </row>
     <row r="31" spans="1:7">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
+      <c r="G31" s="4"/>
     </row>
     <row r="32" spans="1:7">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="3" t="s">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
     </row>
     <row r="33" spans="1:7">
+      <c r="B33" s="1"/>
       <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
+      <c r="D33" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C34" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F35" s="1"/>
-      <c r="G35" s="4"/>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
+      <c r="F36" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="37" spans="1:7">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
+      <c r="G37" s="4"/>
     </row>
     <row r="38" spans="1:7">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="3" t="s">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
     </row>
+    <row r="39" spans="1:7">
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+    </row>
     <row r="40" spans="1:7">
-      <c r="A40" t="s">
-        <v>75</v>
-      </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" t="s">
+        <v>70</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C40" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G40" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E41" s="2">
-        <v>600001</v>
-      </c>
-      <c r="F41" s="1"/>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F42" s="1"/>
+      <c r="C42" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G42" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="43" spans="1:7">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>51</v>
+        <v>16</v>
+      </c>
+      <c r="E43" s="2">
+        <v>600001</v>
       </c>
       <c r="F43" s="1"/>
     </row>
@@ -1922,69 +1926,69 @@
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="3" t="s">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="F44" s="1"/>
     </row>
     <row r="45" spans="1:7">
+      <c r="B45" s="1"/>
       <c r="C45" s="1"/>
+      <c r="D45" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F45" s="1"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" t="s">
-        <v>76</v>
-      </c>
-      <c r="B46" s="1" t="s">
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F46" s="1"/>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="C47" s="1"/>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" t="s">
+        <v>71</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C46" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G46" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E47" s="2">
-        <v>600001</v>
-      </c>
-      <c r="F47" s="1"/>
-    </row>
-    <row r="48" spans="1:7">
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E48" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F48" s="1"/>
+      <c r="C48" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G48" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="49" spans="1:7">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>51</v>
+        <v>16</v>
+      </c>
+      <c r="E49" s="2">
+        <v>600001</v>
       </c>
       <c r="F49" s="1"/>
     </row>
@@ -1992,66 +1996,66 @@
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F50" s="1"/>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F51" s="1"/>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E52" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="E50" s="5" t="s">
+      <c r="F52" s="1"/>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" t="s">
+        <v>72</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E54" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F50" s="1"/>
-    </row>
-    <row r="52" spans="1:7">
-      <c r="A52" t="s">
-        <v>77</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G52" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E53" s="2">
-        <v>600001</v>
-      </c>
-      <c r="F53" s="1"/>
-    </row>
-    <row r="54" spans="1:7">
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E54" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F54" s="1"/>
+      <c r="F54" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G54" s="8" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="55" spans="1:7">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
+      </c>
+      <c r="E55" s="2">
+        <v>600001</v>
       </c>
       <c r="F55" s="1"/>
     </row>
@@ -2059,66 +2063,66 @@
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="3" t="s">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="F56" s="1"/>
     </row>
+    <row r="57" spans="1:7">
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F57" s="1"/>
+    </row>
     <row r="58" spans="1:7">
-      <c r="A58" t="s">
-        <v>78</v>
-      </c>
-      <c r="B58" s="1" t="s">
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F58" s="1"/>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" t="s">
+        <v>73</v>
+      </c>
+      <c r="B60" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C58" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G58" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
-      <c r="B59" s="1"/>
-      <c r="C59" s="1"/>
-      <c r="D59" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E59" s="2">
-        <v>600001</v>
-      </c>
-      <c r="F59" s="1"/>
-    </row>
-    <row r="60" spans="1:7">
-      <c r="B60" s="1"/>
-      <c r="C60" s="1"/>
-      <c r="D60" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E60" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F60" s="1"/>
+      <c r="C60" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G60" s="8" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="61" spans="1:7">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
+      </c>
+      <c r="E61" s="2">
+        <v>600001</v>
       </c>
       <c r="F61" s="1"/>
     </row>
@@ -2126,72 +2130,72 @@
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F62" s="1"/>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F63" s="1"/>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F64" s="1"/>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D66" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E62" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="F62" s="1"/>
-    </row>
-    <row r="63" spans="1:7">
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
-      <c r="F63" s="1"/>
-    </row>
-    <row r="64" spans="1:7">
-      <c r="A64" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D64" s="1" t="s">
+      <c r="E66" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E64" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G64" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
-      <c r="B65" s="1"/>
-      <c r="C65" s="1"/>
-      <c r="D65" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E65" s="2">
-        <v>600001</v>
-      </c>
-      <c r="F65" s="1"/>
-    </row>
-    <row r="66" spans="1:7">
-      <c r="B66" s="1"/>
-      <c r="C66" s="1"/>
-      <c r="D66" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E66" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F66" s="1"/>
+      <c r="F66" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G66" s="8" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="67" spans="1:7">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>64</v>
+        <v>16</v>
+      </c>
+      <c r="E67" s="2">
+        <v>600001</v>
       </c>
       <c r="F67" s="1"/>
     </row>
@@ -2199,72 +2203,72 @@
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="3" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="F68" s="1"/>
     </row>
     <row r="69" spans="1:7">
+      <c r="B69" s="1"/>
       <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
-      <c r="E69" s="1"/>
+      <c r="D69" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>59</v>
+      </c>
       <c r="F69" s="1"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C70" s="1" t="s">
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E70" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="D70" s="1" t="s">
+      <c r="F70" s="1"/>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E72" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E70" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G70" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7">
-      <c r="B71" s="1"/>
-      <c r="C71" s="1"/>
-      <c r="D71" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E71" s="2">
-        <v>600001</v>
-      </c>
-      <c r="F71" s="1"/>
-    </row>
-    <row r="72" spans="1:7">
-      <c r="B72" s="1"/>
-      <c r="C72" s="1"/>
-      <c r="D72" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E72" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F72" s="1"/>
+      <c r="F72" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G72" s="8" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="73" spans="1:7">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>64</v>
+        <v>16</v>
+      </c>
+      <c r="E73" s="2">
+        <v>600001</v>
       </c>
       <c r="F73" s="1"/>
     </row>
@@ -2272,66 +2276,66 @@
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="3" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="F74" s="1"/>
     </row>
+    <row r="75" spans="1:7">
+      <c r="B75" s="1"/>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F75" s="1"/>
+    </row>
     <row r="76" spans="1:7">
-      <c r="A76" t="s">
-        <v>89</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D76" s="1" t="s">
+      <c r="B76" s="1"/>
+      <c r="C76" s="1"/>
+      <c r="D76" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F76" s="1"/>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78" t="s">
         <v>83</v>
       </c>
-      <c r="E76" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F76" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G76" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
-      <c r="B77" s="1"/>
-      <c r="C77" s="1"/>
-      <c r="D77" s="1" t="s">
+      <c r="B78" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E78" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E77" s="2">
-        <v>600001</v>
-      </c>
-      <c r="F77" s="1"/>
-    </row>
-    <row r="78" spans="1:7">
-      <c r="B78" s="1"/>
-      <c r="C78" s="1"/>
-      <c r="D78" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="E78" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F78" s="1"/>
+      <c r="F78" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G78" s="8" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="79" spans="1:7">
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>19</v>
+        <v>78</v>
+      </c>
+      <c r="E79" s="2">
+        <v>600001</v>
       </c>
       <c r="F79" s="1"/>
     </row>
@@ -2339,66 +2343,66 @@
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="3" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>88</v>
+        <v>11</v>
       </c>
       <c r="F80" s="1"/>
     </row>
+    <row r="81" spans="1:7">
+      <c r="B81" s="1"/>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F81" s="1"/>
+    </row>
     <row r="82" spans="1:7">
-      <c r="A82" t="s">
-        <v>91</v>
-      </c>
-      <c r="B82" s="1" t="s">
+      <c r="B82" s="1"/>
+      <c r="C82" s="1"/>
+      <c r="D82" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C82" s="1" t="s">
+      <c r="E82" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="D82" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F82" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G82" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
-      <c r="B83" s="1"/>
-      <c r="C83" s="1"/>
-      <c r="D83" s="1" t="s">
+      <c r="F82" s="1"/>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84" t="s">
+        <v>85</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E84" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E83" s="2">
-        <v>600001</v>
-      </c>
-      <c r="F83" s="1"/>
-    </row>
-    <row r="84" spans="1:7">
-      <c r="B84" s="1"/>
-      <c r="C84" s="1"/>
-      <c r="D84" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="E84" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F84" s="1"/>
+      <c r="F84" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G84" s="8" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="85" spans="1:7">
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>19</v>
+        <v>78</v>
+      </c>
+      <c r="E85" s="2">
+        <v>600001</v>
       </c>
       <c r="F85" s="1"/>
     </row>
@@ -2406,66 +2410,66 @@
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="3" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="E86" s="5" t="s">
-        <v>92</v>
+        <v>11</v>
       </c>
       <c r="F86" s="1"/>
     </row>
+    <row r="87" spans="1:7">
+      <c r="B87" s="1"/>
+      <c r="C87" s="1"/>
+      <c r="D87" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F87" s="1"/>
+    </row>
     <row r="88" spans="1:7">
-      <c r="A88" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C88" s="1" t="s">
+      <c r="B88" s="1"/>
+      <c r="C88" s="1"/>
+      <c r="D88" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E88" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="F88" s="1"/>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D90" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D88" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F88" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G88" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
-      <c r="B89" s="1"/>
-      <c r="C89" s="1"/>
-      <c r="D89" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E89" s="2">
-        <v>600001</v>
-      </c>
-      <c r="F89" s="1"/>
-    </row>
-    <row r="90" spans="1:7">
-      <c r="B90" s="1"/>
-      <c r="C90" s="1"/>
-      <c r="D90" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E90" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F90" s="1"/>
+      <c r="E90" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G90" s="8" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="91" spans="1:7">
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
+      </c>
+      <c r="E91" s="2">
+        <v>600001</v>
       </c>
       <c r="F91" s="1"/>
     </row>
@@ -2473,66 +2477,66 @@
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="3" t="s">
-        <v>94</v>
+        <v>0</v>
       </c>
       <c r="E92" s="5" t="s">
-        <v>95</v>
+        <v>11</v>
       </c>
       <c r="F92" s="1"/>
     </row>
+    <row r="93" spans="1:7">
+      <c r="B93" s="1"/>
+      <c r="C93" s="1"/>
+      <c r="D93" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F93" s="1"/>
+    </row>
     <row r="94" spans="1:7">
-      <c r="A94" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C94" s="1" t="s">
+      <c r="B94" s="1"/>
+      <c r="C94" s="1"/>
+      <c r="D94" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E94" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F94" s="1"/>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D96" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D94" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F94" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G94" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
-      <c r="B95" s="1"/>
-      <c r="C95" s="1"/>
-      <c r="D95" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E95" s="2">
-        <v>600001</v>
-      </c>
-      <c r="F95" s="1"/>
-    </row>
-    <row r="96" spans="1:7">
-      <c r="B96" s="1"/>
-      <c r="C96" s="1"/>
-      <c r="D96" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E96" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F96" s="1"/>
+      <c r="E96" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G96" s="8" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="97" spans="1:7">
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
+      </c>
+      <c r="E97" s="2">
+        <v>600001</v>
       </c>
       <c r="F97" s="1"/>
     </row>
@@ -2540,66 +2544,66 @@
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E98" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F98" s="1"/>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="B99" s="1"/>
+      <c r="C99" s="1"/>
+      <c r="D99" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F99" s="1"/>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="B100" s="1"/>
+      <c r="C100" s="1"/>
+      <c r="D100" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E100" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="F100" s="1"/>
+    </row>
+    <row r="102" spans="1:7">
+      <c r="A102" t="s">
+        <v>99</v>
+      </c>
+      <c r="B102" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="E98" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="F98" s="1"/>
-    </row>
-    <row r="100" spans="1:7">
-      <c r="A100" t="s">
-        <v>105</v>
-      </c>
-      <c r="B100" s="1" t="s">
+      <c r="C102" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E102" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C100" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="F100" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G100" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7">
-      <c r="B101" s="1"/>
-      <c r="C101" s="1"/>
-      <c r="D101" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E101" s="2">
-        <v>600001</v>
-      </c>
-      <c r="F101" s="1"/>
-    </row>
-    <row r="102" spans="1:7">
-      <c r="B102" s="1"/>
-      <c r="C102" s="1"/>
-      <c r="D102" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E102" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F102" s="1"/>
+      <c r="F102" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G102" s="8" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="103" spans="1:7">
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
+      </c>
+      <c r="E103" s="2">
+        <v>600001</v>
       </c>
       <c r="F103" s="1"/>
     </row>
@@ -2607,66 +2611,66 @@
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="3" t="s">
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="E104" s="5" t="s">
-        <v>103</v>
+        <v>11</v>
       </c>
       <c r="F104" s="1"/>
     </row>
+    <row r="105" spans="1:7">
+      <c r="B105" s="1"/>
+      <c r="C105" s="1"/>
+      <c r="D105" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F105" s="1"/>
+    </row>
     <row r="106" spans="1:7">
-      <c r="A106" t="s">
-        <v>104</v>
-      </c>
-      <c r="B106" s="1" t="s">
+      <c r="B106" s="1"/>
+      <c r="C106" s="1"/>
+      <c r="D106" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E106" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F106" s="1"/>
+    </row>
+    <row r="108" spans="1:7">
+      <c r="A108" t="s">
+        <v>98</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E108" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C106" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E106" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="F106" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G106" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7">
-      <c r="B107" s="1"/>
-      <c r="C107" s="1"/>
-      <c r="D107" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E107" s="2">
-        <v>600001</v>
-      </c>
-      <c r="F107" s="1"/>
-    </row>
-    <row r="108" spans="1:7">
-      <c r="B108" s="1"/>
-      <c r="C108" s="1"/>
-      <c r="D108" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E108" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F108" s="1"/>
+      <c r="F108" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G108" s="8" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="109" spans="1:7">
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
+      </c>
+      <c r="E109" s="2">
+        <v>600001</v>
       </c>
       <c r="F109" s="1"/>
     </row>
@@ -2674,66 +2678,66 @@
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
       <c r="D110" s="3" t="s">
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="E110" s="5" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="F110" s="1"/>
     </row>
+    <row r="111" spans="1:7">
+      <c r="B111" s="1"/>
+      <c r="C111" s="1"/>
+      <c r="D111" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F111" s="1"/>
+    </row>
     <row r="112" spans="1:7">
-      <c r="A112" t="s">
-        <v>112</v>
-      </c>
-      <c r="B112" s="1" t="s">
+      <c r="B112" s="1"/>
+      <c r="C112" s="1"/>
+      <c r="D112" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E112" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F112" s="1"/>
+    </row>
+    <row r="114" spans="1:7">
+      <c r="A114" t="s">
+        <v>106</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E114" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C112" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D112" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="F112" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G112" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7">
-      <c r="B113" s="1"/>
-      <c r="C113" s="1"/>
-      <c r="D113" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E113" s="2">
-        <v>600001</v>
-      </c>
-      <c r="F113" s="1"/>
-    </row>
-    <row r="114" spans="1:7">
-      <c r="B114" s="1"/>
-      <c r="C114" s="1"/>
-      <c r="D114" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E114" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F114" s="1"/>
+      <c r="F114" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G114" s="8" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="115" spans="1:7">
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
       <c r="D115" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
+      </c>
+      <c r="E115" s="2">
+        <v>600001</v>
       </c>
       <c r="F115" s="1"/>
     </row>
@@ -2741,66 +2745,66 @@
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="3" t="s">
-        <v>108</v>
+        <v>0</v>
       </c>
       <c r="E116" s="5" t="s">
-        <v>111</v>
+        <v>11</v>
       </c>
       <c r="F116" s="1"/>
     </row>
+    <row r="117" spans="1:7">
+      <c r="B117" s="1"/>
+      <c r="C117" s="1"/>
+      <c r="D117" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F117" s="1"/>
+    </row>
     <row r="118" spans="1:7">
-      <c r="A118" t="s">
-        <v>115</v>
-      </c>
-      <c r="B118" s="1" t="s">
+      <c r="B118" s="1"/>
+      <c r="C118" s="1"/>
+      <c r="D118" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E118" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F118" s="1"/>
+    </row>
+    <row r="120" spans="1:7">
+      <c r="A120" t="s">
+        <v>109</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E120" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C118" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D118" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E118" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="F118" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G118" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7">
-      <c r="B119" s="1"/>
-      <c r="C119" s="1"/>
-      <c r="D119" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E119" s="2">
-        <v>600001</v>
-      </c>
-      <c r="F119" s="1"/>
-    </row>
-    <row r="120" spans="1:7">
-      <c r="B120" s="1"/>
-      <c r="C120" s="1"/>
-      <c r="D120" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E120" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F120" s="1"/>
+      <c r="F120" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G120" s="8" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="121" spans="1:7">
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
       <c r="D121" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E121" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
+      </c>
+      <c r="E121" s="2">
+        <v>600001</v>
       </c>
       <c r="F121" s="1"/>
     </row>
@@ -2808,318 +2812,340 @@
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
       <c r="D122" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="E122">
+        <v>0</v>
+      </c>
+      <c r="E122" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F122" s="1"/>
+    </row>
+    <row r="123" spans="1:7">
+      <c r="B123" s="1"/>
+      <c r="C123" s="1"/>
+      <c r="D123" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F123" s="1"/>
+    </row>
+    <row r="124" spans="1:7">
+      <c r="B124" s="1"/>
+      <c r="C124" s="1"/>
+      <c r="D124" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E124">
         <v>123</v>
       </c>
-      <c r="F122" s="1"/>
-    </row>
-    <row r="124" spans="1:7">
-      <c r="A124" t="s">
-        <v>116</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C124" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D124" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E124" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="F124" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G124" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7">
-      <c r="B125" s="1"/>
-      <c r="C125" s="1"/>
-      <c r="D125" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E125" s="2">
-        <v>600001</v>
-      </c>
-      <c r="F125" s="1"/>
+      <c r="F124" s="1"/>
     </row>
     <row r="126" spans="1:7">
-      <c r="B126" s="1"/>
-      <c r="C126" s="1"/>
-      <c r="D126" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E126" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F126" s="1"/>
+      <c r="A126" t="s">
+        <v>110</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G126" s="8" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="127" spans="1:7">
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
       <c r="D127" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E127" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
+      </c>
+      <c r="E127" s="2">
+        <v>600001</v>
       </c>
       <c r="F127" s="1"/>
     </row>
     <row r="128" spans="1:7">
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
-      <c r="D128" t="s">
-        <v>118</v>
-      </c>
-      <c r="E128" s="9" t="s">
-        <v>114</v>
+      <c r="D128" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E128" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="F128" s="1"/>
     </row>
+    <row r="129" spans="1:7">
+      <c r="B129" s="1"/>
+      <c r="C129" s="1"/>
+      <c r="D129" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F129" s="1"/>
+    </row>
     <row r="130" spans="1:7">
-      <c r="A130" t="s">
-        <v>119</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C130" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D130" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E130" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="F130" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G130" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7">
-      <c r="B131" s="1"/>
-      <c r="C131" s="1"/>
-      <c r="D131" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E131" s="2">
-        <v>600001</v>
-      </c>
-      <c r="F131" s="1"/>
+      <c r="B130" s="1"/>
+      <c r="C130" s="1"/>
+      <c r="D130" t="s">
+        <v>112</v>
+      </c>
+      <c r="E130" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="F130" s="1"/>
     </row>
     <row r="132" spans="1:7">
-      <c r="B132" s="1"/>
-      <c r="C132" s="1"/>
-      <c r="D132" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E132" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F132" s="1"/>
+      <c r="A132" t="s">
+        <v>113</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F132" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G132" s="8" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="133" spans="1:7">
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
       <c r="D133" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E133" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
+      </c>
+      <c r="E133" s="2">
+        <v>600001</v>
       </c>
       <c r="F133" s="1"/>
     </row>
     <row r="134" spans="1:7">
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
-      <c r="D134" t="s">
+      <c r="D134" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E134" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F134" s="1"/>
+    </row>
+    <row r="135" spans="1:7">
+      <c r="B135" s="1"/>
+      <c r="C135" s="1"/>
+      <c r="D135" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F135" s="1"/>
+    </row>
+    <row r="136" spans="1:7">
+      <c r="B136" s="1"/>
+      <c r="C136" s="1"/>
+      <c r="D136" t="s">
+        <v>112</v>
+      </c>
+      <c r="E136" s="9">
+        <v>123</v>
+      </c>
+      <c r="F136" s="1"/>
+    </row>
+    <row r="138" spans="1:7">
+      <c r="A138" t="s">
+        <v>117</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E138" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="E134" s="9">
-        <v>123</v>
-      </c>
-      <c r="F134" s="1"/>
-    </row>
-    <row r="136" spans="1:7">
-      <c r="A136" t="s">
-        <v>123</v>
-      </c>
-      <c r="B136" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C136" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D136" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="E136" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="F136" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G136" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7">
-      <c r="B137" s="1"/>
-      <c r="C137" s="1"/>
-      <c r="D137" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E137" s="2">
-        <v>600001</v>
-      </c>
-      <c r="F137" s="1"/>
-      <c r="G137" s="4"/>
-    </row>
-    <row r="138" spans="1:7">
-      <c r="B138" s="1"/>
-      <c r="C138" s="1"/>
-      <c r="D138" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E138" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F138" s="1"/>
-      <c r="G138" s="1"/>
+      <c r="F138" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G138" s="8" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="139" spans="1:7">
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
       <c r="D139" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E139" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
+      </c>
+      <c r="E139" s="2">
+        <v>600001</v>
       </c>
       <c r="F139" s="1"/>
-      <c r="G139" s="1"/>
+      <c r="G139" s="4"/>
     </row>
     <row r="140" spans="1:7">
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
       <c r="D140" s="3" t="s">
-        <v>121</v>
+        <v>0</v>
       </c>
       <c r="E140" s="5" t="s">
-        <v>122</v>
+        <v>11</v>
       </c>
       <c r="F140" s="1"/>
       <c r="G140" s="1"/>
     </row>
+    <row r="141" spans="1:7">
+      <c r="B141" s="1"/>
+      <c r="C141" s="1"/>
+      <c r="D141" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F141" s="1"/>
+      <c r="G141" s="1"/>
+    </row>
     <row r="142" spans="1:7">
-      <c r="A142" t="s">
-        <v>125</v>
-      </c>
-      <c r="B142" s="1" t="s">
+      <c r="B142" s="1"/>
+      <c r="C142" s="1"/>
+      <c r="D142" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E142" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="F142" s="1"/>
+      <c r="G142" s="1"/>
+    </row>
+    <row r="144" spans="1:7">
+      <c r="A144" t="s">
+        <v>119</v>
+      </c>
+      <c r="B144" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C142" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D142" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="E142" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="F142" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G142" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7">
-      <c r="B143" s="1"/>
-      <c r="C143" s="1"/>
-      <c r="D143" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E143" s="2">
-        <v>600001</v>
-      </c>
-      <c r="F143" s="1"/>
-      <c r="G143" s="4"/>
-    </row>
-    <row r="144" spans="1:7">
-      <c r="B144" s="1"/>
-      <c r="C144" s="1"/>
-      <c r="D144" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E144" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F144" s="1"/>
-      <c r="G144" s="1"/>
+      <c r="C144" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F144" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G144" s="8" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="145" spans="2:7">
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
       <c r="D145" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E145" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
+      </c>
+      <c r="E145" s="2">
+        <v>600001</v>
       </c>
       <c r="F145" s="1"/>
-      <c r="G145" s="1"/>
+      <c r="G145" s="4"/>
     </row>
     <row r="146" spans="2:7">
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
       <c r="D146" s="3" t="s">
-        <v>121</v>
+        <v>0</v>
       </c>
       <c r="E146" s="5" t="s">
-        <v>126</v>
+        <v>11</v>
       </c>
       <c r="F146" s="1"/>
       <c r="G146" s="1"/>
+    </row>
+    <row r="147" spans="2:7">
+      <c r="B147" s="1"/>
+      <c r="C147" s="1"/>
+      <c r="D147" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F147" s="1"/>
+      <c r="G147" s="1"/>
+    </row>
+    <row r="148" spans="2:7">
+      <c r="B148" s="1"/>
+      <c r="C148" s="1"/>
+      <c r="D148" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E148" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="F148" s="1"/>
+      <c r="G148" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="C5" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="C8" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="C13" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="C18" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="C23" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="C28" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="C34" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="C40" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="C46" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="C52" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="C58" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="C64" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="C70" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="C76" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="C82" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="C88" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="C94" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="C100" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="C106" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="C112" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="C118" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="C124" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="C130" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="C136" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="C142" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="C7" r:id="rId1" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="C10" r:id="rId2" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="C15" r:id="rId3" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="C20" r:id="rId4" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="C25" r:id="rId5" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="C30" r:id="rId6" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="C36" r:id="rId7" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="C42" r:id="rId8" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="C48" r:id="rId9" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="C54" r:id="rId10" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="C60" r:id="rId11" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="C66" r:id="rId12" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="C72" r:id="rId13" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="C78" r:id="rId14" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="C84" r:id="rId15" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="C90" r:id="rId16" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="C96" r:id="rId17" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="C102" r:id="rId18" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="C108" r:id="rId19" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="C114" r:id="rId20" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="C120" r:id="rId21" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="C126" r:id="rId22" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="C132" r:id="rId23" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="C138" r:id="rId24" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="C144" r:id="rId25" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="I2" r:id="rId26" xr:uid="{4EA2B76E-6A81-E942-8F43-5DD958CB1CE0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3129,7 +3155,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I152"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A124" workbookViewId="0">
       <selection activeCell="H1" sqref="H1:I1"/>
     </sheetView>
   </sheetViews>
@@ -3145,7 +3171,7 @@
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>5</v>
@@ -3166,10 +3192,10 @@
         <v>1</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1">
@@ -3177,19 +3203,19 @@
         <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="1" customFormat="1">
@@ -3197,31 +3223,31 @@
         <v>0</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:9" s="1" customFormat="1"/>
     <row r="5" spans="1:9" s="1" customFormat="1">
       <c r="A5" s="1" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="E5" s="2" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="1" customFormat="1">
@@ -3229,31 +3255,31 @@
         <v>0</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="1" customFormat="1"/>
     <row r="8" spans="1:9" s="1" customFormat="1">
       <c r="A8" s="1" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="E8" s="2" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
     <row r="9" spans="1:9" s="1" customFormat="1">
@@ -3261,13 +3287,13 @@
         <v>0</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -3276,25 +3302,25 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>8</v>
+        <v>235</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -3304,13 +3330,13 @@
         <v>0</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -3318,32 +3344,32 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D14" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="6" t="s">
-        <v>9</v>
-      </c>
       <c r="E14" s="2" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E15" s="2">
         <v>600001</v>
@@ -3358,7 +3384,7 @@
         <v>0</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
@@ -3367,10 +3393,10 @@
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -3381,32 +3407,32 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="10" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C19" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D19" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="6" t="s">
-        <v>9</v>
-      </c>
       <c r="E19" s="5" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E20" s="2">
         <v>600001</v>
@@ -3421,7 +3447,7 @@
         <v>0</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
@@ -3430,10 +3456,10 @@
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
@@ -3444,32 +3470,32 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="10" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C24" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D24" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D24" s="6" t="s">
-        <v>9</v>
-      </c>
       <c r="E24" s="2" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E25" s="2">
         <v>600001</v>
@@ -3484,7 +3510,7 @@
         <v>0</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
@@ -3493,10 +3519,10 @@
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
@@ -3507,35 +3533,35 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="10" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C29" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D29" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D29" s="6" t="s">
-        <v>9</v>
-      </c>
       <c r="E29" s="2" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
@@ -3547,7 +3573,7 @@
         <v>0</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
@@ -3556,10 +3582,10 @@
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E32" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
@@ -3569,35 +3595,35 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="10" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>29</v>
+        <v>235</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F35" s="1"/>
       <c r="G35" s="4"/>
@@ -3609,7 +3635,7 @@
         <v>0</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
@@ -3618,10 +3644,10 @@
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
@@ -3630,10 +3656,10 @@
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
@@ -3647,35 +3673,35 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="10" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C40" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D40" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D40" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="E40" s="2" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F41" s="1"/>
       <c r="G41" s="4"/>
@@ -3687,7 +3713,7 @@
         <v>0</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
@@ -3696,10 +3722,10 @@
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
@@ -3708,42 +3734,42 @@
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="12" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>48</v>
+        <v>235</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="G46" s="11" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E47" s="2">
         <v>600001</v>
@@ -3757,7 +3783,7 @@
         <v>0</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="F48" s="1"/>
     </row>
@@ -3765,10 +3791,10 @@
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F49" s="1"/>
     </row>
@@ -3776,10 +3802,10 @@
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F50" s="1"/>
     </row>
@@ -3788,32 +3814,32 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="12" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>48</v>
+        <v>235</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="G52" s="11" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E53" s="2">
         <v>600001</v>
@@ -3827,7 +3853,7 @@
         <v>0</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="F54" s="1"/>
     </row>
@@ -3835,10 +3861,10 @@
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F55" s="1"/>
     </row>
@@ -3846,41 +3872,41 @@
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E56" s="5" t="s">
         <v>52</v>
-      </c>
-      <c r="E56" s="5" t="s">
-        <v>55</v>
       </c>
       <c r="F56" s="1"/>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="12" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>56</v>
+        <v>235</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="G58" s="11" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E59" s="2">
         <v>600001</v>
@@ -3894,7 +3920,7 @@
         <v>0</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="F60" s="1"/>
     </row>
@@ -3902,10 +3928,10 @@
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F61" s="1"/>
     </row>
@@ -3913,41 +3939,41 @@
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F62" s="1"/>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="12" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>56</v>
+        <v>235</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="G64" s="11" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="65" spans="1:7">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E65" s="2">
         <v>600001</v>
@@ -3961,7 +3987,7 @@
         <v>0</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="F66" s="1"/>
     </row>
@@ -3969,10 +3995,10 @@
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F67" s="1"/>
     </row>
@@ -3980,10 +4006,10 @@
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F68" s="1"/>
     </row>
@@ -3995,32 +4021,32 @@
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="10" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>61</v>
+        <v>235</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="G70" s="11" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="71" spans="1:7">
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E71" s="2">
         <v>600001</v>
@@ -4031,10 +4057,10 @@
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="3" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="F72" s="1"/>
     </row>
@@ -4042,10 +4068,10 @@
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="F73" s="1"/>
     </row>
@@ -4053,10 +4079,10 @@
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F74" s="1"/>
     </row>
@@ -4068,32 +4094,32 @@
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="10" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>61</v>
+        <v>235</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="G76" s="11" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="77" spans="1:7">
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E77" s="2">
         <v>600001</v>
@@ -4104,10 +4130,10 @@
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="3" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="F78" s="1"/>
     </row>
@@ -4115,10 +4141,10 @@
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="F79" s="1"/>
     </row>
@@ -4126,41 +4152,41 @@
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F80" s="1"/>
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="12" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>82</v>
+        <v>235</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="G82" s="11" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="83" spans="1:7">
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="E83" s="2">
         <v>600001</v>
@@ -4171,10 +4197,10 @@
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="3" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="E84" s="5" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="F84" s="1"/>
     </row>
@@ -4182,10 +4208,10 @@
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F85" s="1"/>
     </row>
@@ -4193,41 +4219,41 @@
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="3" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="E86" s="5" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="F86" s="1"/>
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="12" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>82</v>
+        <v>235</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="G88" s="11" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="89" spans="1:7">
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="E89" s="2">
         <v>600001</v>
@@ -4238,10 +4264,10 @@
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="3" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="F90" s="1"/>
     </row>
@@ -4249,10 +4275,10 @@
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F91" s="1"/>
     </row>
@@ -4260,41 +4286,41 @@
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="3" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="E92" s="5" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F92" s="1"/>
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="12" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C94" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D94" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D94" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="E94" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="G94" s="11" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="95" spans="1:7">
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E95" s="2">
         <v>600001</v>
@@ -4308,7 +4334,7 @@
         <v>0</v>
       </c>
       <c r="E96" s="5" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="F96" s="1"/>
     </row>
@@ -4316,10 +4342,10 @@
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F97" s="1"/>
     </row>
@@ -4327,41 +4353,41 @@
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="3" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="E98" s="5" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="F98" s="1"/>
     </row>
     <row r="100" spans="1:7">
       <c r="A100" s="12" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C100" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D100" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D100" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="E100" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="G100" s="11" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="101" spans="1:7">
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E101" s="2">
         <v>600001</v>
@@ -4375,7 +4401,7 @@
         <v>0</v>
       </c>
       <c r="E102" s="5" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="F102" s="1"/>
     </row>
@@ -4383,10 +4409,10 @@
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F103" s="1"/>
     </row>
@@ -4394,41 +4420,41 @@
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="3" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="E104" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="F104" s="1"/>
     </row>
     <row r="106" spans="1:7">
       <c r="A106" s="12" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>8</v>
+        <v>235</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="G106" s="11" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="107" spans="1:7">
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
       <c r="D107" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E107" s="2">
         <v>600001</v>
@@ -4442,7 +4468,7 @@
         <v>0</v>
       </c>
       <c r="E108" s="5" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="F108" s="1"/>
     </row>
@@ -4450,10 +4476,10 @@
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E109" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="F109" s="1"/>
     </row>
@@ -4461,41 +4487,41 @@
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
       <c r="D110" s="3" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="E110" s="5" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="F110" s="1"/>
     </row>
     <row r="112" spans="1:7">
       <c r="A112" s="12" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>8</v>
+        <v>235</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="G112" s="11" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="113" spans="1:7">
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E113" s="2">
         <v>600001</v>
@@ -4509,7 +4535,7 @@
         <v>0</v>
       </c>
       <c r="E114" s="5" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="F114" s="1"/>
     </row>
@@ -4517,10 +4543,10 @@
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
       <c r="D115" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E115" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="F115" s="1"/>
     </row>
@@ -4528,41 +4554,41 @@
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="3" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="E116" s="5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F116" s="1"/>
     </row>
     <row r="118" spans="1:7">
       <c r="A118" s="12" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>8</v>
+        <v>235</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="G118" s="11" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="119" spans="1:7">
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
       <c r="D119" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E119" s="2">
         <v>600001</v>
@@ -4576,7 +4602,7 @@
         <v>0</v>
       </c>
       <c r="E120" s="5" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="F120" s="1"/>
     </row>
@@ -4584,10 +4610,10 @@
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
       <c r="D121" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F121" s="1"/>
     </row>
@@ -4595,41 +4621,41 @@
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
       <c r="D122" s="3" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E122" s="5" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="F122" s="1"/>
     </row>
     <row r="124" spans="1:7">
       <c r="A124" s="12" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>8</v>
+        <v>235</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="G124" s="11" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="125" spans="1:7">
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
       <c r="D125" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E125" s="2">
         <v>600001</v>
@@ -4643,7 +4669,7 @@
         <v>0</v>
       </c>
       <c r="E126" s="5" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="F126" s="1"/>
     </row>
@@ -4651,10 +4677,10 @@
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
       <c r="D127" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F127" s="1"/>
     </row>
@@ -4662,7 +4688,7 @@
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
       <c r="D128" s="3" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E128">
         <v>123</v>
@@ -4671,32 +4697,32 @@
     </row>
     <row r="130" spans="1:7">
       <c r="A130" s="12" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>8</v>
+        <v>235</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="G130" s="11" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="131" spans="1:7">
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
       <c r="D131" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E131" s="2">
         <v>600001</v>
@@ -4710,7 +4736,7 @@
         <v>0</v>
       </c>
       <c r="E132" s="5" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="F132" s="1"/>
     </row>
@@ -4718,10 +4744,10 @@
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
       <c r="D133" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F133" s="1"/>
     </row>
@@ -4729,41 +4755,41 @@
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
       <c r="D134" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="E134" s="9" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="F134" s="1"/>
     </row>
     <row r="136" spans="1:7">
       <c r="A136" s="12" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>8</v>
+        <v>235</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="G136" s="11" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="137" spans="1:7">
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
       <c r="D137" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E137" s="2">
         <v>600001</v>
@@ -4777,7 +4803,7 @@
         <v>0</v>
       </c>
       <c r="E138" s="5" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="F138" s="1"/>
     </row>
@@ -4785,10 +4811,10 @@
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
       <c r="D139" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F139" s="1"/>
     </row>
@@ -4796,7 +4822,7 @@
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
       <c r="D140" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="E140" s="9">
         <v>123</v>
@@ -4805,32 +4831,32 @@
     </row>
     <row r="142" spans="1:7">
       <c r="A142" s="12" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>8</v>
+        <v>235</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="G142" s="11" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="143" spans="1:7">
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
       <c r="D143" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E143" s="2">
         <v>600001</v>
@@ -4845,7 +4871,7 @@
         <v>0</v>
       </c>
       <c r="E144" s="5" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="F144" s="1"/>
       <c r="G144" s="1"/>
@@ -4854,10 +4880,10 @@
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
       <c r="D145" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E145" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="E145" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="F145" s="1"/>
       <c r="G145" s="1"/>
@@ -4866,42 +4892,42 @@
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
       <c r="D146" s="3" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="E146" s="5" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="F146" s="1"/>
       <c r="G146" s="1"/>
     </row>
     <row r="148" spans="1:7">
       <c r="A148" s="12" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B148" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>8</v>
+        <v>235</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="G148" s="11" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="149" spans="1:7">
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
       <c r="D149" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E149" s="2">
         <v>600001</v>
@@ -4916,7 +4942,7 @@
         <v>0</v>
       </c>
       <c r="E150" s="5" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="F150" s="1"/>
       <c r="G150" s="1"/>
@@ -4925,10 +4951,10 @@
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
       <c r="D151" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E151" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="E151" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="F151" s="1"/>
       <c r="G151" s="1"/>
@@ -4937,10 +4963,10 @@
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
       <c r="D152" s="3" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="E152" s="5" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="F152" s="1"/>
       <c r="G152" s="1"/>
@@ -4948,34 +4974,34 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="C11" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="C14" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="C19" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
-    <hyperlink ref="C24" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
-    <hyperlink ref="C29" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
-    <hyperlink ref="C34" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
-    <hyperlink ref="C40" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
-    <hyperlink ref="C46" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
-    <hyperlink ref="C52" r:id="rId10" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
-    <hyperlink ref="C58" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
-    <hyperlink ref="C64" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
-    <hyperlink ref="C70" r:id="rId13" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
-    <hyperlink ref="C76" r:id="rId14" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
-    <hyperlink ref="C82" r:id="rId15" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
-    <hyperlink ref="C88" r:id="rId16" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
-    <hyperlink ref="C94" r:id="rId17" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
-    <hyperlink ref="C100" r:id="rId18" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
-    <hyperlink ref="C106" r:id="rId19" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
-    <hyperlink ref="C112" r:id="rId20" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
-    <hyperlink ref="C118" r:id="rId21" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
-    <hyperlink ref="C124" r:id="rId22" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
-    <hyperlink ref="C130" r:id="rId23" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
-    <hyperlink ref="C136" r:id="rId24" xr:uid="{00000000-0004-0000-0100-000017000000}"/>
-    <hyperlink ref="C142" r:id="rId25" xr:uid="{00000000-0004-0000-0100-000018000000}"/>
-    <hyperlink ref="C148" r:id="rId26" xr:uid="{00000000-0004-0000-0100-000019000000}"/>
-    <hyperlink ref="C5" r:id="rId27" xr:uid="{00000000-0004-0000-0100-00001A000000}"/>
-    <hyperlink ref="C8" r:id="rId28" xr:uid="{00000000-0004-0000-0100-00001B000000}"/>
+    <hyperlink ref="C2" r:id="rId1" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="C11" r:id="rId2" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="C14" r:id="rId3" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="C19" r:id="rId4" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="C24" r:id="rId5" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="C29" r:id="rId6" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="C34" r:id="rId7" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="C40" r:id="rId8" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
+    <hyperlink ref="C46" r:id="rId9" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
+    <hyperlink ref="C52" r:id="rId10" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
+    <hyperlink ref="C58" r:id="rId11" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
+    <hyperlink ref="C64" r:id="rId12" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
+    <hyperlink ref="C70" r:id="rId13" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
+    <hyperlink ref="C76" r:id="rId14" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
+    <hyperlink ref="C82" r:id="rId15" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
+    <hyperlink ref="C88" r:id="rId16" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
+    <hyperlink ref="C94" r:id="rId17" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
+    <hyperlink ref="C100" r:id="rId18" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
+    <hyperlink ref="C106" r:id="rId19" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
+    <hyperlink ref="C112" r:id="rId20" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
+    <hyperlink ref="C118" r:id="rId21" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
+    <hyperlink ref="C124" r:id="rId22" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
+    <hyperlink ref="C130" r:id="rId23" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
+    <hyperlink ref="C136" r:id="rId24" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0100-000017000000}"/>
+    <hyperlink ref="C142" r:id="rId25" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0100-000018000000}"/>
+    <hyperlink ref="C148" r:id="rId26" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0100-000019000000}"/>
+    <hyperlink ref="C5" r:id="rId27" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0100-00001A000000}"/>
+    <hyperlink ref="C8" r:id="rId28" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0100-00001B000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId29"/>
@@ -4986,7 +5012,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I153"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7:E7"/>
     </sheetView>
   </sheetViews>
@@ -5002,7 +5028,7 @@
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>5</v>
@@ -5023,10 +5049,10 @@
         <v>1</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1">
@@ -5034,25 +5060,25 @@
         <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="1" customFormat="1">
@@ -5060,31 +5086,31 @@
         <v>0</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="4" spans="1:9" s="1" customFormat="1"/>
     <row r="5" spans="1:9" s="1" customFormat="1">
       <c r="A5" s="1" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="E5" s="2" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="1" customFormat="1">
@@ -5092,39 +5118,39 @@
         <v>0</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="1" customFormat="1">
       <c r="D7" s="1" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="1" customFormat="1"/>
     <row r="9" spans="1:9" s="1" customFormat="1">
       <c r="A9" s="1" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="E9" s="2" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
     <row r="10" spans="1:9" s="1" customFormat="1">
@@ -5132,13 +5158,13 @@
         <v>0</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -5147,25 +5173,25 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>8</v>
+        <v>235</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -5175,13 +5201,13 @@
         <v>0</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -5189,32 +5215,32 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D15" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="6" t="s">
-        <v>9</v>
-      </c>
       <c r="E15" s="2" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E16" s="2">
         <v>600001</v>
@@ -5229,7 +5255,7 @@
         <v>0</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -5238,10 +5264,10 @@
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -5252,32 +5278,32 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="10" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C20" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D20" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="6" t="s">
-        <v>9</v>
-      </c>
       <c r="E20" s="5" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E21" s="2">
         <v>600001</v>
@@ -5292,7 +5318,7 @@
         <v>0</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
@@ -5301,10 +5327,10 @@
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
@@ -5315,32 +5341,32 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="10" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C25" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D25" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D25" s="6" t="s">
-        <v>9</v>
-      </c>
       <c r="E25" s="2" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E26" s="2">
         <v>600001</v>
@@ -5355,7 +5381,7 @@
         <v>0</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
@@ -5364,10 +5390,10 @@
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
@@ -5378,35 +5404,35 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="10" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C30" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D30" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D30" s="6" t="s">
-        <v>9</v>
-      </c>
       <c r="E30" s="2" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
@@ -5418,7 +5444,7 @@
         <v>0</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
@@ -5427,10 +5453,10 @@
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E33" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
@@ -5440,35 +5466,35 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="10" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>29</v>
+        <v>235</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F36" s="1"/>
       <c r="G36" s="4"/>
@@ -5480,7 +5506,7 @@
         <v>0</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
@@ -5489,10 +5515,10 @@
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
@@ -5501,10 +5527,10 @@
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
@@ -5518,35 +5544,35 @@
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="10" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C41" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D41" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D41" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="E41" s="2" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F42" s="1"/>
       <c r="G42" s="4"/>
@@ -5558,7 +5584,7 @@
         <v>0</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
@@ -5567,10 +5593,10 @@
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
@@ -5579,42 +5605,42 @@
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="12" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>29</v>
+        <v>235</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="G47" s="11" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E48" s="2">
         <v>600001</v>
@@ -5628,7 +5654,7 @@
         <v>0</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="F49" s="1"/>
     </row>
@@ -5636,10 +5662,10 @@
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F50" s="1"/>
     </row>
@@ -5647,10 +5673,10 @@
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F51" s="1"/>
     </row>
@@ -5659,32 +5685,32 @@
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="12" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>29</v>
+        <v>235</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="G53" s="11" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E54" s="2">
         <v>600001</v>
@@ -5698,7 +5724,7 @@
         <v>0</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="F55" s="1"/>
     </row>
@@ -5706,10 +5732,10 @@
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F56" s="1"/>
     </row>
@@ -5717,41 +5743,41 @@
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E57" s="5" t="s">
         <v>52</v>
-      </c>
-      <c r="E57" s="5" t="s">
-        <v>55</v>
       </c>
       <c r="F57" s="1"/>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="12" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>56</v>
+        <v>235</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="G59" s="11" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E60" s="2">
         <v>600001</v>
@@ -5765,7 +5791,7 @@
         <v>0</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="F61" s="1"/>
     </row>
@@ -5773,10 +5799,10 @@
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F62" s="1"/>
     </row>
@@ -5784,41 +5810,41 @@
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F63" s="1"/>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="12" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>56</v>
+        <v>235</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="G65" s="11" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E66" s="2">
         <v>600001</v>
@@ -5832,7 +5858,7 @@
         <v>0</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="F67" s="1"/>
     </row>
@@ -5840,10 +5866,10 @@
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F68" s="1"/>
     </row>
@@ -5851,10 +5877,10 @@
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F69" s="1"/>
     </row>
@@ -5866,32 +5892,32 @@
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="10" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>61</v>
+        <v>235</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="G71" s="11" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="72" spans="1:7">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E72" s="2">
         <v>600001</v>
@@ -5902,10 +5928,10 @@
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="3" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="F73" s="1"/>
     </row>
@@ -5913,10 +5939,10 @@
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="F74" s="1"/>
     </row>
@@ -5924,10 +5950,10 @@
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F75" s="1"/>
     </row>
@@ -5939,32 +5965,32 @@
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="10" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>61</v>
+        <v>235</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="G77" s="11" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="78" spans="1:7">
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E78" s="2">
         <v>600001</v>
@@ -5975,10 +6001,10 @@
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="3" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="F79" s="1"/>
     </row>
@@ -5986,10 +6012,10 @@
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="F80" s="1"/>
     </row>
@@ -5997,41 +6023,41 @@
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F81" s="1"/>
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="12" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>82</v>
+        <v>235</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="G83" s="11" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="84" spans="1:7">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="E84" s="2">
         <v>600001</v>
@@ -6045,7 +6071,7 @@
         <v>0</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="F85" s="1"/>
     </row>
@@ -6053,10 +6079,10 @@
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F86" s="1"/>
     </row>
@@ -6064,41 +6090,41 @@
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="3" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="F87" s="1"/>
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="12" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>82</v>
+        <v>235</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="G89" s="11" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="90" spans="1:7">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="E90" s="2">
         <v>600001</v>
@@ -6112,7 +6138,7 @@
         <v>0</v>
       </c>
       <c r="E91" s="5" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="F91" s="1"/>
     </row>
@@ -6120,10 +6146,10 @@
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F92" s="1"/>
     </row>
@@ -6131,41 +6157,41 @@
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="3" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="E93" s="5" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F93" s="1"/>
     </row>
     <row r="95" spans="1:7">
       <c r="A95" s="12" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C95" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D95" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D95" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="E95" s="2" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="G95" s="11" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="96" spans="1:7">
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E96" s="2">
         <v>600001</v>
@@ -6179,7 +6205,7 @@
         <v>0</v>
       </c>
       <c r="E97" s="5" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="F97" s="1"/>
     </row>
@@ -6187,10 +6213,10 @@
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F98" s="1"/>
     </row>
@@ -6198,41 +6224,41 @@
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
       <c r="D99" s="3" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="E99" s="5" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="F99" s="1"/>
     </row>
     <row r="101" spans="1:7">
       <c r="A101" s="12" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C101" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D101" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D101" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="E101" s="2" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="G101" s="11" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="102" spans="1:7">
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E102" s="2">
         <v>600001</v>
@@ -6246,7 +6272,7 @@
         <v>0</v>
       </c>
       <c r="E103" s="5" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="F103" s="1"/>
     </row>
@@ -6254,10 +6280,10 @@
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F104" s="1"/>
     </row>
@@ -6265,41 +6291,41 @@
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="3" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="E105" s="5" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F105" s="1"/>
     </row>
     <row r="107" spans="1:7">
       <c r="A107" s="12" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>8</v>
+        <v>235</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="G107" s="11" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="108" spans="1:7">
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E108" s="2">
         <v>600001</v>
@@ -6313,7 +6339,7 @@
         <v>0</v>
       </c>
       <c r="E109" s="5" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="F109" s="1"/>
     </row>
@@ -6321,10 +6347,10 @@
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E110" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="F110" s="1"/>
     </row>
@@ -6332,41 +6358,41 @@
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
       <c r="D111" s="3" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="E111" s="5" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="F111" s="1"/>
     </row>
     <row r="113" spans="1:7">
       <c r="A113" s="12" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>8</v>
+        <v>235</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="G113" s="11" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="114" spans="1:7">
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E114" s="2">
         <v>600001</v>
@@ -6380,7 +6406,7 @@
         <v>0</v>
       </c>
       <c r="E115" s="5" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="F115" s="1"/>
     </row>
@@ -6388,10 +6414,10 @@
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E116" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="E116" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="F116" s="1"/>
     </row>
@@ -6399,41 +6425,41 @@
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
       <c r="D117" s="3" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="E117" s="5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F117" s="1"/>
     </row>
     <row r="119" spans="1:7">
       <c r="A119" s="12" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>8</v>
+        <v>235</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="G119" s="11" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="120" spans="1:7">
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
       <c r="D120" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E120" s="2">
         <v>600001</v>
@@ -6447,7 +6473,7 @@
         <v>0</v>
       </c>
       <c r="E121" s="5" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="F121" s="1"/>
     </row>
@@ -6455,10 +6481,10 @@
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F122" s="1"/>
     </row>
@@ -6466,41 +6492,41 @@
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
       <c r="D123" s="3" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E123" s="5" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="F123" s="1"/>
     </row>
     <row r="125" spans="1:7">
       <c r="A125" s="12" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>8</v>
+        <v>235</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="G125" s="11" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="126" spans="1:7">
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
       <c r="D126" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E126" s="2">
         <v>600001</v>
@@ -6514,7 +6540,7 @@
         <v>0</v>
       </c>
       <c r="E127" s="5" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="F127" s="1"/>
     </row>
@@ -6522,10 +6548,10 @@
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
       <c r="D128" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F128" s="1"/>
     </row>
@@ -6533,7 +6559,7 @@
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
       <c r="D129" s="3" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E129">
         <v>123</v>
@@ -6542,32 +6568,32 @@
     </row>
     <row r="131" spans="1:7">
       <c r="A131" s="12" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>8</v>
+        <v>235</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="G131" s="11" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="132" spans="1:7">
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E132" s="2">
         <v>600001</v>
@@ -6581,7 +6607,7 @@
         <v>0</v>
       </c>
       <c r="E133" s="5" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="F133" s="1"/>
     </row>
@@ -6589,10 +6615,10 @@
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
       <c r="D134" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F134" s="1"/>
     </row>
@@ -6600,41 +6626,41 @@
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
       <c r="D135" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="E135" s="9" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="F135" s="1"/>
     </row>
     <row r="137" spans="1:7">
       <c r="A137" s="12" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>8</v>
+        <v>235</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="G137" s="11" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="138" spans="1:7">
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
       <c r="D138" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E138" s="2">
         <v>600001</v>
@@ -6648,7 +6674,7 @@
         <v>0</v>
       </c>
       <c r="E139" s="5" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="F139" s="1"/>
     </row>
@@ -6656,10 +6682,10 @@
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
       <c r="D140" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F140" s="1"/>
     </row>
@@ -6667,7 +6693,7 @@
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
       <c r="D141" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="E141" s="9">
         <v>123</v>
@@ -6676,32 +6702,32 @@
     </row>
     <row r="143" spans="1:7">
       <c r="A143" s="12" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="B143" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>8</v>
+        <v>235</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="G143" s="11" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="144" spans="1:7">
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
       <c r="D144" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E144" s="2">
         <v>600001</v>
@@ -6716,7 +6742,7 @@
         <v>0</v>
       </c>
       <c r="E145" s="5" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="F145" s="1"/>
       <c r="G145" s="1"/>
@@ -6725,10 +6751,10 @@
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
       <c r="D146" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E146" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="E146" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="F146" s="1"/>
       <c r="G146" s="1"/>
@@ -6737,42 +6763,42 @@
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
       <c r="D147" s="3" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="E147" s="5" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="F147" s="1"/>
       <c r="G147" s="1"/>
     </row>
     <row r="149" spans="1:7">
       <c r="A149" s="12" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>8</v>
+        <v>235</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="G149" s="11" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="150" spans="1:7">
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
       <c r="D150" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E150" s="2">
         <v>600001</v>
@@ -6787,7 +6813,7 @@
         <v>0</v>
       </c>
       <c r="E151" s="5" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="F151" s="1"/>
       <c r="G151" s="1"/>
@@ -6796,10 +6822,10 @@
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
       <c r="D152" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E152" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="E152" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="F152" s="1"/>
       <c r="G152" s="1"/>
@@ -6808,10 +6834,10 @@
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
       <c r="D153" s="3" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="E153" s="5" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F153" s="1"/>
       <c r="G153" s="1"/>
@@ -6819,34 +6845,34 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="C12" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
-    <hyperlink ref="C15" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
-    <hyperlink ref="C20" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
-    <hyperlink ref="C25" r:id="rId5" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
-    <hyperlink ref="C30" r:id="rId6" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
-    <hyperlink ref="C35" r:id="rId7" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
-    <hyperlink ref="C41" r:id="rId8" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
-    <hyperlink ref="C47" r:id="rId9" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
-    <hyperlink ref="C53" r:id="rId10" xr:uid="{00000000-0004-0000-0200-000009000000}"/>
-    <hyperlink ref="C59" r:id="rId11" xr:uid="{00000000-0004-0000-0200-00000A000000}"/>
-    <hyperlink ref="C65" r:id="rId12" xr:uid="{00000000-0004-0000-0200-00000B000000}"/>
-    <hyperlink ref="C71" r:id="rId13" xr:uid="{00000000-0004-0000-0200-00000C000000}"/>
-    <hyperlink ref="C77" r:id="rId14" xr:uid="{00000000-0004-0000-0200-00000D000000}"/>
-    <hyperlink ref="C83" r:id="rId15" xr:uid="{00000000-0004-0000-0200-00000E000000}"/>
-    <hyperlink ref="C89" r:id="rId16" xr:uid="{00000000-0004-0000-0200-00000F000000}"/>
-    <hyperlink ref="C95" r:id="rId17" xr:uid="{00000000-0004-0000-0200-000010000000}"/>
-    <hyperlink ref="C101" r:id="rId18" xr:uid="{00000000-0004-0000-0200-000011000000}"/>
-    <hyperlink ref="C107" r:id="rId19" xr:uid="{00000000-0004-0000-0200-000012000000}"/>
-    <hyperlink ref="C113" r:id="rId20" xr:uid="{00000000-0004-0000-0200-000013000000}"/>
-    <hyperlink ref="C119" r:id="rId21" xr:uid="{00000000-0004-0000-0200-000014000000}"/>
-    <hyperlink ref="C125" r:id="rId22" xr:uid="{00000000-0004-0000-0200-000015000000}"/>
-    <hyperlink ref="C131" r:id="rId23" xr:uid="{00000000-0004-0000-0200-000016000000}"/>
-    <hyperlink ref="C137" r:id="rId24" xr:uid="{00000000-0004-0000-0200-000017000000}"/>
-    <hyperlink ref="C143" r:id="rId25" xr:uid="{00000000-0004-0000-0200-000018000000}"/>
-    <hyperlink ref="C149" r:id="rId26" xr:uid="{00000000-0004-0000-0200-000019000000}"/>
-    <hyperlink ref="C5" r:id="rId27" xr:uid="{00000000-0004-0000-0200-00001A000000}"/>
-    <hyperlink ref="C9" r:id="rId28" xr:uid="{00000000-0004-0000-0200-00001B000000}"/>
+    <hyperlink ref="C2" r:id="rId1" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="C12" r:id="rId2" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="C15" r:id="rId3" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="C20" r:id="rId4" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink ref="C25" r:id="rId5" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
+    <hyperlink ref="C30" r:id="rId6" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
+    <hyperlink ref="C35" r:id="rId7" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
+    <hyperlink ref="C41" r:id="rId8" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
+    <hyperlink ref="C47" r:id="rId9" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
+    <hyperlink ref="C53" r:id="rId10" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0200-000009000000}"/>
+    <hyperlink ref="C59" r:id="rId11" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0200-00000A000000}"/>
+    <hyperlink ref="C65" r:id="rId12" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0200-00000B000000}"/>
+    <hyperlink ref="C71" r:id="rId13" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0200-00000C000000}"/>
+    <hyperlink ref="C77" r:id="rId14" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0200-00000D000000}"/>
+    <hyperlink ref="C83" r:id="rId15" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0200-00000E000000}"/>
+    <hyperlink ref="C89" r:id="rId16" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0200-00000F000000}"/>
+    <hyperlink ref="C95" r:id="rId17" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0200-000010000000}"/>
+    <hyperlink ref="C101" r:id="rId18" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0200-000011000000}"/>
+    <hyperlink ref="C107" r:id="rId19" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0200-000012000000}"/>
+    <hyperlink ref="C113" r:id="rId20" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0200-000013000000}"/>
+    <hyperlink ref="C119" r:id="rId21" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0200-000014000000}"/>
+    <hyperlink ref="C125" r:id="rId22" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0200-000015000000}"/>
+    <hyperlink ref="C131" r:id="rId23" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0200-000016000000}"/>
+    <hyperlink ref="C137" r:id="rId24" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0200-000017000000}"/>
+    <hyperlink ref="C143" r:id="rId25" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0200-000018000000}"/>
+    <hyperlink ref="C149" r:id="rId26" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0200-000019000000}"/>
+    <hyperlink ref="C5" r:id="rId27" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0200-00001A000000}"/>
+    <hyperlink ref="C9" r:id="rId28" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0200-00001B000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId29"/>

--- a/data/param2.xlsx
+++ b/data/param2.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiongyi/Documents/pytest/ADInterface/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{283A225E-7A32-8F4C-BE30-05AF3DCA2F09}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0134116-B790-5741-8784-AAB3AC8E2742}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-40" yWindow="460" windowWidth="33600" windowHeight="19040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="中插" sheetId="2" r:id="rId1"/>
     <sheet name="暂停" sheetId="5" r:id="rId2"/>
     <sheet name="直播前贴" sheetId="6" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1119" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="248">
   <si>
     <t>at</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -946,6 +946,54 @@
   </si>
   <si>
     <t>{$global_host}</t>
+  </si>
+  <si>
+    <t>function</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>global_string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a,b,c,d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>split</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>join</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>substr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定义测试字符串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分割字符串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>把列表合并成一个字符串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取字符串的一部分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1042,7 +1090,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1071,6 +1119,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1352,14 +1401,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I148"/>
+  <dimension ref="A1:I156"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+    <sheetView tabSelected="1" zoomScale="172" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
+    <col min="1" max="1" width="23" customWidth="1"/>
     <col min="2" max="2" width="13.83203125" customWidth="1"/>
     <col min="3" max="3" width="30.6640625" customWidth="1"/>
     <col min="4" max="4" width="15.1640625" customWidth="1"/>
@@ -1404,156 +1454,128 @@
         <v>232</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="E2" s="13" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="1" customFormat="1"/>
+    <row r="3" spans="1:9" s="1" customFormat="1">
+      <c r="A3" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>238</v>
+      </c>
+    </row>
     <row r="4" spans="1:9" s="1" customFormat="1">
-      <c r="B4" s="1" t="s">
+      <c r="E4" s="13"/>
+    </row>
+    <row r="5" spans="1:9" s="1" customFormat="1">
+      <c r="A5" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="1" customFormat="1">
+      <c r="E6" s="13"/>
+    </row>
+    <row r="7" spans="1:9" s="1" customFormat="1">
+      <c r="A7" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="1" customFormat="1">
+      <c r="E8" s="13"/>
+    </row>
+    <row r="9" spans="1:9" s="1" customFormat="1">
+      <c r="A9" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="1" customFormat="1">
+      <c r="E10" s="13"/>
+    </row>
+    <row r="11" spans="1:9" s="1" customFormat="1"/>
+    <row r="12" spans="1:9" s="1" customFormat="1">
+      <c r="B12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="C12" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G12" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="1" customFormat="1">
-      <c r="D5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E5" s="1" t="s">
+    <row r="13" spans="1:9" s="1" customFormat="1">
+      <c r="D13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
-      <c r="C6" s="1"/>
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" t="s">
+    <row r="14" spans="1:9">
+      <c r="C14" s="1"/>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" t="s">
         <v>63</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="2">
-        <v>600001</v>
-      </c>
-      <c r="F11" s="1"/>
-      <c r="G11" s="4"/>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="D14" s="7"/>
-      <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="1" t="s">
-        <v>65</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>7</v>
@@ -1561,456 +1583,469 @@
       <c r="C15" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="5" t="s">
-        <v>24</v>
+      <c r="E15" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>19</v>
+        <v>12</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E19" s="2">
         <v>600001</v>
       </c>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E17" s="1" t="s">
+      <c r="F19" s="1"/>
+      <c r="G19" s="4"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="D19" s="7"/>
-      <c r="G19" s="1"/>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7">
       <c r="B21" s="1"/>
-      <c r="C21" s="10"/>
+      <c r="C21" s="1"/>
       <c r="D21" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E21" s="2">
-        <v>600001</v>
+        <v>17</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E22" s="1" t="s">
+      <c r="D22" s="7"/>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" s="2">
+        <v>600001</v>
+      </c>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="D24" s="7"/>
-      <c r="G24" s="1"/>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:7">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>27</v>
+        <v>17</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E27" s="1" t="s">
+      <c r="D27" s="7"/>
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="B29" s="1"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E29" s="2">
+        <v>600001</v>
+      </c>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E30" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="D29" s="7"/>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>38</v>
-      </c>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
     </row>
     <row r="31" spans="1:7">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
-      <c r="D31" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>29</v>
+      <c r="D31" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="F31" s="1"/>
-      <c r="G31" s="4"/>
+      <c r="G31" s="1"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F32" s="1"/>
+      <c r="D32" s="7"/>
       <c r="G32" s="1"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1" t="s">
-        <v>30</v>
+      <c r="A33" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
+        <v>24</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="34" spans="1:7">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
-      <c r="D34" s="3" t="s">
-        <v>32</v>
+      <c r="D34" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
     </row>
     <row r="35" spans="1:7">
+      <c r="B35" s="1"/>
       <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
+      <c r="D35" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="D36" s="1" t="s">
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="D37" s="7"/>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D38" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E36" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F36" s="1" t="s">
+      <c r="E38" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F38" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G36" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F37" s="1"/>
-      <c r="G37" s="4"/>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
+      <c r="G38" s="3" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="39" spans="1:7">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
+      <c r="G39" s="4"/>
     </row>
     <row r="40" spans="1:7">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="3" t="s">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
     </row>
+    <row r="41" spans="1:7">
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+    </row>
     <row r="42" spans="1:7">
-      <c r="A42" t="s">
-        <v>70</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F42" s="1" t="s">
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F44" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G42" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E43" s="2">
-        <v>600001</v>
-      </c>
-      <c r="F43" s="1"/>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E44" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F44" s="1"/>
+      <c r="G44" s="3" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="45" spans="1:7">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="F45" s="1"/>
+      <c r="G45" s="4"/>
     </row>
     <row r="46" spans="1:7">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="3" t="s">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
     </row>
     <row r="47" spans="1:7">
+      <c r="B47" s="1"/>
       <c r="C47" s="1"/>
+      <c r="D47" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" t="s">
-        <v>71</v>
-      </c>
-      <c r="B48" s="1" t="s">
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" t="s">
+        <v>70</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C48" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="D48" s="1" t="s">
+      <c r="C50" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D50" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E48" s="2" t="s">
+      <c r="E50" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F48" s="1" t="s">
+      <c r="F50" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G48" t="s">
+      <c r="G50" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="49" spans="1:7">
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E49" s="2">
-        <v>600001</v>
-      </c>
-      <c r="F49" s="1"/>
-    </row>
-    <row r="50" spans="1:7">
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E50" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F50" s="1"/>
     </row>
     <row r="51" spans="1:7">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>48</v>
+        <v>16</v>
+      </c>
+      <c r="E51" s="2">
+        <v>600001</v>
       </c>
       <c r="F51" s="1"/>
     </row>
@@ -2018,66 +2053,69 @@
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F52" s="1"/>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F53" s="1"/>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E52" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F52" s="1"/>
-    </row>
-    <row r="54" spans="1:7">
-      <c r="A54" t="s">
-        <v>72</v>
-      </c>
-      <c r="B54" s="1" t="s">
+      <c r="E54" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F54" s="1"/>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="C55" s="1"/>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" t="s">
+        <v>71</v>
+      </c>
+      <c r="B56" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C54" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F54" s="1" t="s">
+      <c r="C56" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F56" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G54" s="8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E55" s="2">
-        <v>600001</v>
-      </c>
-      <c r="F55" s="1"/>
-    </row>
-    <row r="56" spans="1:7">
-      <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
-      <c r="D56" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E56" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F56" s="1"/>
+      <c r="G56" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="57" spans="1:7">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
+      </c>
+      <c r="E57" s="2">
+        <v>600001</v>
       </c>
       <c r="F57" s="1"/>
     </row>
@@ -2085,66 +2123,66 @@
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="3" t="s">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="F58" s="1"/>
     </row>
+    <row r="59" spans="1:7">
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F59" s="1"/>
+    </row>
     <row r="60" spans="1:7">
-      <c r="A60" t="s">
-        <v>73</v>
-      </c>
-      <c r="B60" s="1" t="s">
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F60" s="1"/>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" t="s">
+        <v>72</v>
+      </c>
+      <c r="B62" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C60" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="D60" s="1" t="s">
+      <c r="C62" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D62" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E60" s="2" t="s">
+      <c r="E62" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F60" s="1" t="s">
+      <c r="F62" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G60" s="8" t="s">
+      <c r="G62" s="8" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="61" spans="1:7">
-      <c r="B61" s="1"/>
-      <c r="C61" s="1"/>
-      <c r="D61" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E61" s="2">
-        <v>600001</v>
-      </c>
-      <c r="F61" s="1"/>
-    </row>
-    <row r="62" spans="1:7">
-      <c r="B62" s="1"/>
-      <c r="C62" s="1"/>
-      <c r="D62" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E62" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F62" s="1"/>
     </row>
     <row r="63" spans="1:7">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
+      </c>
+      <c r="E63" s="2">
+        <v>600001</v>
       </c>
       <c r="F63" s="1"/>
     </row>
@@ -2152,72 +2190,66 @@
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F64" s="1"/>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F65" s="1"/>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E64" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="F64" s="1"/>
-    </row>
-    <row r="65" spans="1:7">
-      <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
-      <c r="E65" s="1"/>
-      <c r="F65" s="1"/>
-    </row>
-    <row r="66" spans="1:7">
-      <c r="A66" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F66" s="1" t="s">
+      <c r="E66" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F66" s="1"/>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" t="s">
+        <v>73</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F68" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G66" s="8" t="s">
+      <c r="G68" s="8" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="67" spans="1:7">
-      <c r="B67" s="1"/>
-      <c r="C67" s="1"/>
-      <c r="D67" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E67" s="2">
-        <v>600001</v>
-      </c>
-      <c r="F67" s="1"/>
-    </row>
-    <row r="68" spans="1:7">
-      <c r="B68" s="1"/>
-      <c r="C68" s="1"/>
-      <c r="D68" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E68" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F68" s="1"/>
     </row>
     <row r="69" spans="1:7">
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>59</v>
+        <v>16</v>
+      </c>
+      <c r="E69" s="2">
+        <v>600001</v>
       </c>
       <c r="F69" s="1"/>
     </row>
@@ -2225,72 +2257,72 @@
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="3" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="F70" s="1"/>
     </row>
     <row r="71" spans="1:7">
+      <c r="B71" s="1"/>
       <c r="C71" s="1"/>
-      <c r="D71" s="1"/>
-      <c r="E71" s="1"/>
+      <c r="D71" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="F71" s="1"/>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B72" s="1" t="s">
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F72" s="1"/>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B74" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C72" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="D72" s="1" t="s">
+      <c r="C74" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D74" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E72" s="2" t="s">
+      <c r="E74" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="F72" s="1" t="s">
+      <c r="F74" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G72" s="8" t="s">
+      <c r="G74" s="8" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="73" spans="1:7">
-      <c r="B73" s="1"/>
-      <c r="C73" s="1"/>
-      <c r="D73" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E73" s="2">
-        <v>600001</v>
-      </c>
-      <c r="F73" s="1"/>
-    </row>
-    <row r="74" spans="1:7">
-      <c r="B74" s="1"/>
-      <c r="C74" s="1"/>
-      <c r="D74" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E74" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F74" s="1"/>
     </row>
     <row r="75" spans="1:7">
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>59</v>
+        <v>16</v>
+      </c>
+      <c r="E75" s="2">
+        <v>600001</v>
       </c>
       <c r="F75" s="1"/>
     </row>
@@ -2298,66 +2330,72 @@
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F76" s="1"/>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="B77" s="1"/>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F77" s="1"/>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="B78" s="1"/>
+      <c r="C78" s="1"/>
+      <c r="D78" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E76" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F76" s="1"/>
-    </row>
-    <row r="78" spans="1:7">
-      <c r="A78" t="s">
-        <v>83</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F78" s="1" t="s">
+      <c r="E78" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F78" s="1"/>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1"/>
+      <c r="F79" s="1"/>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F80" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G78" s="8" t="s">
+      <c r="G80" s="8" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="79" spans="1:7">
-      <c r="B79" s="1"/>
-      <c r="C79" s="1"/>
-      <c r="D79" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E79" s="2">
-        <v>600001</v>
-      </c>
-      <c r="F79" s="1"/>
-    </row>
-    <row r="80" spans="1:7">
-      <c r="B80" s="1"/>
-      <c r="C80" s="1"/>
-      <c r="D80" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="E80" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F80" s="1"/>
     </row>
     <row r="81" spans="1:7">
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
+      </c>
+      <c r="E81" s="2">
+        <v>600001</v>
       </c>
       <c r="F81" s="1"/>
     </row>
@@ -2365,66 +2403,66 @@
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="3" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>82</v>
+        <v>11</v>
       </c>
       <c r="F82" s="1"/>
     </row>
+    <row r="83" spans="1:7">
+      <c r="B83" s="1"/>
+      <c r="C83" s="1"/>
+      <c r="D83" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F83" s="1"/>
+    </row>
     <row r="84" spans="1:7">
-      <c r="A84" t="s">
-        <v>85</v>
-      </c>
-      <c r="B84" s="1" t="s">
+      <c r="B84" s="1"/>
+      <c r="C84" s="1"/>
+      <c r="D84" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E84" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F84" s="1"/>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86" t="s">
+        <v>83</v>
+      </c>
+      <c r="B86" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C84" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="D84" s="1" t="s">
+      <c r="C86" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D86" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E84" s="2" t="s">
+      <c r="E86" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="F84" s="1" t="s">
+      <c r="F86" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G84" s="8" t="s">
+      <c r="G86" s="8" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
-      <c r="B85" s="1"/>
-      <c r="C85" s="1"/>
-      <c r="D85" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E85" s="2">
-        <v>600001</v>
-      </c>
-      <c r="F85" s="1"/>
-    </row>
-    <row r="86" spans="1:7">
-      <c r="B86" s="1"/>
-      <c r="C86" s="1"/>
-      <c r="D86" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="E86" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F86" s="1"/>
     </row>
     <row r="87" spans="1:7">
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>18</v>
+        <v>78</v>
+      </c>
+      <c r="E87" s="2">
+        <v>600001</v>
       </c>
       <c r="F87" s="1"/>
     </row>
@@ -2432,66 +2470,66 @@
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E88" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F88" s="1"/>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="B89" s="1"/>
+      <c r="C89" s="1"/>
+      <c r="D89" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F89" s="1"/>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="B90" s="1"/>
+      <c r="C90" s="1"/>
+      <c r="D90" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="E88" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="F88" s="1"/>
-    </row>
-    <row r="90" spans="1:7">
-      <c r="A90" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="F90" s="1" t="s">
+      <c r="E90" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="F90" s="1"/>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92" t="s">
+        <v>85</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F92" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G90" s="8" t="s">
+      <c r="G92" s="8" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="91" spans="1:7">
-      <c r="B91" s="1"/>
-      <c r="C91" s="1"/>
-      <c r="D91" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E91" s="2">
-        <v>600001</v>
-      </c>
-      <c r="F91" s="1"/>
-    </row>
-    <row r="92" spans="1:7">
-      <c r="B92" s="1"/>
-      <c r="C92" s="1"/>
-      <c r="D92" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E92" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F92" s="1"/>
     </row>
     <row r="93" spans="1:7">
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>18</v>
+        <v>78</v>
+      </c>
+      <c r="E93" s="2">
+        <v>600001</v>
       </c>
       <c r="F93" s="1"/>
     </row>
@@ -2499,66 +2537,66 @@
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="3" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>89</v>
+        <v>11</v>
       </c>
       <c r="F94" s="1"/>
     </row>
+    <row r="95" spans="1:7">
+      <c r="B95" s="1"/>
+      <c r="C95" s="1"/>
+      <c r="D95" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F95" s="1"/>
+    </row>
     <row r="96" spans="1:7">
-      <c r="A96" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="B96" s="1" t="s">
+      <c r="B96" s="1"/>
+      <c r="C96" s="1"/>
+      <c r="D96" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E96" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="F96" s="1"/>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="B98" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C96" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="D96" s="1" t="s">
+      <c r="C98" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D98" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E96" s="2" t="s">
+      <c r="E98" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="F96" s="1" t="s">
+      <c r="F98" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G96" s="8" t="s">
+      <c r="G98" s="8" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
-      <c r="B97" s="1"/>
-      <c r="C97" s="1"/>
-      <c r="D97" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E97" s="2">
-        <v>600001</v>
-      </c>
-      <c r="F97" s="1"/>
-    </row>
-    <row r="98" spans="1:7">
-      <c r="B98" s="1"/>
-      <c r="C98" s="1"/>
-      <c r="D98" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E98" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F98" s="1"/>
     </row>
     <row r="99" spans="1:7">
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
+      </c>
+      <c r="E99" s="2">
+        <v>600001</v>
       </c>
       <c r="F99" s="1"/>
     </row>
@@ -2566,66 +2604,66 @@
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E100" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F100" s="1"/>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="B101" s="1"/>
+      <c r="C101" s="1"/>
+      <c r="D101" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F101" s="1"/>
+    </row>
+    <row r="102" spans="1:7">
+      <c r="B102" s="1"/>
+      <c r="C102" s="1"/>
+      <c r="D102" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="E100" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="F100" s="1"/>
-    </row>
-    <row r="102" spans="1:7">
-      <c r="A102" t="s">
-        <v>99</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="D102" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F102" s="1" t="s">
+      <c r="E102" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F102" s="1"/>
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F104" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G102" s="8" t="s">
+      <c r="G104" s="8" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="103" spans="1:7">
-      <c r="B103" s="1"/>
-      <c r="C103" s="1"/>
-      <c r="D103" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E103" s="2">
-        <v>600001</v>
-      </c>
-      <c r="F103" s="1"/>
-    </row>
-    <row r="104" spans="1:7">
-      <c r="B104" s="1"/>
-      <c r="C104" s="1"/>
-      <c r="D104" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E104" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F104" s="1"/>
     </row>
     <row r="105" spans="1:7">
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E105" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
+      </c>
+      <c r="E105" s="2">
+        <v>600001</v>
       </c>
       <c r="F105" s="1"/>
     </row>
@@ -2633,66 +2671,66 @@
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="3" t="s">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="E106" s="5" t="s">
-        <v>97</v>
+        <v>11</v>
       </c>
       <c r="F106" s="1"/>
     </row>
+    <row r="107" spans="1:7">
+      <c r="B107" s="1"/>
+      <c r="C107" s="1"/>
+      <c r="D107" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F107" s="1"/>
+    </row>
     <row r="108" spans="1:7">
-      <c r="A108" t="s">
-        <v>98</v>
-      </c>
-      <c r="B108" s="1" t="s">
+      <c r="B108" s="1"/>
+      <c r="C108" s="1"/>
+      <c r="D108" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E108" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="F108" s="1"/>
+    </row>
+    <row r="110" spans="1:7">
+      <c r="A110" t="s">
+        <v>99</v>
+      </c>
+      <c r="B110" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C108" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="D108" s="1" t="s">
+      <c r="C110" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D110" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E108" s="2" t="s">
+      <c r="E110" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="F108" s="1" t="s">
+      <c r="F110" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G108" s="8" t="s">
+      <c r="G110" s="8" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="109" spans="1:7">
-      <c r="B109" s="1"/>
-      <c r="C109" s="1"/>
-      <c r="D109" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E109" s="2">
-        <v>600001</v>
-      </c>
-      <c r="F109" s="1"/>
-    </row>
-    <row r="110" spans="1:7">
-      <c r="B110" s="1"/>
-      <c r="C110" s="1"/>
-      <c r="D110" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E110" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F110" s="1"/>
     </row>
     <row r="111" spans="1:7">
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
       <c r="D111" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
+      </c>
+      <c r="E111" s="2">
+        <v>600001</v>
       </c>
       <c r="F111" s="1"/>
     </row>
@@ -2700,66 +2738,66 @@
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E112" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F112" s="1"/>
+    </row>
+    <row r="113" spans="1:7">
+      <c r="B113" s="1"/>
+      <c r="C113" s="1"/>
+      <c r="D113" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F113" s="1"/>
+    </row>
+    <row r="114" spans="1:7">
+      <c r="B114" s="1"/>
+      <c r="C114" s="1"/>
+      <c r="D114" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="E112" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F112" s="1"/>
-    </row>
-    <row r="114" spans="1:7">
-      <c r="A114" t="s">
-        <v>106</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="D114" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="E114" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="F114" s="1" t="s">
+      <c r="E114" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F114" s="1"/>
+    </row>
+    <row r="116" spans="1:7">
+      <c r="A116" t="s">
+        <v>98</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F116" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G114" s="8" t="s">
+      <c r="G116" s="8" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="115" spans="1:7">
-      <c r="B115" s="1"/>
-      <c r="C115" s="1"/>
-      <c r="D115" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E115" s="2">
-        <v>600001</v>
-      </c>
-      <c r="F115" s="1"/>
-    </row>
-    <row r="116" spans="1:7">
-      <c r="B116" s="1"/>
-      <c r="C116" s="1"/>
-      <c r="D116" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E116" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F116" s="1"/>
     </row>
     <row r="117" spans="1:7">
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
       <c r="D117" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="E117" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
+      </c>
+      <c r="E117" s="2">
+        <v>600001</v>
       </c>
       <c r="F117" s="1"/>
     </row>
@@ -2767,66 +2805,66 @@
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
       <c r="D118" s="3" t="s">
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="E118" s="5" t="s">
-        <v>105</v>
+        <v>11</v>
       </c>
       <c r="F118" s="1"/>
     </row>
+    <row r="119" spans="1:7">
+      <c r="B119" s="1"/>
+      <c r="C119" s="1"/>
+      <c r="D119" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F119" s="1"/>
+    </row>
     <row r="120" spans="1:7">
-      <c r="A120" t="s">
-        <v>109</v>
-      </c>
-      <c r="B120" s="1" t="s">
+      <c r="B120" s="1"/>
+      <c r="C120" s="1"/>
+      <c r="D120" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E120" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F120" s="1"/>
+    </row>
+    <row r="122" spans="1:7">
+      <c r="A122" t="s">
+        <v>106</v>
+      </c>
+      <c r="B122" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C120" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="D120" s="1" t="s">
+      <c r="C122" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D122" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="E120" s="2" t="s">
+      <c r="E122" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="F120" s="1" t="s">
+      <c r="F122" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G120" s="8" t="s">
+      <c r="G122" s="8" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="121" spans="1:7">
-      <c r="B121" s="1"/>
-      <c r="C121" s="1"/>
-      <c r="D121" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E121" s="2">
-        <v>600001</v>
-      </c>
-      <c r="F121" s="1"/>
-    </row>
-    <row r="122" spans="1:7">
-      <c r="B122" s="1"/>
-      <c r="C122" s="1"/>
-      <c r="D122" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E122" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F122" s="1"/>
     </row>
     <row r="123" spans="1:7">
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
       <c r="D123" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="E123" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
+      </c>
+      <c r="E123" s="2">
+        <v>600001</v>
       </c>
       <c r="F123" s="1"/>
     </row>
@@ -2834,318 +2872,407 @@
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
       <c r="D124" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E124" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F124" s="1"/>
+    </row>
+    <row r="125" spans="1:7">
+      <c r="B125" s="1"/>
+      <c r="C125" s="1"/>
+      <c r="D125" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F125" s="1"/>
+    </row>
+    <row r="126" spans="1:7">
+      <c r="B126" s="1"/>
+      <c r="C126" s="1"/>
+      <c r="D126" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="E124">
-        <v>123</v>
-      </c>
-      <c r="F124" s="1"/>
-    </row>
-    <row r="126" spans="1:7">
-      <c r="A126" t="s">
-        <v>110</v>
-      </c>
-      <c r="B126" s="1" t="s">
+      <c r="E126" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F126" s="1"/>
+    </row>
+    <row r="128" spans="1:7">
+      <c r="A128" t="s">
+        <v>109</v>
+      </c>
+      <c r="B128" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C126" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="D126" s="1" t="s">
+      <c r="C128" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D128" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="E126" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="F126" s="1" t="s">
+      <c r="E128" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F128" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G126" s="8" t="s">
+      <c r="G128" s="8" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="127" spans="1:7">
-      <c r="B127" s="1"/>
-      <c r="C127" s="1"/>
-      <c r="D127" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E127" s="2">
-        <v>600001</v>
-      </c>
-      <c r="F127" s="1"/>
-    </row>
-    <row r="128" spans="1:7">
-      <c r="B128" s="1"/>
-      <c r="C128" s="1"/>
-      <c r="D128" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E128" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F128" s="1"/>
     </row>
     <row r="129" spans="1:7">
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
       <c r="D129" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="E129" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
+      </c>
+      <c r="E129" s="2">
+        <v>600001</v>
       </c>
       <c r="F129" s="1"/>
     </row>
     <row r="130" spans="1:7">
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
-      <c r="D130" t="s">
-        <v>112</v>
-      </c>
-      <c r="E130" s="9" t="s">
-        <v>108</v>
+      <c r="D130" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E130" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="F130" s="1"/>
     </row>
+    <row r="131" spans="1:7">
+      <c r="B131" s="1"/>
+      <c r="C131" s="1"/>
+      <c r="D131" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F131" s="1"/>
+    </row>
     <row r="132" spans="1:7">
-      <c r="A132" t="s">
-        <v>113</v>
-      </c>
-      <c r="B132" s="1" t="s">
+      <c r="B132" s="1"/>
+      <c r="C132" s="1"/>
+      <c r="D132" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E132">
+        <v>123</v>
+      </c>
+      <c r="F132" s="1"/>
+    </row>
+    <row r="134" spans="1:7">
+      <c r="A134" t="s">
+        <v>110</v>
+      </c>
+      <c r="B134" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C132" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="D132" s="1" t="s">
+      <c r="C134" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D134" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="E132" s="2" t="s">
+      <c r="E134" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="F132" s="1" t="s">
+      <c r="F134" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G132" s="8" t="s">
+      <c r="G134" s="8" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="133" spans="1:7">
-      <c r="B133" s="1"/>
-      <c r="C133" s="1"/>
-      <c r="D133" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E133" s="2">
-        <v>600001</v>
-      </c>
-      <c r="F133" s="1"/>
-    </row>
-    <row r="134" spans="1:7">
-      <c r="B134" s="1"/>
-      <c r="C134" s="1"/>
-      <c r="D134" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E134" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F134" s="1"/>
     </row>
     <row r="135" spans="1:7">
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
       <c r="D135" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="E135" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
+      </c>
+      <c r="E135" s="2">
+        <v>600001</v>
       </c>
       <c r="F135" s="1"/>
     </row>
     <row r="136" spans="1:7">
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
-      <c r="D136" t="s">
+      <c r="D136" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E136" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F136" s="1"/>
+    </row>
+    <row r="137" spans="1:7">
+      <c r="B137" s="1"/>
+      <c r="C137" s="1"/>
+      <c r="D137" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F137" s="1"/>
+    </row>
+    <row r="138" spans="1:7">
+      <c r="B138" s="1"/>
+      <c r="C138" s="1"/>
+      <c r="D138" t="s">
         <v>112</v>
       </c>
-      <c r="E136" s="9">
-        <v>123</v>
-      </c>
-      <c r="F136" s="1"/>
-    </row>
-    <row r="138" spans="1:7">
-      <c r="A138" t="s">
-        <v>117</v>
-      </c>
-      <c r="B138" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C138" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="D138" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E138" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="F138" s="1" t="s">
+      <c r="E138" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="F138" s="1"/>
+    </row>
+    <row r="140" spans="1:7">
+      <c r="A140" t="s">
+        <v>113</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F140" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G138" s="8" t="s">
+      <c r="G140" s="8" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="139" spans="1:7">
-      <c r="B139" s="1"/>
-      <c r="C139" s="1"/>
-      <c r="D139" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E139" s="2">
-        <v>600001</v>
-      </c>
-      <c r="F139" s="1"/>
-      <c r="G139" s="4"/>
-    </row>
-    <row r="140" spans="1:7">
-      <c r="B140" s="1"/>
-      <c r="C140" s="1"/>
-      <c r="D140" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E140" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F140" s="1"/>
-      <c r="G140" s="1"/>
     </row>
     <row r="141" spans="1:7">
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
       <c r="D141" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E141" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
+      </c>
+      <c r="E141" s="2">
+        <v>600001</v>
       </c>
       <c r="F141" s="1"/>
-      <c r="G141" s="1"/>
     </row>
     <row r="142" spans="1:7">
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
       <c r="D142" s="3" t="s">
-        <v>115</v>
+        <v>0</v>
       </c>
       <c r="E142" s="5" t="s">
-        <v>116</v>
+        <v>11</v>
       </c>
       <c r="F142" s="1"/>
-      <c r="G142" s="1"/>
+    </row>
+    <row r="143" spans="1:7">
+      <c r="B143" s="1"/>
+      <c r="C143" s="1"/>
+      <c r="D143" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F143" s="1"/>
     </row>
     <row r="144" spans="1:7">
-      <c r="A144" t="s">
-        <v>119</v>
-      </c>
-      <c r="B144" s="1" t="s">
+      <c r="B144" s="1"/>
+      <c r="C144" s="1"/>
+      <c r="D144" t="s">
+        <v>112</v>
+      </c>
+      <c r="E144" s="9">
+        <v>123</v>
+      </c>
+      <c r="F144" s="1"/>
+    </row>
+    <row r="146" spans="1:7">
+      <c r="A146" t="s">
+        <v>117</v>
+      </c>
+      <c r="B146" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C144" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="D144" s="1" t="s">
+      <c r="C146" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D146" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="E144" s="2" t="s">
+      <c r="E146" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="F144" s="1" t="s">
+      <c r="F146" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G144" s="8" t="s">
+      <c r="G146" s="8" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="145" spans="2:7">
-      <c r="B145" s="1"/>
-      <c r="C145" s="1"/>
-      <c r="D145" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E145" s="2">
-        <v>600001</v>
-      </c>
-      <c r="F145" s="1"/>
-      <c r="G145" s="4"/>
-    </row>
-    <row r="146" spans="2:7">
-      <c r="B146" s="1"/>
-      <c r="C146" s="1"/>
-      <c r="D146" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E146" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F146" s="1"/>
-      <c r="G146" s="1"/>
-    </row>
-    <row r="147" spans="2:7">
+    <row r="147" spans="1:7">
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
       <c r="D147" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E147" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
+      </c>
+      <c r="E147" s="2">
+        <v>600001</v>
       </c>
       <c r="F147" s="1"/>
-      <c r="G147" s="1"/>
-    </row>
-    <row r="148" spans="2:7">
+      <c r="G147" s="4"/>
+    </row>
+    <row r="148" spans="1:7">
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
       <c r="D148" s="3" t="s">
-        <v>115</v>
+        <v>0</v>
       </c>
       <c r="E148" s="5" t="s">
-        <v>120</v>
+        <v>11</v>
       </c>
       <c r="F148" s="1"/>
       <c r="G148" s="1"/>
+    </row>
+    <row r="149" spans="1:7">
+      <c r="B149" s="1"/>
+      <c r="C149" s="1"/>
+      <c r="D149" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F149" s="1"/>
+      <c r="G149" s="1"/>
+    </row>
+    <row r="150" spans="1:7">
+      <c r="B150" s="1"/>
+      <c r="C150" s="1"/>
+      <c r="D150" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E150" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="F150" s="1"/>
+      <c r="G150" s="1"/>
+    </row>
+    <row r="152" spans="1:7">
+      <c r="A152" t="s">
+        <v>119</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F152" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G152" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7">
+      <c r="B153" s="1"/>
+      <c r="C153" s="1"/>
+      <c r="D153" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E153" s="2">
+        <v>600001</v>
+      </c>
+      <c r="F153" s="1"/>
+      <c r="G153" s="4"/>
+    </row>
+    <row r="154" spans="1:7">
+      <c r="B154" s="1"/>
+      <c r="C154" s="1"/>
+      <c r="D154" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E154" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F154" s="1"/>
+      <c r="G154" s="1"/>
+    </row>
+    <row r="155" spans="1:7">
+      <c r="B155" s="1"/>
+      <c r="C155" s="1"/>
+      <c r="D155" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F155" s="1"/>
+      <c r="G155" s="1"/>
+    </row>
+    <row r="156" spans="1:7">
+      <c r="B156" s="1"/>
+      <c r="C156" s="1"/>
+      <c r="D156" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E156" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="F156" s="1"/>
+      <c r="G156" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C7" r:id="rId1" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="C10" r:id="rId2" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="C15" r:id="rId3" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="C20" r:id="rId4" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="C25" r:id="rId5" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="C30" r:id="rId6" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="C36" r:id="rId7" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="C42" r:id="rId8" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="C48" r:id="rId9" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="C54" r:id="rId10" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="C60" r:id="rId11" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="C66" r:id="rId12" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="C72" r:id="rId13" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="C78" r:id="rId14" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="C84" r:id="rId15" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="C90" r:id="rId16" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="C96" r:id="rId17" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="C102" r:id="rId18" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="C108" r:id="rId19" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="C114" r:id="rId20" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="C120" r:id="rId21" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="C126" r:id="rId22" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="C132" r:id="rId23" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="C138" r:id="rId24" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="C144" r:id="rId25" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="I2" r:id="rId26" xr:uid="{4EA2B76E-6A81-E942-8F43-5DD958CB1CE0}"/>
+    <hyperlink ref="C15" r:id="rId1" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="C18" r:id="rId2" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="C23" r:id="rId3" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="C28" r:id="rId4" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="C33" r:id="rId5" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="C38" r:id="rId6" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="C44" r:id="rId7" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="C50" r:id="rId8" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="C56" r:id="rId9" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="C62" r:id="rId10" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="C68" r:id="rId11" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="C74" r:id="rId12" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="C80" r:id="rId13" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="C86" r:id="rId14" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="C92" r:id="rId15" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="C98" r:id="rId16" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="C104" r:id="rId17" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="C110" r:id="rId18" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="C116" r:id="rId19" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="C122" r:id="rId20" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="C128" r:id="rId21" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="C134" r:id="rId22" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="C140" r:id="rId23" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="C146" r:id="rId24" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="C152" r:id="rId25" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="E2" r:id="rId26" xr:uid="{4EA2B76E-6A81-E942-8F43-5DD958CB1CE0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/param2.xlsx
+++ b/data/param2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10908"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10909"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiongyi/Documents/pytest/ADInterface/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0134116-B790-5741-8784-AAB3AC8E2742}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4271E6A0-98D0-6947-9A7C-9577F6A9F985}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="27320" windowHeight="13580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="中插" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1143" uniqueCount="251">
   <si>
     <t>at</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -993,6 +993,18 @@
   </si>
   <si>
     <t>取字符串的一部分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{$global_string}[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>global_read_list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试获取数组的值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1401,10 +1413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I156"/>
+  <dimension ref="A1:I158"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="172" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -1412,7 +1424,7 @@
     <col min="1" max="1" width="23" customWidth="1"/>
     <col min="2" max="2" width="13.83203125" customWidth="1"/>
     <col min="3" max="3" width="30.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.1640625" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" customWidth="1"/>
     <col min="5" max="5" width="30.83203125" customWidth="1"/>
     <col min="6" max="6" width="39.6640625" customWidth="1"/>
     <col min="7" max="7" width="22" customWidth="1"/>
@@ -1502,19 +1514,19 @@
     </row>
     <row r="7" spans="1:9" s="1" customFormat="1">
       <c r="A7" s="1" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>236</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="1" customFormat="1">
@@ -1522,552 +1534,550 @@
     </row>
     <row r="9" spans="1:9" s="1" customFormat="1">
       <c r="A9" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>236</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="E9" s="14" t="s">
-        <v>243</v>
+      <c r="E9" s="13" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="10" spans="1:9" s="1" customFormat="1">
       <c r="E10" s="13"/>
     </row>
-    <row r="11" spans="1:9" s="1" customFormat="1"/>
+    <row r="11" spans="1:9" s="1" customFormat="1">
+      <c r="A11" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>243</v>
+      </c>
+    </row>
     <row r="12" spans="1:9" s="1" customFormat="1">
-      <c r="B12" s="1" t="s">
+      <c r="E12" s="13"/>
+    </row>
+    <row r="13" spans="1:9" s="1" customFormat="1"/>
+    <row r="14" spans="1:9" s="1" customFormat="1">
+      <c r="B14" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="D12" s="1" t="s">
+      <c r="C14" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E14" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G14" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:9" s="1" customFormat="1">
-      <c r="D13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E13" s="1" t="s">
+    <row r="15" spans="1:9" s="1" customFormat="1">
+      <c r="D15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
-      <c r="C14" s="1"/>
-      <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" t="s">
+    <row r="16" spans="1:9">
+      <c r="C16" s="1"/>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
         <v>63</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="D15" s="1" t="s">
+      <c r="C17" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E17" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="G17" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E16" s="1" t="s">
+    <row r="18" spans="1:7">
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F18" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="G18" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
-      <c r="C17" s="1"/>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="1" t="s">
+    <row r="19" spans="1:7">
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="D18" s="6" t="s">
+      <c r="C20" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D20" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E20" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F20" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="G20" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E19" s="2">
-        <v>600001</v>
-      </c>
-      <c r="F19" s="1"/>
-      <c r="G19" s="4"/>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" s="2">
+        <v>600001</v>
+      </c>
+      <c r="F21" s="1"/>
+      <c r="G21" s="4"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="D22" s="7"/>
-      <c r="G22" s="1"/>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="1" t="s">
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="D24" s="7"/>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B25" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="D23" s="6" t="s">
+      <c r="C25" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D25" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="E25" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="F25" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="G25" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E24" s="2">
-        <v>600001</v>
-      </c>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:7">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
+      </c>
+      <c r="E26" s="2">
+        <v>600001</v>
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="D27" s="7"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" s="1"/>
       <c r="G27" s="1"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="1" t="s">
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="D29" s="7"/>
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B30" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="D28" s="6" t="s">
+      <c r="C30" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D30" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="E30" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="F30" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G28" s="1" t="s">
+      <c r="G30" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="B29" s="1"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E29" s="2">
-        <v>600001</v>
-      </c>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
     </row>
     <row r="31" spans="1:7">
       <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
+      <c r="C31" s="10"/>
       <c r="D31" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>26</v>
+        <v>16</v>
+      </c>
+      <c r="E31" s="2">
+        <v>600001</v>
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="D32" s="7"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32" s="1"/>
       <c r="G32" s="1"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="1" t="s">
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="D34" s="7"/>
+      <c r="G34" s="1"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B35" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="D33" s="6" t="s">
+      <c r="C35" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D35" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="E35" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F33" s="1" t="s">
+      <c r="F35" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G33" s="1" t="s">
+      <c r="G35" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
     </row>
     <row r="36" spans="1:7">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="D37" s="7"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="1" t="s">
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="D39" s="7"/>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B40" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C38" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="D38" s="1" t="s">
+      <c r="C40" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D40" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E38" s="2" t="s">
+      <c r="E40" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F38" s="1" t="s">
+      <c r="F40" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G38" s="3" t="s">
+      <c r="G40" s="3" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F39" s="1"/>
-      <c r="G39" s="4"/>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
     </row>
     <row r="41" spans="1:7">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
+      <c r="G41" s="4"/>
     </row>
     <row r="42" spans="1:7">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="3" t="s">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
     </row>
     <row r="43" spans="1:7">
+      <c r="B43" s="1"/>
       <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
+      <c r="D43" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="1" t="s">
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C44" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="D44" s="1" t="s">
+      <c r="C46" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D46" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E44" s="2" t="s">
+      <c r="E46" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F44" s="1" t="s">
+      <c r="F46" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G44" s="3" t="s">
+      <c r="G46" s="3" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F45" s="1"/>
-      <c r="G45" s="4"/>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E46" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
     </row>
     <row r="47" spans="1:7">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
+      <c r="G47" s="4"/>
     </row>
     <row r="48" spans="1:7">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="3" t="s">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
     </row>
+    <row r="49" spans="1:7">
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+    </row>
     <row r="50" spans="1:7">
-      <c r="A50" t="s">
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" t="s">
         <v>70</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B52" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C50" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="D50" s="1" t="s">
+      <c r="C52" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D52" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E50" s="2" t="s">
+      <c r="E52" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F50" s="1" t="s">
+      <c r="F52" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G50" t="s">
+      <c r="G52" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="51" spans="1:7">
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E51" s="2">
-        <v>600001</v>
-      </c>
-      <c r="F51" s="1"/>
-    </row>
-    <row r="52" spans="1:7">
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E52" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F52" s="1"/>
     </row>
     <row r="53" spans="1:7">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>48</v>
+        <v>16</v>
+      </c>
+      <c r="E53" s="2">
+        <v>600001</v>
       </c>
       <c r="F53" s="1"/>
     </row>
@@ -2075,69 +2085,69 @@
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F54" s="1"/>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F55" s="1"/>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E54" s="5" t="s">
+      <c r="E56" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="F54" s="1"/>
-    </row>
-    <row r="55" spans="1:7">
-      <c r="C55" s="1"/>
-    </row>
-    <row r="56" spans="1:7">
-      <c r="A56" t="s">
+      <c r="F56" s="1"/>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="C57" s="1"/>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" t="s">
         <v>71</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B58" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C56" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="D56" s="1" t="s">
+      <c r="C58" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D58" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E56" s="2" t="s">
+      <c r="E58" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F56" s="1" t="s">
+      <c r="F58" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G56" t="s">
+      <c r="G58" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="57" spans="1:7">
-      <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E57" s="2">
-        <v>600001</v>
-      </c>
-      <c r="F57" s="1"/>
-    </row>
-    <row r="58" spans="1:7">
-      <c r="B58" s="1"/>
-      <c r="C58" s="1"/>
-      <c r="D58" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E58" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F58" s="1"/>
     </row>
     <row r="59" spans="1:7">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>48</v>
+        <v>16</v>
+      </c>
+      <c r="E59" s="2">
+        <v>600001</v>
       </c>
       <c r="F59" s="1"/>
     </row>
@@ -2145,66 +2155,66 @@
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F60" s="1"/>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F61" s="1"/>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E60" s="5" t="s">
+      <c r="E62" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="F60" s="1"/>
-    </row>
-    <row r="62" spans="1:7">
-      <c r="A62" t="s">
+      <c r="F62" s="1"/>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" t="s">
         <v>72</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B64" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C62" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="D62" s="1" t="s">
+      <c r="C64" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D64" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E62" s="2" t="s">
+      <c r="E64" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F62" s="1" t="s">
+      <c r="F64" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G62" s="8" t="s">
+      <c r="G64" s="8" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
-      <c r="B63" s="1"/>
-      <c r="C63" s="1"/>
-      <c r="D63" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E63" s="2">
-        <v>600001</v>
-      </c>
-      <c r="F63" s="1"/>
-    </row>
-    <row r="64" spans="1:7">
-      <c r="B64" s="1"/>
-      <c r="C64" s="1"/>
-      <c r="D64" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E64" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F64" s="1"/>
     </row>
     <row r="65" spans="1:7">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
+      </c>
+      <c r="E65" s="2">
+        <v>600001</v>
       </c>
       <c r="F65" s="1"/>
     </row>
@@ -2212,66 +2222,66 @@
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F66" s="1"/>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F67" s="1"/>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E66" s="5" t="s">
+      <c r="E68" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="F66" s="1"/>
-    </row>
-    <row r="68" spans="1:7">
-      <c r="A68" t="s">
+      <c r="F68" s="1"/>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" t="s">
         <v>73</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="B70" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C68" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="D68" s="1" t="s">
+      <c r="C70" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D70" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E68" s="2" t="s">
+      <c r="E70" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F68" s="1" t="s">
+      <c r="F70" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G68" s="8" t="s">
+      <c r="G70" s="8" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="69" spans="1:7">
-      <c r="B69" s="1"/>
-      <c r="C69" s="1"/>
-      <c r="D69" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E69" s="2">
-        <v>600001</v>
-      </c>
-      <c r="F69" s="1"/>
-    </row>
-    <row r="70" spans="1:7">
-      <c r="B70" s="1"/>
-      <c r="C70" s="1"/>
-      <c r="D70" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E70" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F70" s="1"/>
     </row>
     <row r="71" spans="1:7">
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
+      </c>
+      <c r="E71" s="2">
+        <v>600001</v>
       </c>
       <c r="F71" s="1"/>
     </row>
@@ -2279,72 +2289,72 @@
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F72" s="1"/>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F73" s="1"/>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="B74" s="1"/>
+      <c r="C74" s="1"/>
+      <c r="D74" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E72" s="5" t="s">
+      <c r="E74" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="F72" s="1"/>
-    </row>
-    <row r="73" spans="1:7">
-      <c r="C73" s="1"/>
-      <c r="D73" s="1"/>
-      <c r="E73" s="1"/>
-      <c r="F73" s="1"/>
-    </row>
-    <row r="74" spans="1:7">
-      <c r="A74" s="1" t="s">
+      <c r="F74" s="1"/>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
+      <c r="F75" s="1"/>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="B76" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C74" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="D74" s="1" t="s">
+      <c r="C76" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D76" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E74" s="2" t="s">
+      <c r="E76" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="F74" s="1" t="s">
+      <c r="F76" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G74" s="8" t="s">
+      <c r="G76" s="8" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="75" spans="1:7">
-      <c r="B75" s="1"/>
-      <c r="C75" s="1"/>
-      <c r="D75" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E75" s="2">
-        <v>600001</v>
-      </c>
-      <c r="F75" s="1"/>
-    </row>
-    <row r="76" spans="1:7">
-      <c r="B76" s="1"/>
-      <c r="C76" s="1"/>
-      <c r="D76" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E76" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F76" s="1"/>
     </row>
     <row r="77" spans="1:7">
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>59</v>
+        <v>16</v>
+      </c>
+      <c r="E77" s="2">
+        <v>600001</v>
       </c>
       <c r="F77" s="1"/>
     </row>
@@ -2352,72 +2362,72 @@
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E78" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F78" s="1"/>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="B79" s="1"/>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F79" s="1"/>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="B80" s="1"/>
+      <c r="C80" s="1"/>
+      <c r="D80" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E78" s="5" t="s">
+      <c r="E80" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="F78" s="1"/>
-    </row>
-    <row r="79" spans="1:7">
-      <c r="C79" s="1"/>
-      <c r="D79" s="1"/>
-      <c r="E79" s="1"/>
-      <c r="F79" s="1"/>
-    </row>
-    <row r="80" spans="1:7">
-      <c r="A80" s="1" t="s">
+      <c r="F80" s="1"/>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
+      <c r="E81" s="1"/>
+      <c r="F81" s="1"/>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="B82" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C80" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="D80" s="1" t="s">
+      <c r="C82" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D82" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E80" s="2" t="s">
+      <c r="E82" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="F80" s="1" t="s">
+      <c r="F82" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G80" s="8" t="s">
+      <c r="G82" s="8" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="81" spans="1:7">
-      <c r="B81" s="1"/>
-      <c r="C81" s="1"/>
-      <c r="D81" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E81" s="2">
-        <v>600001</v>
-      </c>
-      <c r="F81" s="1"/>
-    </row>
-    <row r="82" spans="1:7">
-      <c r="B82" s="1"/>
-      <c r="C82" s="1"/>
-      <c r="D82" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E82" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F82" s="1"/>
     </row>
     <row r="83" spans="1:7">
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>59</v>
+        <v>16</v>
+      </c>
+      <c r="E83" s="2">
+        <v>600001</v>
       </c>
       <c r="F83" s="1"/>
     </row>
@@ -2425,66 +2435,66 @@
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E84" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F84" s="1"/>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="B85" s="1"/>
+      <c r="C85" s="1"/>
+      <c r="D85" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F85" s="1"/>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="B86" s="1"/>
+      <c r="C86" s="1"/>
+      <c r="D86" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E84" s="5" t="s">
+      <c r="E86" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="F84" s="1"/>
-    </row>
-    <row r="86" spans="1:7">
-      <c r="A86" t="s">
+      <c r="F86" s="1"/>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88" t="s">
         <v>83</v>
       </c>
-      <c r="B86" s="1" t="s">
+      <c r="B88" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C86" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="D86" s="1" t="s">
+      <c r="C88" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D88" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E86" s="2" t="s">
+      <c r="E88" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="F86" s="1" t="s">
+      <c r="F88" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G86" s="8" t="s">
+      <c r="G88" s="8" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="87" spans="1:7">
-      <c r="B87" s="1"/>
-      <c r="C87" s="1"/>
-      <c r="D87" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E87" s="2">
-        <v>600001</v>
-      </c>
-      <c r="F87" s="1"/>
-    </row>
-    <row r="88" spans="1:7">
-      <c r="B88" s="1"/>
-      <c r="C88" s="1"/>
-      <c r="D88" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="E88" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F88" s="1"/>
     </row>
     <row r="89" spans="1:7">
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>18</v>
+        <v>78</v>
+      </c>
+      <c r="E89" s="2">
+        <v>600001</v>
       </c>
       <c r="F89" s="1"/>
     </row>
@@ -2492,66 +2502,66 @@
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E90" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F90" s="1"/>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="B91" s="1"/>
+      <c r="C91" s="1"/>
+      <c r="D91" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F91" s="1"/>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="B92" s="1"/>
+      <c r="C92" s="1"/>
+      <c r="D92" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="E90" s="5" t="s">
+      <c r="E92" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="F90" s="1"/>
-    </row>
-    <row r="92" spans="1:7">
-      <c r="A92" t="s">
+      <c r="F92" s="1"/>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94" t="s">
         <v>85</v>
       </c>
-      <c r="B92" s="1" t="s">
+      <c r="B94" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C92" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="D92" s="1" t="s">
+      <c r="C94" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D94" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E92" s="2" t="s">
+      <c r="E94" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="F92" s="1" t="s">
+      <c r="F94" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G92" s="8" t="s">
+      <c r="G94" s="8" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="93" spans="1:7">
-      <c r="B93" s="1"/>
-      <c r="C93" s="1"/>
-      <c r="D93" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E93" s="2">
-        <v>600001</v>
-      </c>
-      <c r="F93" s="1"/>
-    </row>
-    <row r="94" spans="1:7">
-      <c r="B94" s="1"/>
-      <c r="C94" s="1"/>
-      <c r="D94" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="E94" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F94" s="1"/>
     </row>
     <row r="95" spans="1:7">
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>18</v>
+        <v>78</v>
+      </c>
+      <c r="E95" s="2">
+        <v>600001</v>
       </c>
       <c r="F95" s="1"/>
     </row>
@@ -2559,66 +2569,66 @@
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E96" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F96" s="1"/>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="B97" s="1"/>
+      <c r="C97" s="1"/>
+      <c r="D97" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F97" s="1"/>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="B98" s="1"/>
+      <c r="C98" s="1"/>
+      <c r="D98" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="E96" s="5" t="s">
+      <c r="E98" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="F96" s="1"/>
-    </row>
-    <row r="98" spans="1:7">
-      <c r="A98" s="12" t="s">
+      <c r="F98" s="1"/>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="A100" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="B98" s="1" t="s">
+      <c r="B100" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C98" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="D98" s="1" t="s">
+      <c r="C100" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D100" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E98" s="2" t="s">
+      <c r="E100" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="F98" s="1" t="s">
+      <c r="F100" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G98" s="8" t="s">
+      <c r="G100" s="8" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="99" spans="1:7">
-      <c r="B99" s="1"/>
-      <c r="C99" s="1"/>
-      <c r="D99" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E99" s="2">
-        <v>600001</v>
-      </c>
-      <c r="F99" s="1"/>
-    </row>
-    <row r="100" spans="1:7">
-      <c r="B100" s="1"/>
-      <c r="C100" s="1"/>
-      <c r="D100" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E100" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F100" s="1"/>
     </row>
     <row r="101" spans="1:7">
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
+      </c>
+      <c r="E101" s="2">
+        <v>600001</v>
       </c>
       <c r="F101" s="1"/>
     </row>
@@ -2626,66 +2636,66 @@
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E102" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F102" s="1"/>
+    </row>
+    <row r="103" spans="1:7">
+      <c r="B103" s="1"/>
+      <c r="C103" s="1"/>
+      <c r="D103" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F103" s="1"/>
+    </row>
+    <row r="104" spans="1:7">
+      <c r="B104" s="1"/>
+      <c r="C104" s="1"/>
+      <c r="D104" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="E102" s="5" t="s">
+      <c r="E104" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="F102" s="1"/>
-    </row>
-    <row r="104" spans="1:7">
-      <c r="A104" s="12" t="s">
+      <c r="F104" s="1"/>
+    </row>
+    <row r="106" spans="1:7">
+      <c r="A106" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="B104" s="1" t="s">
+      <c r="B106" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C104" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="D104" s="1" t="s">
+      <c r="C106" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D106" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E104" s="2" t="s">
+      <c r="E106" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="F104" s="1" t="s">
+      <c r="F106" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G104" s="8" t="s">
+      <c r="G106" s="8" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="105" spans="1:7">
-      <c r="B105" s="1"/>
-      <c r="C105" s="1"/>
-      <c r="D105" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E105" s="2">
-        <v>600001</v>
-      </c>
-      <c r="F105" s="1"/>
-    </row>
-    <row r="106" spans="1:7">
-      <c r="B106" s="1"/>
-      <c r="C106" s="1"/>
-      <c r="D106" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E106" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F106" s="1"/>
     </row>
     <row r="107" spans="1:7">
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
       <c r="D107" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
+      </c>
+      <c r="E107" s="2">
+        <v>600001</v>
       </c>
       <c r="F107" s="1"/>
     </row>
@@ -2693,66 +2703,66 @@
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E108" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F108" s="1"/>
+    </row>
+    <row r="109" spans="1:7">
+      <c r="B109" s="1"/>
+      <c r="C109" s="1"/>
+      <c r="D109" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F109" s="1"/>
+    </row>
+    <row r="110" spans="1:7">
+      <c r="B110" s="1"/>
+      <c r="C110" s="1"/>
+      <c r="D110" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="E108" s="5" t="s">
+      <c r="E110" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="F108" s="1"/>
-    </row>
-    <row r="110" spans="1:7">
-      <c r="A110" t="s">
+      <c r="F110" s="1"/>
+    </row>
+    <row r="112" spans="1:7">
+      <c r="A112" t="s">
         <v>99</v>
       </c>
-      <c r="B110" s="1" t="s">
+      <c r="B112" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C110" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="D110" s="1" t="s">
+      <c r="C112" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D112" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E110" s="2" t="s">
+      <c r="E112" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="F110" s="1" t="s">
+      <c r="F112" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G110" s="8" t="s">
+      <c r="G112" s="8" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="111" spans="1:7">
-      <c r="B111" s="1"/>
-      <c r="C111" s="1"/>
-      <c r="D111" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E111" s="2">
-        <v>600001</v>
-      </c>
-      <c r="F111" s="1"/>
-    </row>
-    <row r="112" spans="1:7">
-      <c r="B112" s="1"/>
-      <c r="C112" s="1"/>
-      <c r="D112" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E112" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F112" s="1"/>
     </row>
     <row r="113" spans="1:7">
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E113" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
+      </c>
+      <c r="E113" s="2">
+        <v>600001</v>
       </c>
       <c r="F113" s="1"/>
     </row>
@@ -2760,66 +2770,66 @@
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E114" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F114" s="1"/>
+    </row>
+    <row r="115" spans="1:7">
+      <c r="B115" s="1"/>
+      <c r="C115" s="1"/>
+      <c r="D115" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F115" s="1"/>
+    </row>
+    <row r="116" spans="1:7">
+      <c r="B116" s="1"/>
+      <c r="C116" s="1"/>
+      <c r="D116" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="E114" s="5" t="s">
+      <c r="E116" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="F114" s="1"/>
-    </row>
-    <row r="116" spans="1:7">
-      <c r="A116" t="s">
+      <c r="F116" s="1"/>
+    </row>
+    <row r="118" spans="1:7">
+      <c r="A118" t="s">
         <v>98</v>
       </c>
-      <c r="B116" s="1" t="s">
+      <c r="B118" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C116" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="D116" s="1" t="s">
+      <c r="C118" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D118" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E116" s="2" t="s">
+      <c r="E118" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="F116" s="1" t="s">
+      <c r="F118" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G116" s="8" t="s">
+      <c r="G118" s="8" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="117" spans="1:7">
-      <c r="B117" s="1"/>
-      <c r="C117" s="1"/>
-      <c r="D117" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E117" s="2">
-        <v>600001</v>
-      </c>
-      <c r="F117" s="1"/>
-    </row>
-    <row r="118" spans="1:7">
-      <c r="B118" s="1"/>
-      <c r="C118" s="1"/>
-      <c r="D118" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E118" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F118" s="1"/>
     </row>
     <row r="119" spans="1:7">
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
       <c r="D119" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E119" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
+      </c>
+      <c r="E119" s="2">
+        <v>600001</v>
       </c>
       <c r="F119" s="1"/>
     </row>
@@ -2827,66 +2837,66 @@
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
       <c r="D120" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E120" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F120" s="1"/>
+    </row>
+    <row r="121" spans="1:7">
+      <c r="B121" s="1"/>
+      <c r="C121" s="1"/>
+      <c r="D121" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F121" s="1"/>
+    </row>
+    <row r="122" spans="1:7">
+      <c r="B122" s="1"/>
+      <c r="C122" s="1"/>
+      <c r="D122" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="E120" s="5" t="s">
+      <c r="E122" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="F120" s="1"/>
-    </row>
-    <row r="122" spans="1:7">
-      <c r="A122" t="s">
+      <c r="F122" s="1"/>
+    </row>
+    <row r="124" spans="1:7">
+      <c r="A124" t="s">
         <v>106</v>
       </c>
-      <c r="B122" s="1" t="s">
+      <c r="B124" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C122" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="D122" s="1" t="s">
+      <c r="C124" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D124" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="E122" s="2" t="s">
+      <c r="E124" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="F122" s="1" t="s">
+      <c r="F124" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G122" s="8" t="s">
+      <c r="G124" s="8" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="123" spans="1:7">
-      <c r="B123" s="1"/>
-      <c r="C123" s="1"/>
-      <c r="D123" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E123" s="2">
-        <v>600001</v>
-      </c>
-      <c r="F123" s="1"/>
-    </row>
-    <row r="124" spans="1:7">
-      <c r="B124" s="1"/>
-      <c r="C124" s="1"/>
-      <c r="D124" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E124" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F124" s="1"/>
     </row>
     <row r="125" spans="1:7">
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
       <c r="D125" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="E125" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
+      </c>
+      <c r="E125" s="2">
+        <v>600001</v>
       </c>
       <c r="F125" s="1"/>
     </row>
@@ -2894,66 +2904,66 @@
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
       <c r="D126" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E126" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F126" s="1"/>
+    </row>
+    <row r="127" spans="1:7">
+      <c r="B127" s="1"/>
+      <c r="C127" s="1"/>
+      <c r="D127" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F127" s="1"/>
+    </row>
+    <row r="128" spans="1:7">
+      <c r="B128" s="1"/>
+      <c r="C128" s="1"/>
+      <c r="D128" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="E126" s="5" t="s">
+      <c r="E128" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="F126" s="1"/>
-    </row>
-    <row r="128" spans="1:7">
-      <c r="A128" t="s">
+      <c r="F128" s="1"/>
+    </row>
+    <row r="130" spans="1:7">
+      <c r="A130" t="s">
         <v>109</v>
       </c>
-      <c r="B128" s="1" t="s">
+      <c r="B130" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C128" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="D128" s="1" t="s">
+      <c r="C130" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D130" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="E128" s="2" t="s">
+      <c r="E130" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="F128" s="1" t="s">
+      <c r="F130" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G128" s="8" t="s">
+      <c r="G130" s="8" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="129" spans="1:7">
-      <c r="B129" s="1"/>
-      <c r="C129" s="1"/>
-      <c r="D129" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E129" s="2">
-        <v>600001</v>
-      </c>
-      <c r="F129" s="1"/>
-    </row>
-    <row r="130" spans="1:7">
-      <c r="B130" s="1"/>
-      <c r="C130" s="1"/>
-      <c r="D130" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E130" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F130" s="1"/>
     </row>
     <row r="131" spans="1:7">
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
       <c r="D131" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="E131" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
+      </c>
+      <c r="E131" s="2">
+        <v>600001</v>
       </c>
       <c r="F131" s="1"/>
     </row>
@@ -2961,317 +2971,339 @@
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
       <c r="D132" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E132" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F132" s="1"/>
+    </row>
+    <row r="133" spans="1:7">
+      <c r="B133" s="1"/>
+      <c r="C133" s="1"/>
+      <c r="D133" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F133" s="1"/>
+    </row>
+    <row r="134" spans="1:7">
+      <c r="B134" s="1"/>
+      <c r="C134" s="1"/>
+      <c r="D134" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="E132">
+      <c r="E134">
         <v>123</v>
       </c>
-      <c r="F132" s="1"/>
-    </row>
-    <row r="134" spans="1:7">
-      <c r="A134" t="s">
+      <c r="F134" s="1"/>
+    </row>
+    <row r="136" spans="1:7">
+      <c r="A136" t="s">
         <v>110</v>
       </c>
-      <c r="B134" s="1" t="s">
+      <c r="B136" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C134" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="D134" s="1" t="s">
+      <c r="C136" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D136" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="E134" s="2" t="s">
+      <c r="E136" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="F134" s="1" t="s">
+      <c r="F136" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G134" s="8" t="s">
+      <c r="G136" s="8" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="135" spans="1:7">
-      <c r="B135" s="1"/>
-      <c r="C135" s="1"/>
-      <c r="D135" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E135" s="2">
-        <v>600001</v>
-      </c>
-      <c r="F135" s="1"/>
-    </row>
-    <row r="136" spans="1:7">
-      <c r="B136" s="1"/>
-      <c r="C136" s="1"/>
-      <c r="D136" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E136" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F136" s="1"/>
     </row>
     <row r="137" spans="1:7">
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
       <c r="D137" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="E137" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
+      </c>
+      <c r="E137" s="2">
+        <v>600001</v>
       </c>
       <c r="F137" s="1"/>
     </row>
     <row r="138" spans="1:7">
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
-      <c r="D138" t="s">
+      <c r="D138" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E138" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F138" s="1"/>
+    </row>
+    <row r="139" spans="1:7">
+      <c r="B139" s="1"/>
+      <c r="C139" s="1"/>
+      <c r="D139" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F139" s="1"/>
+    </row>
+    <row r="140" spans="1:7">
+      <c r="B140" s="1"/>
+      <c r="C140" s="1"/>
+      <c r="D140" t="s">
         <v>112</v>
       </c>
-      <c r="E138" s="9" t="s">
+      <c r="E140" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="F138" s="1"/>
-    </row>
-    <row r="140" spans="1:7">
-      <c r="A140" t="s">
+      <c r="F140" s="1"/>
+    </row>
+    <row r="142" spans="1:7">
+      <c r="A142" t="s">
         <v>113</v>
       </c>
-      <c r="B140" s="1" t="s">
+      <c r="B142" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C140" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="D140" s="1" t="s">
+      <c r="C142" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D142" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="E140" s="2" t="s">
+      <c r="E142" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="F140" s="1" t="s">
+      <c r="F142" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G140" s="8" t="s">
+      <c r="G142" s="8" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="141" spans="1:7">
-      <c r="B141" s="1"/>
-      <c r="C141" s="1"/>
-      <c r="D141" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E141" s="2">
-        <v>600001</v>
-      </c>
-      <c r="F141" s="1"/>
-    </row>
-    <row r="142" spans="1:7">
-      <c r="B142" s="1"/>
-      <c r="C142" s="1"/>
-      <c r="D142" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E142" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F142" s="1"/>
     </row>
     <row r="143" spans="1:7">
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
       <c r="D143" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="E143" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
+      </c>
+      <c r="E143" s="2">
+        <v>600001</v>
       </c>
       <c r="F143" s="1"/>
     </row>
     <row r="144" spans="1:7">
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
-      <c r="D144" t="s">
+      <c r="D144" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E144" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F144" s="1"/>
+    </row>
+    <row r="145" spans="1:7">
+      <c r="B145" s="1"/>
+      <c r="C145" s="1"/>
+      <c r="D145" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F145" s="1"/>
+    </row>
+    <row r="146" spans="1:7">
+      <c r="B146" s="1"/>
+      <c r="C146" s="1"/>
+      <c r="D146" t="s">
         <v>112</v>
       </c>
-      <c r="E144" s="9">
+      <c r="E146" s="9">
         <v>123</v>
       </c>
-      <c r="F144" s="1"/>
-    </row>
-    <row r="146" spans="1:7">
-      <c r="A146" t="s">
+      <c r="F146" s="1"/>
+    </row>
+    <row r="148" spans="1:7">
+      <c r="A148" t="s">
         <v>117</v>
       </c>
-      <c r="B146" s="1" t="s">
+      <c r="B148" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C146" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="D146" s="1" t="s">
+      <c r="C148" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D148" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="E146" s="2" t="s">
+      <c r="E148" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="F146" s="1" t="s">
+      <c r="F148" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G146" s="8" t="s">
+      <c r="G148" s="8" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="147" spans="1:7">
-      <c r="B147" s="1"/>
-      <c r="C147" s="1"/>
-      <c r="D147" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E147" s="2">
-        <v>600001</v>
-      </c>
-      <c r="F147" s="1"/>
-      <c r="G147" s="4"/>
-    </row>
-    <row r="148" spans="1:7">
-      <c r="B148" s="1"/>
-      <c r="C148" s="1"/>
-      <c r="D148" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E148" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F148" s="1"/>
-      <c r="G148" s="1"/>
     </row>
     <row r="149" spans="1:7">
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
       <c r="D149" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E149" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
+      </c>
+      <c r="E149" s="2">
+        <v>600001</v>
       </c>
       <c r="F149" s="1"/>
-      <c r="G149" s="1"/>
+      <c r="G149" s="4"/>
     </row>
     <row r="150" spans="1:7">
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
       <c r="D150" s="3" t="s">
-        <v>115</v>
+        <v>0</v>
       </c>
       <c r="E150" s="5" t="s">
-        <v>116</v>
+        <v>11</v>
       </c>
       <c r="F150" s="1"/>
       <c r="G150" s="1"/>
     </row>
+    <row r="151" spans="1:7">
+      <c r="B151" s="1"/>
+      <c r="C151" s="1"/>
+      <c r="D151" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F151" s="1"/>
+      <c r="G151" s="1"/>
+    </row>
     <row r="152" spans="1:7">
-      <c r="A152" t="s">
+      <c r="B152" s="1"/>
+      <c r="C152" s="1"/>
+      <c r="D152" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E152" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="F152" s="1"/>
+      <c r="G152" s="1"/>
+    </row>
+    <row r="154" spans="1:7">
+      <c r="A154" t="s">
         <v>119</v>
       </c>
-      <c r="B152" s="1" t="s">
+      <c r="B154" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C152" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="D152" s="1" t="s">
+      <c r="C154" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D154" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="E152" s="2" t="s">
+      <c r="E154" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="F152" s="1" t="s">
+      <c r="F154" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G152" s="8" t="s">
+      <c r="G154" s="8" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="153" spans="1:7">
-      <c r="B153" s="1"/>
-      <c r="C153" s="1"/>
-      <c r="D153" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E153" s="2">
-        <v>600001</v>
-      </c>
-      <c r="F153" s="1"/>
-      <c r="G153" s="4"/>
-    </row>
-    <row r="154" spans="1:7">
-      <c r="B154" s="1"/>
-      <c r="C154" s="1"/>
-      <c r="D154" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E154" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F154" s="1"/>
-      <c r="G154" s="1"/>
     </row>
     <row r="155" spans="1:7">
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
       <c r="D155" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E155" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
+      </c>
+      <c r="E155" s="2">
+        <v>600001</v>
       </c>
       <c r="F155" s="1"/>
-      <c r="G155" s="1"/>
+      <c r="G155" s="4"/>
     </row>
     <row r="156" spans="1:7">
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
       <c r="D156" s="3" t="s">
-        <v>115</v>
+        <v>0</v>
       </c>
       <c r="E156" s="5" t="s">
-        <v>120</v>
+        <v>11</v>
       </c>
       <c r="F156" s="1"/>
       <c r="G156" s="1"/>
+    </row>
+    <row r="157" spans="1:7">
+      <c r="B157" s="1"/>
+      <c r="C157" s="1"/>
+      <c r="D157" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F157" s="1"/>
+      <c r="G157" s="1"/>
+    </row>
+    <row r="158" spans="1:7">
+      <c r="B158" s="1"/>
+      <c r="C158" s="1"/>
+      <c r="D158" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E158" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="F158" s="1"/>
+      <c r="G158" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C15" r:id="rId1" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="C18" r:id="rId2" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="C23" r:id="rId3" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="C28" r:id="rId4" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="C33" r:id="rId5" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="C38" r:id="rId6" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="C44" r:id="rId7" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="C50" r:id="rId8" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="C56" r:id="rId9" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="C62" r:id="rId10" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="C68" r:id="rId11" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="C74" r:id="rId12" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="C80" r:id="rId13" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="C86" r:id="rId14" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="C92" r:id="rId15" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="C98" r:id="rId16" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="C104" r:id="rId17" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="C110" r:id="rId18" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="C116" r:id="rId19" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="C122" r:id="rId20" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="C128" r:id="rId21" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="C134" r:id="rId22" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="C140" r:id="rId23" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="C146" r:id="rId24" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="C152" r:id="rId25" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="C17" r:id="rId1" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="C20" r:id="rId2" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="C25" r:id="rId3" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="C30" r:id="rId4" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="C35" r:id="rId5" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="C40" r:id="rId6" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="C46" r:id="rId7" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="C52" r:id="rId8" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="C58" r:id="rId9" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="C64" r:id="rId10" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="C70" r:id="rId11" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="C76" r:id="rId12" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="C82" r:id="rId13" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="C88" r:id="rId14" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="C94" r:id="rId15" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="C100" r:id="rId16" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="C106" r:id="rId17" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="C112" r:id="rId18" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="C118" r:id="rId19" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="C124" r:id="rId20" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="C130" r:id="rId21" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="C136" r:id="rId22" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="C142" r:id="rId23" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="C148" r:id="rId24" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="C154" r:id="rId25" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
     <hyperlink ref="E2" r:id="rId26" xr:uid="{4EA2B76E-6A81-E942-8F43-5DD958CB1CE0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/param2.xlsx
+++ b/data/param2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10909"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10908"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiongyi/Documents/pytest/ADInterface/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4271E6A0-98D0-6947-9A7C-9577F6A9F985}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7A9D877-C343-C24C-B294-0D3EF92EC607}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="27320" windowHeight="13580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="中插" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1143" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1120" uniqueCount="237">
   <si>
     <t>at</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -949,62 +949,6 @@
   </si>
   <si>
     <t>function</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>global_string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a,b,c,d</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>split</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>join</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>substr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1:3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>定义测试字符串</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分割字符串</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>把列表合并成一个字符串</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>取字符串的一部分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{$global_string}[1]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>global_read_list</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试获取数组的值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1102,7 +1046,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1131,7 +1075,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1413,10 +1356,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I158"/>
+  <dimension ref="A1:I148"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="172" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -1478,178 +1421,210 @@
         <v>234</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="1" customFormat="1">
-      <c r="A3" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>238</v>
-      </c>
-    </row>
+    <row r="3" spans="1:9" s="1" customFormat="1"/>
     <row r="4" spans="1:9" s="1" customFormat="1">
-      <c r="E4" s="13"/>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="5" spans="1:9" s="1" customFormat="1">
-      <c r="A5" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>239</v>
-      </c>
       <c r="D5" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" s="1" customFormat="1">
-      <c r="E6" s="13"/>
-    </row>
-    <row r="7" spans="1:9" s="1" customFormat="1">
-      <c r="A7" s="1" t="s">
-        <v>250</v>
+        <v>0</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="C6" s="1"/>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>63</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>236</v>
+        <v>7</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" s="1" customFormat="1">
-      <c r="E8" s="13"/>
-    </row>
-    <row r="9" spans="1:9" s="1" customFormat="1">
-      <c r="A9" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" s="1" customFormat="1">
-      <c r="E10" s="13"/>
-    </row>
-    <row r="11" spans="1:9" s="1" customFormat="1">
-      <c r="A11" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" s="1" customFormat="1">
-      <c r="E12" s="13"/>
-    </row>
-    <row r="13" spans="1:9" s="1" customFormat="1"/>
-    <row r="14" spans="1:9" s="1" customFormat="1">
-      <c r="B14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="D14" s="1" t="s">
+      <c r="C10" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" s="1" customFormat="1">
-      <c r="D15" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>21</v>
+      <c r="E10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="2">
+        <v>600001</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="D14" s="7"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:9">
+      <c r="B16" s="1"/>
       <c r="C16" s="1"/>
+      <c r="D16" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="2">
+        <v>600001</v>
+      </c>
       <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" t="s">
-        <v>63</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
-      <c r="D18" s="1" t="s">
-        <v>0</v>
+      <c r="D18" s="6" t="s">
+        <v>17</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>13</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="C19" s="1"/>
+      <c r="D19" s="7"/>
+      <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>7</v>
@@ -1661,18 +1636,18 @@
         <v>8</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G20" s="3" t="s">
+      <c r="G20" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
+      <c r="C21" s="10"/>
       <c r="D21" s="6" t="s">
         <v>16</v>
       </c>
@@ -1680,7 +1655,7 @@
         <v>600001</v>
       </c>
       <c r="F21" s="1"/>
-      <c r="G21" s="4"/>
+      <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7">
       <c r="B22" s="1"/>
@@ -1700,8 +1675,8 @@
       <c r="D23" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>18</v>
+      <c r="E23" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
@@ -1712,7 +1687,7 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>7</v>
@@ -1723,11 +1698,11 @@
       <c r="D25" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="E25" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>19</v>
@@ -1739,8 +1714,8 @@
       <c r="D26" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E26" s="2">
-        <v>600001</v>
+      <c r="E26" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
@@ -1771,11 +1746,10 @@
     </row>
     <row r="29" spans="1:7">
       <c r="D29" s="7"/>
-      <c r="G29" s="1"/>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>7</v>
@@ -1783,38 +1757,38 @@
       <c r="C30" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="D30" s="6" t="s">
+      <c r="D30" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>19</v>
+        <v>36</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="B31" s="1"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E31" s="2">
-        <v>600001</v>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
+      <c r="G31" s="4"/>
     </row>
     <row r="32" spans="1:7">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
-      <c r="D32" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E32" s="1" t="s">
+      <c r="D32" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E32" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F32" s="1"/>
@@ -1823,283 +1797,273 @@
     <row r="33" spans="1:7">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
-      <c r="D33" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>26</v>
+      <c r="D33" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="D34" s="7"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F34" s="1"/>
       <c r="G34" s="1"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="D35" s="6" t="s">
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E35" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
+      <c r="E36" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="37" spans="1:7">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
-      <c r="D37" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>11</v>
+      <c r="D37" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
+      <c r="G37" s="4"/>
     </row>
     <row r="38" spans="1:7">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
-      <c r="D38" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>18</v>
+      <c r="D38" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="D39" s="7"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" t="s">
+        <v>70</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C40" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F40" s="1" t="s">
+      <c r="C42" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F42" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G40" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F41" s="1"/>
-      <c r="G41" s="4"/>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
+      <c r="G42" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="43" spans="1:7">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>31</v>
+        <v>16</v>
+      </c>
+      <c r="E43" s="2">
+        <v>600001</v>
       </c>
       <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
     </row>
     <row r="44" spans="1:7">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="3" t="s">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
     </row>
     <row r="45" spans="1:7">
+      <c r="B45" s="1"/>
       <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
+      <c r="D45" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F46" s="1" t="s">
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F46" s="1"/>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="C47" s="1"/>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" t="s">
+        <v>71</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F48" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G46" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F47" s="1"/>
-      <c r="G47" s="4"/>
-    </row>
-    <row r="48" spans="1:7">
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E48" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
+      <c r="G48" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="49" spans="1:7">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
+      </c>
+      <c r="E49" s="2">
+        <v>600001</v>
       </c>
       <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
     </row>
     <row r="50" spans="1:7">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="3" t="s">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F51" s="1"/>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" t="s">
-        <v>70</v>
-      </c>
-      <c r="B52" s="1" t="s">
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F52" s="1"/>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" t="s">
+        <v>72</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C52" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F52" s="1" t="s">
+      <c r="C54" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F54" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G52" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E53" s="2">
-        <v>600001</v>
-      </c>
-      <c r="F53" s="1"/>
-    </row>
-    <row r="54" spans="1:7">
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E54" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F54" s="1"/>
+      <c r="G54" s="8" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="55" spans="1:7">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>48</v>
+        <v>16</v>
+      </c>
+      <c r="E55" s="2">
+        <v>600001</v>
       </c>
       <c r="F55" s="1"/>
     </row>
@@ -2107,69 +2071,66 @@
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="3" t="s">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="F56" s="1"/>
     </row>
     <row r="57" spans="1:7">
+      <c r="B57" s="1"/>
       <c r="C57" s="1"/>
+      <c r="D57" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F57" s="1"/>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58" t="s">
-        <v>71</v>
-      </c>
-      <c r="B58" s="1" t="s">
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F58" s="1"/>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" t="s">
+        <v>73</v>
+      </c>
+      <c r="B60" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C58" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F58" s="1" t="s">
+      <c r="C60" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F60" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G58" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
-      <c r="B59" s="1"/>
-      <c r="C59" s="1"/>
-      <c r="D59" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E59" s="2">
-        <v>600001</v>
-      </c>
-      <c r="F59" s="1"/>
-    </row>
-    <row r="60" spans="1:7">
-      <c r="B60" s="1"/>
-      <c r="C60" s="1"/>
-      <c r="D60" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E60" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F60" s="1"/>
+      <c r="G60" s="8" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="61" spans="1:7">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>48</v>
+        <v>16</v>
+      </c>
+      <c r="E61" s="2">
+        <v>600001</v>
       </c>
       <c r="F61" s="1"/>
     </row>
@@ -2177,66 +2138,72 @@
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="3" t="s">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="F62" s="1"/>
     </row>
+    <row r="63" spans="1:7">
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F63" s="1"/>
+    </row>
     <row r="64" spans="1:7">
-      <c r="A64" t="s">
-        <v>72</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F64" s="1" t="s">
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F64" s="1"/>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F66" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G64" s="8" t="s">
+      <c r="G66" s="8" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="65" spans="1:7">
-      <c r="B65" s="1"/>
-      <c r="C65" s="1"/>
-      <c r="D65" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E65" s="2">
-        <v>600001</v>
-      </c>
-      <c r="F65" s="1"/>
-    </row>
-    <row r="66" spans="1:7">
-      <c r="B66" s="1"/>
-      <c r="C66" s="1"/>
-      <c r="D66" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E66" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F66" s="1"/>
     </row>
     <row r="67" spans="1:7">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
+      </c>
+      <c r="E67" s="2">
+        <v>600001</v>
       </c>
       <c r="F67" s="1"/>
     </row>
@@ -2244,66 +2211,72 @@
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="3" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="F68" s="1"/>
     </row>
+    <row r="69" spans="1:7">
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F69" s="1"/>
+    </row>
     <row r="70" spans="1:7">
-      <c r="A70" t="s">
-        <v>73</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F70" s="1" t="s">
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F70" s="1"/>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F72" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G70" s="8" t="s">
+      <c r="G72" s="8" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
-      <c r="B71" s="1"/>
-      <c r="C71" s="1"/>
-      <c r="D71" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E71" s="2">
-        <v>600001</v>
-      </c>
-      <c r="F71" s="1"/>
-    </row>
-    <row r="72" spans="1:7">
-      <c r="B72" s="1"/>
-      <c r="C72" s="1"/>
-      <c r="D72" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E72" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F72" s="1"/>
     </row>
     <row r="73" spans="1:7">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
+      </c>
+      <c r="E73" s="2">
+        <v>600001</v>
       </c>
       <c r="F73" s="1"/>
     </row>
@@ -2311,72 +2284,66 @@
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="3" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="F74" s="1"/>
     </row>
     <row r="75" spans="1:7">
+      <c r="B75" s="1"/>
       <c r="C75" s="1"/>
-      <c r="D75" s="1"/>
-      <c r="E75" s="1"/>
+      <c r="D75" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>59</v>
+      </c>
       <c r="F75" s="1"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F76" s="1" t="s">
+      <c r="B76" s="1"/>
+      <c r="C76" s="1"/>
+      <c r="D76" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F76" s="1"/>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78" t="s">
+        <v>83</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F78" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G76" s="8" t="s">
+      <c r="G78" s="8" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="77" spans="1:7">
-      <c r="B77" s="1"/>
-      <c r="C77" s="1"/>
-      <c r="D77" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E77" s="2">
-        <v>600001</v>
-      </c>
-      <c r="F77" s="1"/>
-    </row>
-    <row r="78" spans="1:7">
-      <c r="B78" s="1"/>
-      <c r="C78" s="1"/>
-      <c r="D78" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E78" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F78" s="1"/>
     </row>
     <row r="79" spans="1:7">
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>59</v>
+        <v>78</v>
+      </c>
+      <c r="E79" s="2">
+        <v>600001</v>
       </c>
       <c r="F79" s="1"/>
     </row>
@@ -2384,72 +2351,66 @@
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="3" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="F80" s="1"/>
     </row>
     <row r="81" spans="1:7">
+      <c r="B81" s="1"/>
       <c r="C81" s="1"/>
-      <c r="D81" s="1"/>
-      <c r="E81" s="1"/>
+      <c r="D81" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="F81" s="1"/>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F82" s="1" t="s">
+      <c r="B82" s="1"/>
+      <c r="C82" s="1"/>
+      <c r="D82" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E82" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="F82" s="1"/>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84" t="s">
+        <v>85</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F84" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G82" s="8" t="s">
+      <c r="G84" s="8" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
-      <c r="B83" s="1"/>
-      <c r="C83" s="1"/>
-      <c r="D83" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E83" s="2">
-        <v>600001</v>
-      </c>
-      <c r="F83" s="1"/>
-    </row>
-    <row r="84" spans="1:7">
-      <c r="B84" s="1"/>
-      <c r="C84" s="1"/>
-      <c r="D84" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E84" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F84" s="1"/>
     </row>
     <row r="85" spans="1:7">
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>59</v>
+        <v>78</v>
+      </c>
+      <c r="E85" s="2">
+        <v>600001</v>
       </c>
       <c r="F85" s="1"/>
     </row>
@@ -2457,66 +2418,66 @@
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="3" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="E86" s="5" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="F86" s="1"/>
     </row>
+    <row r="87" spans="1:7">
+      <c r="B87" s="1"/>
+      <c r="C87" s="1"/>
+      <c r="D87" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F87" s="1"/>
+    </row>
     <row r="88" spans="1:7">
-      <c r="A88" t="s">
-        <v>83</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F88" s="1" t="s">
+      <c r="B88" s="1"/>
+      <c r="C88" s="1"/>
+      <c r="D88" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E88" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="F88" s="1"/>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F90" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G88" s="8" t="s">
+      <c r="G90" s="8" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="89" spans="1:7">
-      <c r="B89" s="1"/>
-      <c r="C89" s="1"/>
-      <c r="D89" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E89" s="2">
-        <v>600001</v>
-      </c>
-      <c r="F89" s="1"/>
-    </row>
-    <row r="90" spans="1:7">
-      <c r="B90" s="1"/>
-      <c r="C90" s="1"/>
-      <c r="D90" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="E90" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F90" s="1"/>
     </row>
     <row r="91" spans="1:7">
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
+      </c>
+      <c r="E91" s="2">
+        <v>600001</v>
       </c>
       <c r="F91" s="1"/>
     </row>
@@ -2524,66 +2485,66 @@
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="3" t="s">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="E92" s="5" t="s">
-        <v>82</v>
+        <v>11</v>
       </c>
       <c r="F92" s="1"/>
     </row>
+    <row r="93" spans="1:7">
+      <c r="B93" s="1"/>
+      <c r="C93" s="1"/>
+      <c r="D93" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F93" s="1"/>
+    </row>
     <row r="94" spans="1:7">
-      <c r="A94" t="s">
-        <v>85</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F94" s="1" t="s">
+      <c r="B94" s="1"/>
+      <c r="C94" s="1"/>
+      <c r="D94" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E94" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F94" s="1"/>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F96" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G94" s="8" t="s">
+      <c r="G96" s="8" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="95" spans="1:7">
-      <c r="B95" s="1"/>
-      <c r="C95" s="1"/>
-      <c r="D95" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E95" s="2">
-        <v>600001</v>
-      </c>
-      <c r="F95" s="1"/>
-    </row>
-    <row r="96" spans="1:7">
-      <c r="B96" s="1"/>
-      <c r="C96" s="1"/>
-      <c r="D96" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="E96" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F96" s="1"/>
     </row>
     <row r="97" spans="1:7">
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
+      </c>
+      <c r="E97" s="2">
+        <v>600001</v>
       </c>
       <c r="F97" s="1"/>
     </row>
@@ -2591,66 +2552,66 @@
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="3" t="s">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="E98" s="5" t="s">
-        <v>86</v>
+        <v>11</v>
       </c>
       <c r="F98" s="1"/>
     </row>
+    <row r="99" spans="1:7">
+      <c r="B99" s="1"/>
+      <c r="C99" s="1"/>
+      <c r="D99" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F99" s="1"/>
+    </row>
     <row r="100" spans="1:7">
-      <c r="A100" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="F100" s="1" t="s">
+      <c r="B100" s="1"/>
+      <c r="C100" s="1"/>
+      <c r="D100" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E100" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="F100" s="1"/>
+    </row>
+    <row r="102" spans="1:7">
+      <c r="A102" t="s">
+        <v>99</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F102" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G100" s="8" t="s">
+      <c r="G102" s="8" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
-      <c r="B101" s="1"/>
-      <c r="C101" s="1"/>
-      <c r="D101" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E101" s="2">
-        <v>600001</v>
-      </c>
-      <c r="F101" s="1"/>
-    </row>
-    <row r="102" spans="1:7">
-      <c r="B102" s="1"/>
-      <c r="C102" s="1"/>
-      <c r="D102" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E102" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F102" s="1"/>
     </row>
     <row r="103" spans="1:7">
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
+      </c>
+      <c r="E103" s="2">
+        <v>600001</v>
       </c>
       <c r="F103" s="1"/>
     </row>
@@ -2658,66 +2619,66 @@
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="3" t="s">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="E104" s="5" t="s">
-        <v>89</v>
+        <v>11</v>
       </c>
       <c r="F104" s="1"/>
     </row>
+    <row r="105" spans="1:7">
+      <c r="B105" s="1"/>
+      <c r="C105" s="1"/>
+      <c r="D105" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F105" s="1"/>
+    </row>
     <row r="106" spans="1:7">
-      <c r="A106" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E106" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="F106" s="1" t="s">
+      <c r="B106" s="1"/>
+      <c r="C106" s="1"/>
+      <c r="D106" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E106" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F106" s="1"/>
+    </row>
+    <row r="108" spans="1:7">
+      <c r="A108" t="s">
+        <v>98</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F108" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G106" s="8" t="s">
+      <c r="G108" s="8" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="107" spans="1:7">
-      <c r="B107" s="1"/>
-      <c r="C107" s="1"/>
-      <c r="D107" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E107" s="2">
-        <v>600001</v>
-      </c>
-      <c r="F107" s="1"/>
-    </row>
-    <row r="108" spans="1:7">
-      <c r="B108" s="1"/>
-      <c r="C108" s="1"/>
-      <c r="D108" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E108" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F108" s="1"/>
     </row>
     <row r="109" spans="1:7">
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
+      </c>
+      <c r="E109" s="2">
+        <v>600001</v>
       </c>
       <c r="F109" s="1"/>
     </row>
@@ -2725,66 +2686,66 @@
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
       <c r="D110" s="3" t="s">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="E110" s="5" t="s">
-        <v>92</v>
+        <v>11</v>
       </c>
       <c r="F110" s="1"/>
     </row>
+    <row r="111" spans="1:7">
+      <c r="B111" s="1"/>
+      <c r="C111" s="1"/>
+      <c r="D111" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F111" s="1"/>
+    </row>
     <row r="112" spans="1:7">
-      <c r="A112" t="s">
-        <v>99</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="D112" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F112" s="1" t="s">
+      <c r="B112" s="1"/>
+      <c r="C112" s="1"/>
+      <c r="D112" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E112" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F112" s="1"/>
+    </row>
+    <row r="114" spans="1:7">
+      <c r="A114" t="s">
+        <v>106</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F114" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G112" s="8" t="s">
+      <c r="G114" s="8" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="113" spans="1:7">
-      <c r="B113" s="1"/>
-      <c r="C113" s="1"/>
-      <c r="D113" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E113" s="2">
-        <v>600001</v>
-      </c>
-      <c r="F113" s="1"/>
-    </row>
-    <row r="114" spans="1:7">
-      <c r="B114" s="1"/>
-      <c r="C114" s="1"/>
-      <c r="D114" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E114" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F114" s="1"/>
     </row>
     <row r="115" spans="1:7">
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
       <c r="D115" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
+      </c>
+      <c r="E115" s="2">
+        <v>600001</v>
       </c>
       <c r="F115" s="1"/>
     </row>
@@ -2792,66 +2753,66 @@
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="3" t="s">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="E116" s="5" t="s">
-        <v>97</v>
+        <v>11</v>
       </c>
       <c r="F116" s="1"/>
     </row>
+    <row r="117" spans="1:7">
+      <c r="B117" s="1"/>
+      <c r="C117" s="1"/>
+      <c r="D117" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F117" s="1"/>
+    </row>
     <row r="118" spans="1:7">
-      <c r="A118" t="s">
-        <v>98</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C118" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="D118" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E118" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F118" s="1" t="s">
+      <c r="B118" s="1"/>
+      <c r="C118" s="1"/>
+      <c r="D118" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E118" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F118" s="1"/>
+    </row>
+    <row r="120" spans="1:7">
+      <c r="A120" t="s">
+        <v>109</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F120" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G118" s="8" t="s">
+      <c r="G120" s="8" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="119" spans="1:7">
-      <c r="B119" s="1"/>
-      <c r="C119" s="1"/>
-      <c r="D119" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E119" s="2">
-        <v>600001</v>
-      </c>
-      <c r="F119" s="1"/>
-    </row>
-    <row r="120" spans="1:7">
-      <c r="B120" s="1"/>
-      <c r="C120" s="1"/>
-      <c r="D120" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E120" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F120" s="1"/>
     </row>
     <row r="121" spans="1:7">
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
       <c r="D121" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E121" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
+      </c>
+      <c r="E121" s="2">
+        <v>600001</v>
       </c>
       <c r="F121" s="1"/>
     </row>
@@ -2859,66 +2820,66 @@
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
       <c r="D122" s="3" t="s">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="E122" s="5" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="F122" s="1"/>
     </row>
+    <row r="123" spans="1:7">
+      <c r="B123" s="1"/>
+      <c r="C123" s="1"/>
+      <c r="D123" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F123" s="1"/>
+    </row>
     <row r="124" spans="1:7">
-      <c r="A124" t="s">
-        <v>106</v>
-      </c>
-      <c r="B124" s="1" t="s">
+      <c r="B124" s="1"/>
+      <c r="C124" s="1"/>
+      <c r="D124" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E124">
+        <v>123</v>
+      </c>
+      <c r="F124" s="1"/>
+    </row>
+    <row r="126" spans="1:7">
+      <c r="A126" t="s">
+        <v>110</v>
+      </c>
+      <c r="B126" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C124" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="D124" s="1" t="s">
+      <c r="C126" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D126" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="E124" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="F124" s="1" t="s">
+      <c r="E126" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F126" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G124" s="8" t="s">
+      <c r="G126" s="8" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="125" spans="1:7">
-      <c r="B125" s="1"/>
-      <c r="C125" s="1"/>
-      <c r="D125" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E125" s="2">
-        <v>600001</v>
-      </c>
-      <c r="F125" s="1"/>
-    </row>
-    <row r="126" spans="1:7">
-      <c r="B126" s="1"/>
-      <c r="C126" s="1"/>
-      <c r="D126" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E126" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F126" s="1"/>
     </row>
     <row r="127" spans="1:7">
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
       <c r="D127" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="E127" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
+      </c>
+      <c r="E127" s="2">
+        <v>600001</v>
       </c>
       <c r="F127" s="1"/>
     </row>
@@ -2926,66 +2887,66 @@
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
       <c r="D128" s="3" t="s">
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="E128" s="5" t="s">
-        <v>105</v>
+        <v>11</v>
       </c>
       <c r="F128" s="1"/>
     </row>
+    <row r="129" spans="1:7">
+      <c r="B129" s="1"/>
+      <c r="C129" s="1"/>
+      <c r="D129" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F129" s="1"/>
+    </row>
     <row r="130" spans="1:7">
-      <c r="A130" t="s">
-        <v>109</v>
-      </c>
-      <c r="B130" s="1" t="s">
+      <c r="B130" s="1"/>
+      <c r="C130" s="1"/>
+      <c r="D130" t="s">
+        <v>112</v>
+      </c>
+      <c r="E130" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="F130" s="1"/>
+    </row>
+    <row r="132" spans="1:7">
+      <c r="A132" t="s">
+        <v>113</v>
+      </c>
+      <c r="B132" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C130" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="D130" s="1" t="s">
+      <c r="C132" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D132" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="E130" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="F130" s="1" t="s">
+      <c r="E132" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F132" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G130" s="8" t="s">
+      <c r="G132" s="8" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="131" spans="1:7">
-      <c r="B131" s="1"/>
-      <c r="C131" s="1"/>
-      <c r="D131" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E131" s="2">
-        <v>600001</v>
-      </c>
-      <c r="F131" s="1"/>
-    </row>
-    <row r="132" spans="1:7">
-      <c r="B132" s="1"/>
-      <c r="C132" s="1"/>
-      <c r="D132" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E132" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F132" s="1"/>
     </row>
     <row r="133" spans="1:7">
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
       <c r="D133" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="E133" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
+      </c>
+      <c r="E133" s="2">
+        <v>600001</v>
       </c>
       <c r="F133" s="1"/>
     </row>
@@ -2993,317 +2954,205 @@
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
       <c r="D134" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="E134">
+        <v>0</v>
+      </c>
+      <c r="E134" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F134" s="1"/>
+    </row>
+    <row r="135" spans="1:7">
+      <c r="B135" s="1"/>
+      <c r="C135" s="1"/>
+      <c r="D135" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F135" s="1"/>
+    </row>
+    <row r="136" spans="1:7">
+      <c r="B136" s="1"/>
+      <c r="C136" s="1"/>
+      <c r="D136" t="s">
+        <v>112</v>
+      </c>
+      <c r="E136" s="9">
         <v>123</v>
       </c>
-      <c r="F134" s="1"/>
-    </row>
-    <row r="136" spans="1:7">
-      <c r="A136" t="s">
-        <v>110</v>
-      </c>
-      <c r="B136" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C136" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="D136" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="E136" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="F136" s="1" t="s">
+      <c r="F136" s="1"/>
+    </row>
+    <row r="138" spans="1:7">
+      <c r="A138" t="s">
+        <v>117</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F138" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G136" s="8" t="s">
+      <c r="G138" s="8" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="137" spans="1:7">
-      <c r="B137" s="1"/>
-      <c r="C137" s="1"/>
-      <c r="D137" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E137" s="2">
-        <v>600001</v>
-      </c>
-      <c r="F137" s="1"/>
-    </row>
-    <row r="138" spans="1:7">
-      <c r="B138" s="1"/>
-      <c r="C138" s="1"/>
-      <c r="D138" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E138" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F138" s="1"/>
     </row>
     <row r="139" spans="1:7">
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
       <c r="D139" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="E139" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
+      </c>
+      <c r="E139" s="2">
+        <v>600001</v>
       </c>
       <c r="F139" s="1"/>
+      <c r="G139" s="4"/>
     </row>
     <row r="140" spans="1:7">
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
-      <c r="D140" t="s">
-        <v>112</v>
-      </c>
-      <c r="E140" s="9" t="s">
-        <v>108</v>
+      <c r="D140" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E140" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="F140" s="1"/>
+      <c r="G140" s="1"/>
+    </row>
+    <row r="141" spans="1:7">
+      <c r="B141" s="1"/>
+      <c r="C141" s="1"/>
+      <c r="D141" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F141" s="1"/>
+      <c r="G141" s="1"/>
     </row>
     <row r="142" spans="1:7">
-      <c r="A142" t="s">
-        <v>113</v>
-      </c>
-      <c r="B142" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C142" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="D142" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="E142" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="F142" s="1" t="s">
+      <c r="B142" s="1"/>
+      <c r="C142" s="1"/>
+      <c r="D142" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E142" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="F142" s="1"/>
+      <c r="G142" s="1"/>
+    </row>
+    <row r="144" spans="1:7">
+      <c r="A144" t="s">
+        <v>119</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F144" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G142" s="8" t="s">
+      <c r="G144" s="8" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="143" spans="1:7">
-      <c r="B143" s="1"/>
-      <c r="C143" s="1"/>
-      <c r="D143" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E143" s="2">
-        <v>600001</v>
-      </c>
-      <c r="F143" s="1"/>
-    </row>
-    <row r="144" spans="1:7">
-      <c r="B144" s="1"/>
-      <c r="C144" s="1"/>
-      <c r="D144" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E144" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F144" s="1"/>
-    </row>
-    <row r="145" spans="1:7">
+    <row r="145" spans="2:7">
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
       <c r="D145" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="E145" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
+      </c>
+      <c r="E145" s="2">
+        <v>600001</v>
       </c>
       <c r="F145" s="1"/>
-    </row>
-    <row r="146" spans="1:7">
+      <c r="G145" s="4"/>
+    </row>
+    <row r="146" spans="2:7">
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
-      <c r="D146" t="s">
-        <v>112</v>
-      </c>
-      <c r="E146" s="9">
-        <v>123</v>
+      <c r="D146" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E146" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="F146" s="1"/>
-    </row>
-    <row r="148" spans="1:7">
-      <c r="A148" t="s">
-        <v>117</v>
-      </c>
-      <c r="B148" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C148" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="D148" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E148" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="F148" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G148" s="8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7">
-      <c r="B149" s="1"/>
-      <c r="C149" s="1"/>
-      <c r="D149" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E149" s="2">
-        <v>600001</v>
-      </c>
-      <c r="F149" s="1"/>
-      <c r="G149" s="4"/>
-    </row>
-    <row r="150" spans="1:7">
-      <c r="B150" s="1"/>
-      <c r="C150" s="1"/>
-      <c r="D150" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E150" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F150" s="1"/>
-      <c r="G150" s="1"/>
-    </row>
-    <row r="151" spans="1:7">
-      <c r="B151" s="1"/>
-      <c r="C151" s="1"/>
-      <c r="D151" s="1" t="s">
+      <c r="G146" s="1"/>
+    </row>
+    <row r="147" spans="2:7">
+      <c r="B147" s="1"/>
+      <c r="C147" s="1"/>
+      <c r="D147" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E151" s="2" t="s">
+      <c r="E147" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F151" s="1"/>
-      <c r="G151" s="1"/>
-    </row>
-    <row r="152" spans="1:7">
-      <c r="B152" s="1"/>
-      <c r="C152" s="1"/>
-      <c r="D152" s="3" t="s">
+      <c r="F147" s="1"/>
+      <c r="G147" s="1"/>
+    </row>
+    <row r="148" spans="2:7">
+      <c r="B148" s="1"/>
+      <c r="C148" s="1"/>
+      <c r="D148" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="E152" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="F152" s="1"/>
-      <c r="G152" s="1"/>
-    </row>
-    <row r="154" spans="1:7">
-      <c r="A154" t="s">
-        <v>119</v>
-      </c>
-      <c r="B154" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C154" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="D154" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E154" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="F154" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G154" s="8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7">
-      <c r="B155" s="1"/>
-      <c r="C155" s="1"/>
-      <c r="D155" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E155" s="2">
-        <v>600001</v>
-      </c>
-      <c r="F155" s="1"/>
-      <c r="G155" s="4"/>
-    </row>
-    <row r="156" spans="1:7">
-      <c r="B156" s="1"/>
-      <c r="C156" s="1"/>
-      <c r="D156" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E156" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F156" s="1"/>
-      <c r="G156" s="1"/>
-    </row>
-    <row r="157" spans="1:7">
-      <c r="B157" s="1"/>
-      <c r="C157" s="1"/>
-      <c r="D157" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E157" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F157" s="1"/>
-      <c r="G157" s="1"/>
-    </row>
-    <row r="158" spans="1:7">
-      <c r="B158" s="1"/>
-      <c r="C158" s="1"/>
-      <c r="D158" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="E158" s="5" t="s">
+      <c r="E148" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="F158" s="1"/>
-      <c r="G158" s="1"/>
+      <c r="F148" s="1"/>
+      <c r="G148" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C17" r:id="rId1" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="C20" r:id="rId2" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="C25" r:id="rId3" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="C30" r:id="rId4" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="C35" r:id="rId5" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="C40" r:id="rId6" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="C46" r:id="rId7" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="C52" r:id="rId8" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="C58" r:id="rId9" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="C64" r:id="rId10" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="C70" r:id="rId11" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="C76" r:id="rId12" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="C82" r:id="rId13" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="C88" r:id="rId14" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="C94" r:id="rId15" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="C100" r:id="rId16" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="C106" r:id="rId17" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="C112" r:id="rId18" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="C118" r:id="rId19" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="C124" r:id="rId20" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="C130" r:id="rId21" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="C136" r:id="rId22" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="C142" r:id="rId23" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="C148" r:id="rId24" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="C154" r:id="rId25" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="C7" r:id="rId1" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="C10" r:id="rId2" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="C15" r:id="rId3" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="C20" r:id="rId4" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="C25" r:id="rId5" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="C30" r:id="rId6" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="C36" r:id="rId7" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="C42" r:id="rId8" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="C48" r:id="rId9" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="C54" r:id="rId10" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="C60" r:id="rId11" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="C66" r:id="rId12" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="C72" r:id="rId13" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="C78" r:id="rId14" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="C84" r:id="rId15" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="C90" r:id="rId16" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="C96" r:id="rId17" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="C102" r:id="rId18" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="C108" r:id="rId19" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="C114" r:id="rId20" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="C120" r:id="rId21" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="C126" r:id="rId22" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="C132" r:id="rId23" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="C138" r:id="rId24" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="C144" r:id="rId25" display="http://api.adott.ottcn.org/ad" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
     <hyperlink ref="E2" r:id="rId26" xr:uid="{4EA2B76E-6A81-E942-8F43-5DD958CB1CE0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
